--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 02,06,25ц-выезд 04,06.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 02,06,25ц-выезд 04,06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9C7E93-F5F3-4FD7-9053-34DBDA9BE02E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAA391A-C5DB-4224-B73E-61EB77AD7B2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$170</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="247">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -770,6 +770,9 @@
   </si>
   <si>
     <t xml:space="preserve"> АРОМАТНАЯ С ЧЕСНОЧКОМ СН в/к мтс 0.330кг</t>
+  </si>
+  <si>
+    <t>ЧОРИЗО ПРЕМИУМ Останкино с/к в/у 1/180</t>
   </si>
 </sst>
 </file>
@@ -1921,11 +1924,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L1693"/>
+  <dimension ref="A1:L1694"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J176" sqref="J176"/>
+      <pane ySplit="9" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J177" sqref="J177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2070,7 +2073,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="93" t="str">
-        <f>RIGHT(D11:D168,4)</f>
+        <f>RIGHT(D11:D169,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -2101,7 +2104,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93" t="str">
-        <f>RIGHT(D12:D169,4)</f>
+        <f>RIGHT(D12:D170,4)</f>
         <v>4555</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -2126,7 +2129,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="93" t="str">
-        <f>RIGHT(D13:D169,4)</f>
+        <f>RIGHT(D13:D170,4)</f>
         <v>5992</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2150,7 +2153,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="93" t="str">
-        <f>RIGHT(D14:D170,4)</f>
+        <f>RIGHT(D14:D171,4)</f>
         <v>6268</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2174,7 +2177,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="93" t="str">
-        <f>RIGHT(D15:D171,4)</f>
+        <f>RIGHT(D15:D172,4)</f>
         <v>7126</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -2200,7 +2203,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="93" t="str">
-        <f>RIGHT(D16:D171,4)</f>
+        <f>RIGHT(D16:D172,4)</f>
         <v>6247</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2224,7 +2227,7 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="93" t="str">
-        <f t="shared" ref="A17:A24" si="0">RIGHT(D17:D171,4)</f>
+        <f>RIGHT(D17:D172,4)</f>
         <v>6325</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2254,7 +2257,7 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D18:D173,4)</f>
         <v>6324</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2280,7 +2283,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D19:D174,4)</f>
         <v>6839</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2306,7 +2309,7 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D20:D175,4)</f>
         <v>7231</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -2330,7 +2333,7 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D21:D176,4)</f>
         <v>4063</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2360,7 +2363,7 @@
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D22:D177,4)</f>
         <v>6333</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -2390,7 +2393,7 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D23:D178,4)</f>
         <v>4574</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2420,7 +2423,7 @@
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D24:D179,4)</f>
         <v>6861</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -2450,7 +2453,7 @@
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="93" t="str">
-        <f>RIGHT(D25:D182,4)</f>
+        <f>RIGHT(D25:D183,4)</f>
         <v>6862</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -2474,7 +2477,7 @@
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="93" t="str">
-        <f>RIGHT(D26:D182,4)</f>
+        <f>RIGHT(D26:D183,4)</f>
         <v>6341</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -2498,7 +2501,7 @@
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="93" t="str">
-        <f>RIGHT(D27:D183,4)</f>
+        <f>RIGHT(D27:D184,4)</f>
         <v>5247</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -2528,7 +2531,7 @@
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="93" t="str">
-        <f t="shared" ref="A28:A33" si="1">RIGHT(D28:D186,4)</f>
+        <f>RIGHT(D28:D187,4)</f>
         <v>4813</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -2558,7 +2561,7 @@
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D29:D188,4)</f>
         <v>6392</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -2588,7 +2591,7 @@
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D30:D189,4)</f>
         <v>6801</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -2614,7 +2617,7 @@
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D31:D190,4)</f>
         <v>6802</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -2638,7 +2641,7 @@
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D32:D191,4)</f>
         <v>6877</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -2662,7 +2665,7 @@
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="93" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(D33:D192,4)</f>
         <v>6888</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -2688,7 +2691,7 @@
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="93" t="str">
-        <f>RIGHT(D34:D189,4)</f>
+        <f>RIGHT(D34:D190,4)</f>
         <v>5851</v>
       </c>
       <c r="B34" s="27" t="s">
@@ -2718,7 +2721,7 @@
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="93" t="str">
-        <f>RIGHT(D35:D190,4)</f>
+        <f>RIGHT(D35:D191,4)</f>
         <v>6159</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -2742,7 +2745,7 @@
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="93" t="str">
-        <f>RIGHT(D36:D190,4)</f>
+        <f>RIGHT(D36:D191,4)</f>
         <v>6158</v>
       </c>
       <c r="B36" s="27" t="s">
@@ -2770,7 +2773,7 @@
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93" t="str">
-        <f>RIGHT(D37:D192,4)</f>
+        <f>RIGHT(D37:D193,4)</f>
         <v>6340</v>
       </c>
       <c r="B37" s="95" t="s">
@@ -2798,7 +2801,7 @@
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="93" t="str">
-        <f>RIGHT(D38:D190,4)</f>
+        <f>RIGHT(D38:D191,4)</f>
         <v>6353</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -2828,7 +2831,7 @@
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="93" t="str">
-        <f>RIGHT(D39:D191,4)</f>
+        <f>RIGHT(D39:D192,4)</f>
         <v/>
       </c>
       <c r="B39" s="74" t="s">
@@ -2845,7 +2848,7 @@
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A40" s="93" t="str">
-        <f>RIGHT(D40:D194,4)</f>
+        <f>RIGHT(D40:D195,4)</f>
         <v>6870</v>
       </c>
       <c r="B40" s="27" t="s">
@@ -2870,7 +2873,7 @@
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="93" t="str">
-        <f>RIGHT(D41:D196,4)</f>
+        <f>RIGHT(D41:D197,4)</f>
         <v>7038</v>
       </c>
       <c r="B41" s="27" t="s">
@@ -2895,7 +2898,7 @@
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="93" t="str">
-        <f>RIGHT(D42:D197,4)</f>
+        <f>RIGHT(D42:D198,4)</f>
         <v>7040</v>
       </c>
       <c r="B42" s="27" t="s">
@@ -2922,7 +2925,7 @@
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="93" t="str">
-        <f>RIGHT(D43:D196,4)</f>
+        <f>RIGHT(D43:D197,4)</f>
         <v>7075</v>
       </c>
       <c r="B43" s="27" t="s">
@@ -2947,7 +2950,7 @@
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="93" t="str">
-        <f>RIGHT(D44:D197,4)</f>
+        <f>RIGHT(D44:D198,4)</f>
         <v>7070</v>
       </c>
       <c r="B44" s="27" t="s">
@@ -2972,7 +2975,7 @@
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="93" t="str">
-        <f>RIGHT(D45:D195,4)</f>
+        <f>RIGHT(D45:D196,4)</f>
         <v>6253</v>
       </c>
       <c r="B45" s="27" t="s">
@@ -2997,7 +3000,7 @@
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="93" t="str">
-        <f>RIGHT(D46:D194,4)</f>
+        <f>RIGHT(D46:D195,4)</f>
         <v>6602</v>
       </c>
       <c r="B46" s="27" t="s">
@@ -3022,7 +3025,7 @@
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="93" t="str">
-        <f>RIGHT(D47:D197,4)</f>
+        <f>RIGHT(D47:D198,4)</f>
         <v>6768</v>
       </c>
       <c r="B47" s="27" t="s">
@@ -3047,7 +3050,7 @@
     </row>
     <row r="48" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="93" t="str">
-        <f>RIGHT(D48:D198,4)</f>
+        <f>RIGHT(D48:D199,4)</f>
         <v>6770</v>
       </c>
       <c r="B48" s="27" t="s">
@@ -3072,7 +3075,7 @@
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="93" t="str">
-        <f>RIGHT(D49:D201,4)</f>
+        <f>RIGHT(D49:D202,4)</f>
         <v>6829</v>
       </c>
       <c r="B49" s="27" t="s">
@@ -3096,7 +3099,7 @@
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="93" t="str">
-        <f>RIGHT(D50:D206,4)</f>
+        <f>RIGHT(D50:D207,4)</f>
         <v>7074</v>
       </c>
       <c r="B50" s="27" t="s">
@@ -3120,7 +3123,7 @@
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="93" t="str">
-        <f>RIGHT(D51:D207,4)</f>
+        <f>RIGHT(D51:D208,4)</f>
         <v>7073</v>
       </c>
       <c r="B51" s="27" t="s">
@@ -3144,7 +3147,7 @@
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="93" t="str">
-        <f>RIGHT(D52:D208,4)</f>
+        <f>RIGHT(D52:D209,4)</f>
         <v>6759</v>
       </c>
       <c r="B52" s="27" t="s">
@@ -3168,7 +3171,7 @@
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="93" t="str">
-        <f>RIGHT(D53:D209,4)</f>
+        <f>RIGHT(D53:D210,4)</f>
         <v>6724</v>
       </c>
       <c r="B53" s="27" t="s">
@@ -3194,7 +3197,7 @@
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="93" t="str">
-        <f>RIGHT(D54:D210,4)</f>
+        <f>RIGHT(D54:D211,4)</f>
         <v>6616</v>
       </c>
       <c r="B54" s="27" t="s">
@@ -3220,7 +3223,7 @@
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="93" t="str">
-        <f>RIGHT(D55:D209,4)</f>
+        <f>RIGHT(D55:D210,4)</f>
         <v>6901</v>
       </c>
       <c r="B55" s="27" t="s">
@@ -3246,7 +3249,7 @@
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="93" t="str">
-        <f>RIGHT(D56:D210,4)</f>
+        <f>RIGHT(D56:D211,4)</f>
         <v>6962</v>
       </c>
       <c r="B56" s="27" t="s">
@@ -3272,7 +3275,7 @@
     </row>
     <row r="57" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="93" t="str">
-        <f>RIGHT(D57:D208,4)</f>
+        <f>RIGHT(D57:D209,4)</f>
         <v>6303</v>
       </c>
       <c r="B57" s="70" t="s">
@@ -3303,7 +3306,7 @@
     </row>
     <row r="58" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="93" t="str">
-        <f>RIGHT(D58:D209,4)</f>
+        <f>RIGHT(D58:D210,4)</f>
         <v>7077</v>
       </c>
       <c r="B58" s="70" t="s">
@@ -3328,7 +3331,7 @@
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="93" t="str">
-        <f>RIGHT(D59:D209,4)</f>
+        <f>RIGHT(D59:D210,4)</f>
         <v>7080</v>
       </c>
       <c r="B59" s="45" t="s">
@@ -3358,7 +3361,7 @@
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="93" t="str">
-        <f>RIGHT(D60:D210,4)</f>
+        <f>RIGHT(D60:D211,4)</f>
         <v>6762</v>
       </c>
       <c r="B60" s="45" t="s">
@@ -3384,7 +3387,7 @@
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="93" t="str">
-        <f>RIGHT(D61:D210,4)</f>
+        <f>RIGHT(D61:D211,4)</f>
         <v>5820</v>
       </c>
       <c r="B61" s="45" t="s">
@@ -3410,7 +3413,7 @@
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="93" t="str">
-        <f>RIGHT(D62:D211,4)</f>
+        <f>RIGHT(D62:D212,4)</f>
         <v>7082</v>
       </c>
       <c r="B62" s="45" t="s">
@@ -3434,7 +3437,7 @@
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="93" t="str">
-        <f>RIGHT(D63:D212,4)</f>
+        <f>RIGHT(D63:D213,4)</f>
         <v>6764</v>
       </c>
       <c r="B63" s="45" t="s">
@@ -3458,7 +3461,7 @@
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="93" t="str">
-        <f>RIGHT(D64:D214,4)</f>
+        <f>RIGHT(D64:D215,4)</f>
         <v>6761</v>
       </c>
       <c r="B64" s="45" t="s">
@@ -3482,7 +3485,7 @@
     </row>
     <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="93" t="str">
-        <f>RIGHT(D65:D215,4)</f>
+        <f>RIGHT(D65:D216,4)</f>
         <v>6767</v>
       </c>
       <c r="B65" s="45" t="s">
@@ -3506,7 +3509,7 @@
     </row>
     <row r="66" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="93" t="str">
-        <f>RIGHT(D66:D215,4)</f>
+        <f>RIGHT(D66:D216,4)</f>
         <v>6765</v>
       </c>
       <c r="B66" s="45" t="s">
@@ -3530,7 +3533,7 @@
     </row>
     <row r="67" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="93" t="str">
-        <f>RIGHT(D67:D216,4)</f>
+        <f>RIGHT(D67:D217,4)</f>
         <v>6909</v>
       </c>
       <c r="B67" s="45" t="s">
@@ -3556,7 +3559,7 @@
     </row>
     <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="93" t="str">
-        <f>RIGHT(D68:D217,4)</f>
+        <f>RIGHT(D68:D218,4)</f>
         <v>6987</v>
       </c>
       <c r="B68" s="45" t="s">
@@ -3582,7 +3585,7 @@
     </row>
     <row r="69" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="93" t="str">
-        <f>RIGHT(D69:D215,4)</f>
+        <f>RIGHT(D69:D216,4)</f>
         <v>7066</v>
       </c>
       <c r="B69" s="45" t="s">
@@ -3612,7 +3615,7 @@
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="93" t="str">
-        <f>RIGHT(D70:D216,4)</f>
+        <f>RIGHT(D70:D217,4)</f>
         <v>6837</v>
       </c>
       <c r="B70" s="45" t="s">
@@ -3638,7 +3641,7 @@
     </row>
     <row r="71" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="93" t="str">
-        <f>RIGHT(D71:D218,4)</f>
+        <f>RIGHT(D71:D219,4)</f>
         <v>6661</v>
       </c>
       <c r="B71" s="27" t="s">
@@ -3663,7 +3666,7 @@
     </row>
     <row r="72" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="93" t="str">
-        <f>RIGHT(D72:D219,4)</f>
+        <f>RIGHT(D72:D220,4)</f>
         <v>6713</v>
       </c>
       <c r="B72" s="27" t="s">
@@ -3688,7 +3691,7 @@
     </row>
     <row r="73" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="93" t="str">
-        <f>RIGHT(D73:D215,4)</f>
+        <f>RIGHT(D73:D216,4)</f>
         <v/>
       </c>
       <c r="B73" s="74" t="s">
@@ -3705,7 +3708,7 @@
     </row>
     <row r="74" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A74" s="93" t="str">
-        <f>RIGHT(D74:D216,4)</f>
+        <f>RIGHT(D74:D217,4)</f>
         <v>5698</v>
       </c>
       <c r="B74" s="46" t="s">
@@ -3735,7 +3738,7 @@
     </row>
     <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="93" t="str">
-        <f>RIGHT(D75:D219,4)</f>
+        <f>RIGHT(D75:D220,4)</f>
         <v>6528</v>
       </c>
       <c r="B75" s="46" t="s">
@@ -3759,7 +3762,7 @@
     </row>
     <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="93" t="str">
-        <f>RIGHT(D76:D220,4)</f>
+        <f>RIGHT(D76:D221,4)</f>
         <v>7059</v>
       </c>
       <c r="B76" s="46" t="s">
@@ -3785,7 +3788,7 @@
     </row>
     <row r="77" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="93" t="str">
-        <f>RIGHT(D77:D220,4)</f>
+        <f>RIGHT(D77:D221,4)</f>
         <v>6609</v>
       </c>
       <c r="B77" s="46" t="s">
@@ -3811,7 +3814,7 @@
     </row>
     <row r="78" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="93" t="str">
-        <f>RIGHT(D78:D221,4)</f>
+        <f>RIGHT(D78:D222,4)</f>
         <v>7001</v>
       </c>
       <c r="B78" s="46" t="s">
@@ -3837,7 +3840,7 @@
     </row>
     <row r="79" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="93" t="str">
-        <f>RIGHT(D79:D221,4)</f>
+        <f>RIGHT(D79:D222,4)</f>
         <v>6527</v>
       </c>
       <c r="B79" s="46" t="s">
@@ -3867,7 +3870,7 @@
     </row>
     <row r="80" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="93" t="str">
-        <f>RIGHT(D80:D222,4)</f>
+        <f>RIGHT(D80:D223,4)</f>
         <v/>
       </c>
       <c r="B80" s="74" t="s">
@@ -3884,7 +3887,7 @@
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A81" s="93" t="str">
-        <f>RIGHT(D81:D223,4)</f>
+        <f>RIGHT(D81:D224,4)</f>
         <v>7232</v>
       </c>
       <c r="B81" s="27" t="s">
@@ -3912,7 +3915,7 @@
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="93" t="str">
-        <f>RIGHT(D82:D224,4)</f>
+        <f>RIGHT(D82:D225,4)</f>
         <v>6785</v>
       </c>
       <c r="B82" s="27" t="s">
@@ -3936,7 +3939,7 @@
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="93" t="str">
-        <f>RIGHT(D83:D225,4)</f>
+        <f>RIGHT(D83:D226,4)</f>
         <v>7149</v>
       </c>
       <c r="B83" s="96" t="s">
@@ -3964,7 +3967,7 @@
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="93" t="str">
-        <f>RIGHT(D84:D225,4)</f>
+        <f>RIGHT(D84:D226,4)</f>
         <v>6786</v>
       </c>
       <c r="B84" s="27" t="s">
@@ -3988,7 +3991,7 @@
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="93" t="str">
-        <f>RIGHT(D85:D226,4)</f>
+        <f>RIGHT(D85:D227,4)</f>
         <v>4903</v>
       </c>
       <c r="B85" s="27" t="s">
@@ -4012,7 +4015,7 @@
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="93" t="str">
-        <f>RIGHT(D86:D226,4)</f>
+        <f>RIGHT(D86:D227,4)</f>
         <v>7131</v>
       </c>
       <c r="B86" s="27" t="s">
@@ -4038,7 +4041,7 @@
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="93" t="str">
-        <f>RIGHT(D87:D224,4)</f>
+        <f>RIGHT(D87:D225,4)</f>
         <v>7241</v>
       </c>
       <c r="B87" s="27" t="s">
@@ -4068,7 +4071,7 @@
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="93" t="str">
-        <f>RIGHT(D88:D227,4)</f>
+        <f>RIGHT(D88:D228,4)</f>
         <v/>
       </c>
       <c r="B88" s="74" t="s">
@@ -4085,7 +4088,7 @@
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A89" s="93" t="str">
-        <f>RIGHT(D89:D228,4)</f>
+        <f>RIGHT(D89:D229,4)</f>
         <v>7154</v>
       </c>
       <c r="B89" s="27" t="s">
@@ -4113,7 +4116,7 @@
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="93" t="str">
-        <f>RIGHT(D90:D230,4)</f>
+        <f>RIGHT(D90:D231,4)</f>
         <v>6793</v>
       </c>
       <c r="B90" s="27" t="s">
@@ -4137,7 +4140,7 @@
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="93" t="str">
-        <f>RIGHT(D91:D231,4)</f>
+        <f>RIGHT(D91:D232,4)</f>
         <v>6795</v>
       </c>
       <c r="B91" s="27" t="s">
@@ -4161,7 +4164,7 @@
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="93" t="str">
-        <f>RIGHT(D92:D231,4)</f>
+        <f>RIGHT(D92:D232,4)</f>
         <v>6807</v>
       </c>
       <c r="B92" s="27" t="s">
@@ -4185,7 +4188,7 @@
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="93" t="str">
-        <f>RIGHT(D93:D231,4)</f>
+        <f>RIGHT(D93:D232,4)</f>
         <v>7236</v>
       </c>
       <c r="B93" s="27" t="s">
@@ -4215,7 +4218,7 @@
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="93" t="str">
-        <f>RIGHT(D94:D233,4)</f>
+        <f>RIGHT(D94:D234,4)</f>
         <v>6787</v>
       </c>
       <c r="B94" s="27" t="s">
@@ -4239,7 +4242,7 @@
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="93" t="str">
-        <f>RIGHT(D95:D234,4)</f>
+        <f>RIGHT(D95:D235,4)</f>
         <v>6788</v>
       </c>
       <c r="B95" s="27" t="s">
@@ -4263,7 +4266,7 @@
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="93" t="str">
-        <f>RIGHT(D96:D235,4)</f>
+        <f>RIGHT(D96:D236,4)</f>
         <v>6790</v>
       </c>
       <c r="B96" s="27" t="s">
@@ -4287,7 +4290,7 @@
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="93" t="str">
-        <f>RIGHT(D97:D234,4)</f>
+        <f>RIGHT(D97:D235,4)</f>
         <v>7169</v>
       </c>
       <c r="B97" s="64" t="s">
@@ -4315,7 +4318,7 @@
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="93" t="str">
-        <f>RIGHT(D98:D235,4)</f>
+        <f>RIGHT(D98:D236,4)</f>
         <v>6791</v>
       </c>
       <c r="B98" s="64" t="s">
@@ -4339,7 +4342,7 @@
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="93" t="str">
-        <f>RIGHT(D99:D236,4)</f>
+        <f>RIGHT(D99:D237,4)</f>
         <v>7166</v>
       </c>
       <c r="B99" s="64" t="s">
@@ -4365,7 +4368,7 @@
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="93" t="str">
-        <f>RIGHT(D100:D237,4)</f>
+        <f>RIGHT(D100:D238,4)</f>
         <v>6459</v>
       </c>
       <c r="B100" s="64" t="s">
@@ -4391,7 +4394,7 @@
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="93" t="str">
-        <f>RIGHT(D101:D238,4)</f>
+        <f>RIGHT(D101:D239,4)</f>
         <v>6586</v>
       </c>
       <c r="B101" s="64" t="s">
@@ -4415,7 +4418,7 @@
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="93" t="str">
-        <f>RIGHT(D102:D236,4)</f>
+        <f>RIGHT(D102:D237,4)</f>
         <v>6228</v>
       </c>
       <c r="B102" s="64" t="s">
@@ -4439,7 +4442,7 @@
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="93" t="str">
-        <f>RIGHT(D103:D237,4)</f>
+        <f>RIGHT(D103:D238,4)</f>
         <v>7087</v>
       </c>
       <c r="B103" s="64" t="s">
@@ -4465,7 +4468,7 @@
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="93" t="str">
-        <f>RIGHT(D104:D236,4)</f>
+        <f>RIGHT(D104:D237,4)</f>
         <v>5544</v>
       </c>
       <c r="B104" s="27" t="s">
@@ -4495,7 +4498,7 @@
     </row>
     <row r="105" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="93" t="str">
-        <f t="shared" ref="A105:A110" si="2">RIGHT(D105:D238,4)</f>
+        <f>RIGHT(D105:D239,4)</f>
         <v>6697</v>
       </c>
       <c r="B105" s="27" t="s">
@@ -4525,7 +4528,7 @@
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="93" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D106:D240,4)</f>
         <v/>
       </c>
       <c r="B106" s="74" t="s">
@@ -4542,7 +4545,7 @@
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A107" s="93" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D107:D241,4)</f>
         <v>5706</v>
       </c>
       <c r="B107" s="27" t="s">
@@ -4572,7 +4575,7 @@
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="93" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D108:D242,4)</f>
         <v>6454</v>
       </c>
       <c r="B108" s="27" t="s">
@@ -4602,7 +4605,7 @@
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="93" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D109:D243,4)</f>
         <v>6222</v>
       </c>
       <c r="B109" s="27" t="s">
@@ -4626,7 +4629,7 @@
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="93" t="str">
-        <f t="shared" si="2"/>
+        <f>RIGHT(D110:D244,4)</f>
         <v>5931</v>
       </c>
       <c r="B110" s="27" t="s">
@@ -4656,7 +4659,7 @@
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="93" t="str">
-        <f>RIGHT(D111:D245,4)</f>
+        <f>RIGHT(D111:D246,4)</f>
         <v>5708</v>
       </c>
       <c r="B111" s="27" t="s">
@@ -4686,7 +4689,7 @@
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="93" t="str">
-        <f>RIGHT(D112:D246,4)</f>
+        <f>RIGHT(D112:D247,4)</f>
         <v>1146</v>
       </c>
       <c r="B112" s="27" t="s">
@@ -4710,7 +4713,7 @@
     </row>
     <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="93" t="str">
-        <f>RIGHT(D113:D246,4)</f>
+        <f>RIGHT(D113:D247,4)</f>
         <v>6834</v>
       </c>
       <c r="B113" s="27" t="s">
@@ -4734,7 +4737,7 @@
     </row>
     <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="93" t="str">
-        <f>RIGHT(D114:D247,4)</f>
+        <f>RIGHT(D114:D248,4)</f>
         <v>6448</v>
       </c>
       <c r="B114" s="27" t="s">
@@ -4760,7 +4763,7 @@
     </row>
     <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="93" t="str">
-        <f>RIGHT(D115:D248,4)</f>
+        <f>RIGHT(D115:D249,4)</f>
         <v>6221</v>
       </c>
       <c r="B115" s="27" t="s">
@@ -4786,7 +4789,7 @@
     </row>
     <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="93" t="str">
-        <f>RIGHT(D116:D248,4)</f>
+        <f>RIGHT(D116:D249,4)</f>
         <v>5679</v>
       </c>
       <c r="B116" s="27" t="s">
@@ -4812,7 +4815,7 @@
     </row>
     <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="93" t="str">
-        <f t="shared" ref="A117:A123" si="3">RIGHT(D117:D250,4)</f>
+        <f>RIGHT(D117:D251,4)</f>
         <v>4993</v>
       </c>
       <c r="B117" s="27" t="s">
@@ -4842,7 +4845,7 @@
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f>RIGHT(D118:D252,4)</f>
         <v>7105</v>
       </c>
       <c r="B118" s="27" t="s">
@@ -4859,7 +4862,7 @@
         <v>0.09</v>
       </c>
       <c r="G118" s="23">
-        <f t="shared" ref="G118:G124" si="4">F118*E118</f>
+        <f t="shared" ref="G118:G125" si="0">F118*E118</f>
         <v>0</v>
       </c>
       <c r="H118" s="14"/>
@@ -4868,7 +4871,7 @@
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f>RIGHT(D119:D253,4)</f>
         <v>7106</v>
       </c>
       <c r="B119" s="27" t="s">
@@ -4885,7 +4888,7 @@
         <v>0.09</v>
       </c>
       <c r="G119" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H119" s="14"/>
@@ -4894,7 +4897,7 @@
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f>RIGHT(D120:D254,4)</f>
         <v>7107</v>
       </c>
       <c r="B120" s="27" t="s">
@@ -4911,7 +4914,7 @@
         <v>0.09</v>
       </c>
       <c r="G120" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H120" s="14"/>
@@ -4920,7 +4923,7 @@
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f>RIGHT(D121:D255,4)</f>
         <v>7147</v>
       </c>
       <c r="B121" s="27" t="s">
@@ -4937,7 +4940,7 @@
         <v>0.22</v>
       </c>
       <c r="G121" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H121" s="14"/>
@@ -4946,7 +4949,7 @@
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f>RIGHT(D122:D256,4)</f>
         <v>7225</v>
       </c>
       <c r="B122" s="27" t="s">
@@ -4963,7 +4966,7 @@
         <v>0.18</v>
       </c>
       <c r="G122" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H122" s="14"/>
@@ -4972,7 +4975,7 @@
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f>RIGHT(D123:D257,4)</f>
         <v>7227</v>
       </c>
       <c r="B123" s="27" t="s">
@@ -4989,7 +4992,7 @@
         <v>0.18</v>
       </c>
       <c r="G123" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H123" s="14"/>
@@ -4998,24 +5001,24 @@
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="93" t="str">
-        <f>RIGHT(D124:D251,4)</f>
-        <v>3684</v>
+        <f>RIGHT(D124:D258,4)</f>
+        <v>7226</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="C124" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D124" s="28">
-        <v>1001062353684</v>
+        <v>1001066527226</v>
       </c>
       <c r="E124" s="24"/>
       <c r="F124" s="23">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="G124" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G124" si="1">F124*E124</f>
         <v>0</v>
       </c>
       <c r="H124" s="14"/>
@@ -5024,209 +5027,209 @@
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="93" t="str">
-        <f>RIGHT(D125:D251,4)</f>
-        <v>5682</v>
+        <f>RIGHT(D125:D252,4)</f>
+        <v>3684</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C125" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D125" s="28">
-        <v>1001193115682</v>
+        <v>1001062353684</v>
       </c>
       <c r="E125" s="24"/>
       <c r="F125" s="23">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G125" s="23">
-        <f>E125*0.12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H125" s="14">
-        <v>0.96</v>
-      </c>
-      <c r="I125" s="14">
-        <v>60</v>
-      </c>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
       <c r="J125" s="39"/>
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="93" t="str">
-        <f>RIGHT(D126:D254,4)</f>
-        <v>4117</v>
+        <f>RIGHT(D126:D252,4)</f>
+        <v>5682</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="C126" s="30" t="s">
-        <v>23</v>
+        <v>138</v>
+      </c>
+      <c r="C126" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D126" s="28">
-        <v>1001062504117</v>
+        <v>1001193115682</v>
       </c>
       <c r="E126" s="24"/>
       <c r="F126" s="23">
-        <v>0.48749999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="G126" s="23">
-        <f>E126*1</f>
+        <f>E126*0.12</f>
         <v>0</v>
       </c>
       <c r="H126" s="14">
-        <v>3.9</v>
+        <v>0.96</v>
       </c>
       <c r="I126" s="14">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J126" s="39"/>
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="93" t="str">
         <f>RIGHT(D127:D255,4)</f>
-        <v>3680</v>
+        <v>4117</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C127" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D127" s="28">
-        <v>1001062353680</v>
+        <v>1001062504117</v>
       </c>
       <c r="E127" s="24"/>
-      <c r="F127" s="23"/>
+      <c r="F127" s="23">
+        <v>0.48749999999999999</v>
+      </c>
       <c r="G127" s="23">
-        <f>E127</f>
+        <f>E127*1</f>
         <v>0</v>
       </c>
-      <c r="H127" s="14"/>
-      <c r="I127" s="14"/>
+      <c r="H127" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="I127" s="14">
+        <v>120</v>
+      </c>
       <c r="J127" s="39"/>
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="93" t="str">
-        <f>RIGHT(D128:D255,4)</f>
-        <v>5483</v>
+        <f>RIGHT(D128:D256,4)</f>
+        <v>3680</v>
       </c>
       <c r="B128" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="C128" s="33" t="s">
-        <v>26</v>
+        <v>140</v>
+      </c>
+      <c r="C128" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D128" s="28">
-        <v>1001062505483</v>
+        <v>1001062353680</v>
       </c>
       <c r="E128" s="24"/>
-      <c r="F128" s="23">
-        <v>0.25</v>
-      </c>
+      <c r="F128" s="23"/>
       <c r="G128" s="23">
-        <f>E128*0.25</f>
+        <f>E128</f>
         <v>0</v>
       </c>
-      <c r="H128" s="14">
-        <v>2</v>
-      </c>
-      <c r="I128" s="14">
-        <v>120</v>
-      </c>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
       <c r="J128" s="39"/>
     </row>
-    <row r="129" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="93" t="str">
         <f>RIGHT(D129:D256,4)</f>
-        <v>6453</v>
+        <v>5483</v>
       </c>
       <c r="B129" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C129" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D129" s="28">
-        <v>1001202506453</v>
+        <v>1001062505483</v>
       </c>
       <c r="E129" s="24"/>
       <c r="F129" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G129" s="23">
-        <f>E129*0.1</f>
+        <f>E129*0.25</f>
         <v>0</v>
       </c>
       <c r="H129" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I129" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J129" s="39"/>
     </row>
-    <row r="130" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="93" t="str">
         <f>RIGHT(D130:D257,4)</f>
+        <v>6453</v>
+      </c>
+      <c r="B130" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="C130" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130" s="28">
+        <v>1001202506453</v>
+      </c>
+      <c r="E130" s="24"/>
+      <c r="F130" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G130" s="23">
+        <f>E130*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="H130" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I130" s="14">
+        <v>60</v>
+      </c>
+      <c r="J130" s="39"/>
+    </row>
+    <row r="131" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="93" t="str">
+        <f>RIGHT(D131:D258,4)</f>
         <v/>
       </c>
-      <c r="B130" s="74" t="s">
+      <c r="B131" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="C130" s="74"/>
-      <c r="D130" s="74"/>
-      <c r="E130" s="74"/>
-      <c r="F130" s="73"/>
-      <c r="G130" s="74"/>
-      <c r="H130" s="74"/>
-      <c r="I130" s="74"/>
-      <c r="J130" s="75"/>
-    </row>
-    <row r="131" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="93" t="str">
-        <f>RIGHT(D131:D261,4)</f>
-        <v>6470</v>
-      </c>
-      <c r="B131" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C131" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D131" s="80">
-        <v>1001092436470</v>
-      </c>
-      <c r="E131" s="24"/>
-      <c r="F131" s="23"/>
-      <c r="G131" s="23">
-        <f>E131*1</f>
-        <v>0</v>
-      </c>
-      <c r="H131" s="14"/>
-      <c r="I131" s="14"/>
-      <c r="J131" s="39"/>
-    </row>
-    <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C131" s="74"/>
+      <c r="D131" s="74"/>
+      <c r="E131" s="74"/>
+      <c r="F131" s="73"/>
+      <c r="G131" s="74"/>
+      <c r="H131" s="74"/>
+      <c r="I131" s="74"/>
+      <c r="J131" s="75"/>
+    </row>
+    <row r="132" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A132" s="93" t="str">
         <f>RIGHT(D132:D262,4)</f>
-        <v>6495</v>
+        <v>6470</v>
       </c>
       <c r="B132" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D132" s="80">
-        <v>1001092436495</v>
+        <v>1001092436470</v>
       </c>
       <c r="E132" s="24"/>
-      <c r="F132" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F132" s="23"/>
       <c r="G132" s="23">
-        <f>F132*E132</f>
+        <f>E132*1</f>
         <v>0</v>
       </c>
       <c r="H132" s="14"/>
@@ -5236,20 +5239,20 @@
     <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="93" t="str">
         <f>RIGHT(D133:D263,4)</f>
-        <v>7235</v>
+        <v>6495</v>
       </c>
       <c r="B133" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C133" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D133" s="80">
-        <v>1001095227235</v>
+        <v>1001092436495</v>
       </c>
       <c r="E133" s="24"/>
       <c r="F133" s="23">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="G133" s="23">
         <f>F133*E133</f>
@@ -5262,20 +5265,20 @@
     <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="93" t="str">
         <f>RIGHT(D134:D264,4)</f>
-        <v>6411</v>
+        <v>7235</v>
       </c>
       <c r="B134" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C134" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D134" s="80">
-        <v>1001093316411</v>
+        <v>1001095227235</v>
       </c>
       <c r="E134" s="24"/>
       <c r="F134" s="23">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="G134" s="23">
         <f>F134*E134</f>
@@ -5287,22 +5290,24 @@
     </row>
     <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="93" t="str">
-        <f>RIGHT(D135:D262,4)</f>
-        <v>6866</v>
+        <f>RIGHT(D135:D265,4)</f>
+        <v>6411</v>
       </c>
       <c r="B135" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D135" s="80">
-        <v>1001095716866</v>
+        <v>1001093316411</v>
       </c>
       <c r="E135" s="24"/>
-      <c r="F135" s="23"/>
+      <c r="F135" s="23">
+        <v>0.3</v>
+      </c>
       <c r="G135" s="23">
-        <f>E135*1</f>
+        <f>F135*E135</f>
         <v>0</v>
       </c>
       <c r="H135" s="14"/>
@@ -5311,47 +5316,41 @@
     </row>
     <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="93" t="str">
-        <f>RIGHT(D136:D259,4)</f>
-        <v>3215</v>
-      </c>
-      <c r="B136" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C136" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D136" s="51">
-        <v>1001094053215</v>
+        <f>RIGHT(D136:D263,4)</f>
+        <v>6866</v>
+      </c>
+      <c r="B136" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C136" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D136" s="80">
+        <v>1001095716866</v>
       </c>
       <c r="E136" s="24"/>
-      <c r="F136" s="23">
-        <v>0.4</v>
-      </c>
+      <c r="F136" s="23"/>
       <c r="G136" s="23">
-        <f>E136*0.4</f>
+        <f>E136*1</f>
         <v>0</v>
       </c>
-      <c r="H136" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I136" s="14">
-        <v>60</v>
-      </c>
+      <c r="H136" s="14"/>
+      <c r="I136" s="14"/>
       <c r="J136" s="39"/>
     </row>
-    <row r="137" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="93" t="str">
         <f>RIGHT(D137:D260,4)</f>
-        <v>7245</v>
+        <v>3215</v>
       </c>
       <c r="B137" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C137" s="37" t="s">
         <v>26</v>
       </c>
       <c r="D137" s="51">
-        <v>1001092687245</v>
+        <v>1001094053215</v>
       </c>
       <c r="E137" s="24"/>
       <c r="F137" s="23">
@@ -5361,101 +5360,105 @@
         <f>E137*0.4</f>
         <v>0</v>
       </c>
-      <c r="H137" s="14"/>
-      <c r="I137" s="14"/>
+      <c r="H137" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I137" s="14">
+        <v>60</v>
+      </c>
       <c r="J137" s="39"/>
     </row>
-    <row r="138" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="93" t="str">
-        <f>RIGHT(D138:D262,4)</f>
+        <f>RIGHT(D138:D261,4)</f>
+        <v>7245</v>
+      </c>
+      <c r="B138" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C138" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D138" s="51">
+        <v>1001092687245</v>
+      </c>
+      <c r="E138" s="24"/>
+      <c r="F138" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="G138" s="23">
+        <f>E138*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="H138" s="14"/>
+      <c r="I138" s="14"/>
+      <c r="J138" s="39"/>
+    </row>
+    <row r="139" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="93" t="str">
+        <f>RIGHT(D139:D263,4)</f>
         <v/>
       </c>
-      <c r="B138" s="74" t="s">
+      <c r="B139" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="C138" s="74"/>
-      <c r="D138" s="74"/>
-      <c r="E138" s="74"/>
-      <c r="F138" s="73"/>
-      <c r="G138" s="74"/>
-      <c r="H138" s="74"/>
-      <c r="I138" s="74"/>
-      <c r="J138" s="75"/>
-    </row>
-    <row r="139" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="93" t="str">
-        <f>RIGHT(D139:D265,4)</f>
-        <v>7090</v>
-      </c>
-      <c r="B139" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="C139" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D139" s="28">
-        <v>1001084217090</v>
-      </c>
-      <c r="E139" s="24"/>
-      <c r="F139" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G139" s="23">
-        <f>E139*F139</f>
-        <v>0</v>
-      </c>
-      <c r="H139" s="14"/>
-      <c r="I139" s="14">
-        <v>50</v>
-      </c>
-      <c r="J139" s="39"/>
-    </row>
-    <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C139" s="74"/>
+      <c r="D139" s="74"/>
+      <c r="E139" s="74"/>
+      <c r="F139" s="73"/>
+      <c r="G139" s="74"/>
+      <c r="H139" s="74"/>
+      <c r="I139" s="74"/>
+      <c r="J139" s="75"/>
+    </row>
+    <row r="140" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A140" s="93" t="str">
         <f>RIGHT(D140:D266,4)</f>
-        <v>4691</v>
+        <v>7090</v>
       </c>
       <c r="B140" s="47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C140" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D140" s="28">
-        <v>1001083424691</v>
+        <v>1001084217090</v>
       </c>
       <c r="E140" s="24"/>
       <c r="F140" s="23">
         <v>0.3</v>
       </c>
       <c r="G140" s="23">
-        <f t="shared" ref="G140:G146" si="5">F140*E140</f>
+        <f>E140*F140</f>
         <v>0</v>
       </c>
       <c r="H140" s="14"/>
-      <c r="I140" s="14"/>
-      <c r="J140" s="92"/>
+      <c r="I140" s="14">
+        <v>50</v>
+      </c>
+      <c r="J140" s="39"/>
     </row>
     <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="93" t="str">
         <f>RIGHT(D141:D267,4)</f>
-        <v>7187</v>
+        <v>4691</v>
       </c>
       <c r="B141" s="47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C141" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D141" s="28">
-        <v>1001085637187</v>
+        <v>1001083424691</v>
       </c>
       <c r="E141" s="24"/>
       <c r="F141" s="23">
         <v>0.3</v>
       </c>
       <c r="G141" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G141:G147" si="2">F141*E141</f>
         <v>0</v>
       </c>
       <c r="H141" s="14"/>
@@ -5465,23 +5468,23 @@
     <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="93" t="str">
         <f>RIGHT(D142:D268,4)</f>
-        <v>6201</v>
+        <v>7187</v>
       </c>
       <c r="B142" s="47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C142" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D142" s="28">
-        <v>1001225636201</v>
+        <v>1001085637187</v>
       </c>
       <c r="E142" s="24"/>
       <c r="F142" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G142" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H142" s="14"/>
@@ -5490,24 +5493,24 @@
     </row>
     <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="93" t="str">
-        <f>RIGHT(D143:D268,4)</f>
-        <v>6842</v>
+        <f>RIGHT(D143:D269,4)</f>
+        <v>6201</v>
       </c>
       <c r="B143" s="47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C143" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D143" s="28">
-        <v>1001080216842</v>
+        <v>1001225636201</v>
       </c>
       <c r="E143" s="24"/>
       <c r="F143" s="23">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="G143" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H143" s="14"/>
@@ -5516,24 +5519,24 @@
     </row>
     <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="93" t="str">
-        <f>RIGHT(D144:D268,4)</f>
-        <v>6492</v>
+        <f>RIGHT(D144:D269,4)</f>
+        <v>6842</v>
       </c>
       <c r="B144" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C144" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D144" s="28">
-        <v>1001084226492</v>
+        <v>1001080216842</v>
       </c>
       <c r="E144" s="24"/>
       <c r="F144" s="23">
         <v>0.3</v>
       </c>
       <c r="G144" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H144" s="14"/>
@@ -5542,24 +5545,24 @@
     </row>
     <row r="145" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="93" t="str">
-        <f>RIGHT(D145:D266,4)</f>
-        <v>6279</v>
+        <f>RIGHT(D145:D269,4)</f>
+        <v>6492</v>
       </c>
       <c r="B145" s="47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C145" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D145" s="28">
-        <v>1001220286279</v>
+        <v>1001084226492</v>
       </c>
       <c r="E145" s="24"/>
       <c r="F145" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G145" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H145" s="14"/>
@@ -5569,23 +5572,23 @@
     <row r="146" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="93" t="str">
         <f>RIGHT(D146:D267,4)</f>
-        <v>4786</v>
+        <v>6279</v>
       </c>
       <c r="B146" s="47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C146" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D146" s="28">
-        <v>1001053944786</v>
+        <v>1001220286279</v>
       </c>
       <c r="E146" s="24"/>
       <c r="F146" s="23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="G146" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H146" s="14"/>
@@ -5595,23 +5598,23 @@
     <row r="147" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="93" t="str">
         <f>RIGHT(D147:D268,4)</f>
-        <v>7052</v>
+        <v>4786</v>
       </c>
       <c r="B147" s="47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C147" s="35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D147" s="28">
-        <v>1001204447052</v>
+        <v>1001053944786</v>
       </c>
       <c r="E147" s="24"/>
       <c r="F147" s="23">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G147" s="23">
-        <f>E147</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H147" s="14"/>
@@ -5620,17 +5623,17 @@
     </row>
     <row r="148" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="93" t="str">
-        <f>RIGHT(D148:D268,4)</f>
-        <v>7053</v>
+        <f>RIGHT(D148:D269,4)</f>
+        <v>7052</v>
       </c>
       <c r="B148" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C148" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D148" s="28">
-        <v>1001223297053</v>
+        <v>1001204447052</v>
       </c>
       <c r="E148" s="24"/>
       <c r="F148" s="23">
@@ -5646,47 +5649,47 @@
     </row>
     <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="93" t="str">
-        <f>RIGHT(D149:D268,4)</f>
-        <v>7092</v>
-      </c>
-      <c r="B149" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C149" s="33" t="s">
-        <v>26</v>
+        <f>RIGHT(D149:D269,4)</f>
+        <v>7053</v>
+      </c>
+      <c r="B149" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="C149" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D149" s="28">
-        <v>1001223297092</v>
+        <v>1001223297053</v>
       </c>
       <c r="E149" s="24"/>
       <c r="F149" s="23">
-        <v>0.14000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G149" s="23">
-        <f>F149*E149</f>
+        <f>E149</f>
         <v>0</v>
       </c>
       <c r="H149" s="14"/>
       <c r="I149" s="14"/>
-      <c r="J149" s="39"/>
+      <c r="J149" s="92"/>
     </row>
     <row r="150" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="93" t="str">
         <f>RIGHT(D150:D269,4)</f>
-        <v>7103</v>
+        <v>7092</v>
       </c>
       <c r="B150" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C150" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D150" s="28">
-        <v>1001223297103</v>
+        <v>1001223297092</v>
       </c>
       <c r="E150" s="24"/>
       <c r="F150" s="23">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G150" s="23">
         <f>F150*E150</f>
@@ -5694,56 +5697,65 @@
       </c>
       <c r="H150" s="14"/>
       <c r="I150" s="14"/>
-      <c r="J150" s="92"/>
-    </row>
-    <row r="151" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J150" s="39"/>
+    </row>
+    <row r="151" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="93" t="str">
-        <f>RIGHT(D151:D266,4)</f>
-        <v>6919</v>
-      </c>
-      <c r="B151" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="C151" s="35" t="s">
+        <f>RIGHT(D151:D270,4)</f>
+        <v>7103</v>
+      </c>
+      <c r="B151" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C151" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D151" s="28">
-        <v>1001223296919</v>
+        <v>1001223297103</v>
       </c>
       <c r="E151" s="24"/>
-      <c r="F151" s="23"/>
+      <c r="F151" s="23">
+        <v>0.18</v>
+      </c>
       <c r="G151" s="23">
-        <f>E151*0.18</f>
+        <f>F151*E151</f>
         <v>0</v>
       </c>
       <c r="H151" s="14"/>
       <c r="I151" s="14"/>
       <c r="J151" s="92"/>
     </row>
-    <row r="152" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="93" t="str">
         <f>RIGHT(D152:D267,4)</f>
-        <v/>
-      </c>
-      <c r="B152" s="74" t="s">
-        <v>165</v>
-      </c>
-      <c r="C152" s="74"/>
-      <c r="D152" s="74"/>
-      <c r="E152" s="74"/>
-      <c r="F152" s="73"/>
-      <c r="G152" s="74"/>
-      <c r="H152" s="74"/>
-      <c r="I152" s="74"/>
-      <c r="J152" s="75"/>
+        <v>6919</v>
+      </c>
+      <c r="B152" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="C152" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D152" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E152" s="24"/>
+      <c r="F152" s="23"/>
+      <c r="G152" s="23">
+        <f>E152*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H152" s="14"/>
+      <c r="I152" s="14"/>
+      <c r="J152" s="92"/>
     </row>
     <row r="153" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="93" t="str">
-        <f>RIGHT(D153:D270,4)</f>
+        <f>RIGHT(D153:D268,4)</f>
         <v/>
       </c>
       <c r="B153" s="74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C153" s="74"/>
       <c r="D153" s="74"/>
@@ -5754,73 +5766,66 @@
       <c r="I153" s="74"/>
       <c r="J153" s="75"/>
     </row>
-    <row r="154" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="93" t="str">
         <f>RIGHT(D154:D271,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B154" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="C154" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D154" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E154" s="24"/>
-      <c r="F154" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G154" s="23">
-        <f>E154*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H154" s="14">
-        <v>8</v>
-      </c>
-      <c r="I154" s="72">
-        <v>120</v>
-      </c>
-      <c r="J154" s="39"/>
-    </row>
-    <row r="155" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B154" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="C154" s="74"/>
+      <c r="D154" s="74"/>
+      <c r="E154" s="74"/>
+      <c r="F154" s="73"/>
+      <c r="G154" s="74"/>
+      <c r="H154" s="74"/>
+      <c r="I154" s="74"/>
+      <c r="J154" s="75"/>
+    </row>
+    <row r="155" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A155" s="93" t="str">
         <f>RIGHT(D155:D272,4)</f>
-        <v>6155</v>
+        <v>6314</v>
       </c>
       <c r="B155" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C155" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D155" s="28">
-        <v>1002115036155</v>
+        <v>1002112606314</v>
       </c>
       <c r="E155" s="24"/>
-      <c r="F155" s="23"/>
+      <c r="F155" s="23">
+        <v>0.5</v>
+      </c>
       <c r="G155" s="23">
-        <f>E155*0.45</f>
+        <f>E155*0.5</f>
         <v>0</v>
       </c>
-      <c r="H155" s="14"/>
-      <c r="I155" s="72"/>
+      <c r="H155" s="14">
+        <v>8</v>
+      </c>
+      <c r="I155" s="72">
+        <v>120</v>
+      </c>
       <c r="J155" s="39"/>
     </row>
     <row r="156" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="93" t="str">
         <f>RIGHT(D156:D273,4)</f>
-        <v>6157</v>
+        <v>6155</v>
       </c>
       <c r="B156" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C156" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D156" s="28">
-        <v>1002115056157</v>
+        <v>1002115036155</v>
       </c>
       <c r="E156" s="24"/>
       <c r="F156" s="23"/>
@@ -5832,174 +5837,168 @@
       <c r="I156" s="72"/>
       <c r="J156" s="39"/>
     </row>
-    <row r="157" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="93" t="str">
-        <f t="shared" ref="A157:A168" si="6">RIGHT(D157:D272,4)</f>
+        <f>RIGHT(D157:D274,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B157" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C157" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D157" s="28">
+        <v>1002115056157</v>
+      </c>
+      <c r="E157" s="24"/>
+      <c r="F157" s="23"/>
+      <c r="G157" s="23">
+        <f>E157*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H157" s="14"/>
+      <c r="I157" s="72"/>
+      <c r="J157" s="39"/>
+    </row>
+    <row r="158" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="93" t="str">
+        <f t="shared" ref="A158:A169" si="3">RIGHT(D158:D273,4)</f>
         <v>6313</v>
       </c>
-      <c r="B157" s="47" t="s">
+      <c r="B158" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="C157" s="36" t="s">
+      <c r="C158" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D157" s="28">
+      <c r="D158" s="28">
         <v>1002112606313</v>
       </c>
-      <c r="E157" s="24"/>
-      <c r="F157" s="23">
+      <c r="E158" s="24"/>
+      <c r="F158" s="23">
         <v>0.9</v>
       </c>
-      <c r="G157" s="23">
-        <f>E157*0.9</f>
+      <c r="G158" s="23">
+        <f>E158*0.9</f>
         <v>0</v>
       </c>
-      <c r="H157" s="14">
+      <c r="H158" s="14">
         <v>9</v>
       </c>
-      <c r="I157" s="72">
+      <c r="I158" s="72">
         <v>120</v>
       </c>
-      <c r="J157" s="39"/>
-    </row>
-    <row r="158" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="93" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B158" s="74" t="s">
-        <v>171</v>
-      </c>
-      <c r="C158" s="74"/>
-      <c r="D158" s="74"/>
-      <c r="E158" s="74"/>
-      <c r="F158" s="73"/>
-      <c r="G158" s="74"/>
-      <c r="H158" s="74"/>
-      <c r="I158" s="74"/>
-      <c r="J158" s="75"/>
+      <c r="J158" s="39"/>
     </row>
     <row r="159" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="93" t="str">
-        <f t="shared" si="6"/>
-        <v>4945</v>
-      </c>
-      <c r="B159" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="C159" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D159" s="28">
-        <v>1002151784945</v>
-      </c>
-      <c r="E159" s="24"/>
-      <c r="F159" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G159" s="23">
-        <f>E159*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H159" s="14">
-        <v>8</v>
-      </c>
-      <c r="I159" s="72">
-        <v>120</v>
-      </c>
-      <c r="J159" s="39"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B159" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="C159" s="74"/>
+      <c r="D159" s="74"/>
+      <c r="E159" s="74"/>
+      <c r="F159" s="73"/>
+      <c r="G159" s="74"/>
+      <c r="H159" s="74"/>
+      <c r="I159" s="74"/>
+      <c r="J159" s="75"/>
     </row>
     <row r="160" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
+        <v>4945</v>
+      </c>
+      <c r="B160" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="C160" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D160" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E160" s="24"/>
+      <c r="F160" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G160" s="23">
+        <f>E160*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H160" s="14">
+        <v>8</v>
+      </c>
+      <c r="I160" s="72">
+        <v>120</v>
+      </c>
+      <c r="J160" s="39"/>
+    </row>
+    <row r="161" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="93" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B160" s="74" t="s">
+      <c r="B161" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="C160" s="74"/>
-      <c r="D160" s="74"/>
-      <c r="E160" s="74"/>
-      <c r="F160" s="73"/>
-      <c r="G160" s="74"/>
-      <c r="H160" s="74"/>
-      <c r="I160" s="74"/>
-      <c r="J160" s="75"/>
-    </row>
-    <row r="161" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="93" t="str">
-        <f t="shared" si="6"/>
+      <c r="C161" s="74"/>
+      <c r="D161" s="74"/>
+      <c r="E161" s="74"/>
+      <c r="F161" s="73"/>
+      <c r="G161" s="74"/>
+      <c r="H161" s="74"/>
+      <c r="I161" s="74"/>
+      <c r="J161" s="75"/>
+    </row>
+    <row r="162" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="93" t="str">
+        <f t="shared" si="3"/>
         <v>4956</v>
       </c>
-      <c r="B161" s="89" t="s">
+      <c r="B162" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="C161" s="90" t="s">
+      <c r="C162" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D161" s="83">
+      <c r="D162" s="83">
         <v>1002133974956</v>
       </c>
-      <c r="E161" s="84"/>
-      <c r="F161" s="85">
+      <c r="E162" s="84"/>
+      <c r="F162" s="85">
         <v>0.42</v>
       </c>
-      <c r="G161" s="85">
-        <f>E161*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H161" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="I161" s="91">
-        <v>120</v>
-      </c>
-      <c r="J161" s="86"/>
-      <c r="K161" s="87"/>
-    </row>
-    <row r="162" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="93" t="str">
-        <f t="shared" si="6"/>
-        <v>1762</v>
-      </c>
-      <c r="B162" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="C162" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D162" s="28">
-        <v>1002131151762</v>
-      </c>
-      <c r="E162" s="24"/>
-      <c r="F162" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G162" s="23">
+      <c r="G162" s="85">
         <f>E162*0.42</f>
         <v>0</v>
       </c>
-      <c r="H162" s="14">
+      <c r="H162" s="86">
         <v>4.2</v>
       </c>
-      <c r="I162" s="72">
+      <c r="I162" s="91">
         <v>120</v>
       </c>
-      <c r="J162" s="39"/>
-    </row>
-    <row r="163" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J162" s="86"/>
+      <c r="K162" s="87"/>
+    </row>
+    <row r="163" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A163" s="93" t="str">
-        <f t="shared" si="6"/>
-        <v>1764</v>
+        <f t="shared" si="3"/>
+        <v>1762</v>
       </c>
       <c r="B163" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="C163" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C163" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D163" s="28">
-        <v>1002131181764</v>
+        <v>1002131151762</v>
       </c>
       <c r="E163" s="24"/>
       <c r="F163" s="23">
@@ -6017,30 +6016,43 @@
       </c>
       <c r="J163" s="39"/>
     </row>
-    <row r="164" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="93" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B164" s="74" t="s">
-        <v>177</v>
-      </c>
-      <c r="C164" s="74"/>
-      <c r="D164" s="74"/>
-      <c r="E164" s="74"/>
-      <c r="F164" s="73"/>
-      <c r="G164" s="74"/>
-      <c r="H164" s="74"/>
-      <c r="I164" s="74"/>
-      <c r="J164" s="75"/>
+        <f t="shared" si="3"/>
+        <v>1764</v>
+      </c>
+      <c r="B164" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C164" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D164" s="28">
+        <v>1002131181764</v>
+      </c>
+      <c r="E164" s="24"/>
+      <c r="F164" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G164" s="23">
+        <f>E164*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H164" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I164" s="72">
+        <v>120</v>
+      </c>
+      <c r="J164" s="39"/>
     </row>
     <row r="165" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B165" s="74" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C165" s="74"/>
       <c r="D165" s="74"/>
@@ -6053,131 +6065,138 @@
     </row>
     <row r="166" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B166" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="C166" s="74"/>
+      <c r="D166" s="74"/>
+      <c r="E166" s="74"/>
+      <c r="F166" s="73"/>
+      <c r="G166" s="74"/>
+      <c r="H166" s="74"/>
+      <c r="I166" s="74"/>
+      <c r="J166" s="75"/>
+    </row>
+    <row r="167" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="93" t="str">
+        <f t="shared" si="3"/>
         <v>6004</v>
       </c>
-      <c r="B166" s="47" t="s">
+      <c r="B167" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="C166" s="36" t="s">
+      <c r="C167" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D166" s="68" t="s">
+      <c r="D167" s="68" t="s">
         <v>180</v>
-      </c>
-      <c r="E166" s="24"/>
-      <c r="F166" s="23">
-        <v>1</v>
-      </c>
-      <c r="G166" s="23">
-        <f>E166*1</f>
-        <v>0</v>
-      </c>
-      <c r="H166" s="14">
-        <v>8</v>
-      </c>
-      <c r="I166" s="72">
-        <v>120</v>
-      </c>
-      <c r="J166" s="39"/>
-    </row>
-    <row r="167" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="93" t="str">
-        <f t="shared" si="6"/>
-        <v>5417</v>
-      </c>
-      <c r="B167" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="C167" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D167" s="68" t="s">
-        <v>182</v>
       </c>
       <c r="E167" s="24"/>
       <c r="F167" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G167" s="23">
         <f>E167*1</f>
         <v>0</v>
       </c>
       <c r="H167" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I167" s="72">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="J167" s="39"/>
     </row>
-    <row r="168" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="93" t="str">
-        <f t="shared" si="6"/>
-        <v>6019</v>
+        <f t="shared" si="3"/>
+        <v>5417</v>
       </c>
       <c r="B168" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="C168" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D168" s="69" t="s">
-        <v>184</v>
+        <v>181</v>
+      </c>
+      <c r="C168" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D168" s="68" t="s">
+        <v>182</v>
       </c>
       <c r="E168" s="24"/>
       <c r="F168" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G168" s="23">
         <f>E168*1</f>
         <v>0</v>
       </c>
       <c r="H168" s="14">
+        <v>6</v>
+      </c>
+      <c r="I168" s="72">
+        <v>90</v>
+      </c>
+      <c r="J168" s="39"/>
+    </row>
+    <row r="169" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="93" t="str">
+        <f t="shared" si="3"/>
+        <v>6019</v>
+      </c>
+      <c r="B169" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C169" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D169" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="E169" s="24"/>
+      <c r="F169" s="23">
+        <v>1</v>
+      </c>
+      <c r="G169" s="23">
+        <f>E169*1</f>
+        <v>0</v>
+      </c>
+      <c r="H169" s="14">
         <v>12</v>
       </c>
-      <c r="I168" s="72">
+      <c r="I169" s="72">
         <v>120</v>
       </c>
-      <c r="J168" s="39"/>
-    </row>
-    <row r="169" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="77"/>
-      <c r="B169" s="77" t="s">
+      <c r="J169" s="39"/>
+    </row>
+    <row r="170" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="77"/>
+      <c r="B170" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="C169" s="16"/>
-      <c r="D169" s="48"/>
-      <c r="E169" s="17">
-        <f>SUM(E5:E168)</f>
+      <c r="C170" s="16"/>
+      <c r="D170" s="48"/>
+      <c r="E170" s="17">
+        <f>SUM(E5:E169)</f>
         <v>0</v>
       </c>
-      <c r="F169" s="17">
-        <f>SUM(F10:F168)</f>
-        <v>44.433333333333323</v>
-      </c>
-      <c r="G169" s="17">
-        <f>SUM(G11:G168)</f>
+      <c r="F170" s="17">
+        <f>SUM(F10:F169)</f>
+        <v>44.613333333333316</v>
+      </c>
+      <c r="G170" s="17">
+        <f>SUM(G11:G169)</f>
         <v>0</v>
       </c>
-      <c r="H169" s="17">
-        <f>SUM(H10:H165)</f>
+      <c r="H170" s="17">
+        <f>SUM(H10:H166)</f>
         <v>128.91</v>
       </c>
-      <c r="I169" s="17"/>
-      <c r="J169" s="17"/>
-    </row>
-    <row r="170" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="53"/>
-      <c r="C170" s="18"/>
-      <c r="D170" s="52"/>
-      <c r="F170" s="19"/>
-      <c r="G170" s="19"/>
-      <c r="H170" s="20"/>
-      <c r="I170" s="20"/>
-      <c r="J170" s="21"/>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I170" s="17"/>
+      <c r="J170" s="17"/>
+    </row>
+    <row r="171" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B171" s="53"/>
       <c r="C171" s="18"/>
       <c r="D171" s="52"/>
@@ -21407,17 +21426,27 @@
       <c r="I1693" s="20"/>
       <c r="J1693" s="21"/>
     </row>
+    <row r="1694" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1694" s="53"/>
+      <c r="C1694" s="18"/>
+      <c r="D1694" s="52"/>
+      <c r="F1694" s="19"/>
+      <c r="G1694" s="19"/>
+      <c r="H1694" s="20"/>
+      <c r="I1694" s="20"/>
+      <c r="J1694" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J169" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J170" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B162" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B163" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D166:D168" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D167:D169" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 02,06,25ц-выезд 04,06.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 02,06,25ц-выезд 04,06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAA391A-C5DB-4224-B73E-61EB77AD7B2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B56DB84-F285-4819-B4F7-6BA15DE6E29C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$171</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="248">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -773,6 +773,9 @@
   </si>
   <si>
     <t>ЧОРИЗО ПРЕМИУМ Останкино с/к в/у 1/180</t>
+  </si>
+  <si>
+    <t>ФИЛЕЙНЫЕ Папа может сос ц/о мгс 0.72*4</t>
   </si>
 </sst>
 </file>
@@ -1924,10 +1927,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L1694"/>
+  <dimension ref="A1:L1695"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J177" sqref="J177"/>
     </sheetView>
   </sheetViews>
@@ -2073,7 +2076,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="93" t="str">
-        <f>RIGHT(D11:D169,4)</f>
+        <f>RIGHT(D11:D170,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -2104,7 +2107,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93" t="str">
-        <f>RIGHT(D12:D170,4)</f>
+        <f>RIGHT(D12:D171,4)</f>
         <v>4555</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -2129,7 +2132,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="93" t="str">
-        <f>RIGHT(D13:D170,4)</f>
+        <f>RIGHT(D13:D171,4)</f>
         <v>5992</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2153,7 +2156,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="93" t="str">
-        <f>RIGHT(D14:D171,4)</f>
+        <f>RIGHT(D14:D172,4)</f>
         <v>6268</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2177,7 +2180,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="93" t="str">
-        <f>RIGHT(D15:D172,4)</f>
+        <f>RIGHT(D15:D173,4)</f>
         <v>7126</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -2203,7 +2206,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="93" t="str">
-        <f>RIGHT(D16:D172,4)</f>
+        <f>RIGHT(D16:D173,4)</f>
         <v>6247</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2227,7 +2230,7 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="93" t="str">
-        <f>RIGHT(D17:D172,4)</f>
+        <f>RIGHT(D17:D173,4)</f>
         <v>6325</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2257,7 +2260,7 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="93" t="str">
-        <f>RIGHT(D18:D173,4)</f>
+        <f>RIGHT(D18:D174,4)</f>
         <v>6324</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2283,7 +2286,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="93" t="str">
-        <f>RIGHT(D19:D174,4)</f>
+        <f>RIGHT(D19:D175,4)</f>
         <v>6839</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2309,7 +2312,7 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="93" t="str">
-        <f>RIGHT(D20:D175,4)</f>
+        <f>RIGHT(D20:D176,4)</f>
         <v>7231</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -2333,7 +2336,7 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="93" t="str">
-        <f>RIGHT(D21:D176,4)</f>
+        <f>RIGHT(D21:D177,4)</f>
         <v>4063</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2363,7 +2366,7 @@
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="93" t="str">
-        <f>RIGHT(D22:D177,4)</f>
+        <f>RIGHT(D22:D178,4)</f>
         <v>6333</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -2393,7 +2396,7 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="93" t="str">
-        <f>RIGHT(D23:D178,4)</f>
+        <f>RIGHT(D23:D179,4)</f>
         <v>4574</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2423,7 +2426,7 @@
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="93" t="str">
-        <f>RIGHT(D24:D179,4)</f>
+        <f>RIGHT(D24:D180,4)</f>
         <v>6861</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -2453,7 +2456,7 @@
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="93" t="str">
-        <f>RIGHT(D25:D183,4)</f>
+        <f>RIGHT(D25:D184,4)</f>
         <v>6862</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -2477,7 +2480,7 @@
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="93" t="str">
-        <f>RIGHT(D26:D183,4)</f>
+        <f>RIGHT(D26:D184,4)</f>
         <v>6341</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -2501,7 +2504,7 @@
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="93" t="str">
-        <f>RIGHT(D27:D184,4)</f>
+        <f>RIGHT(D27:D185,4)</f>
         <v>5247</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -2531,7 +2534,7 @@
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="93" t="str">
-        <f>RIGHT(D28:D187,4)</f>
+        <f>RIGHT(D28:D188,4)</f>
         <v>4813</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -2561,7 +2564,7 @@
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="93" t="str">
-        <f>RIGHT(D29:D188,4)</f>
+        <f>RIGHT(D29:D189,4)</f>
         <v>6392</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -2591,7 +2594,7 @@
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="93" t="str">
-        <f>RIGHT(D30:D189,4)</f>
+        <f>RIGHT(D30:D190,4)</f>
         <v>6801</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -2617,7 +2620,7 @@
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="93" t="str">
-        <f>RIGHT(D31:D190,4)</f>
+        <f>RIGHT(D31:D191,4)</f>
         <v>6802</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -2641,7 +2644,7 @@
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="93" t="str">
-        <f>RIGHT(D32:D191,4)</f>
+        <f>RIGHT(D32:D192,4)</f>
         <v>6877</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -2665,7 +2668,7 @@
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="93" t="str">
-        <f>RIGHT(D33:D192,4)</f>
+        <f>RIGHT(D33:D193,4)</f>
         <v>6888</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -2691,7 +2694,7 @@
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="93" t="str">
-        <f>RIGHT(D34:D190,4)</f>
+        <f>RIGHT(D34:D191,4)</f>
         <v>5851</v>
       </c>
       <c r="B34" s="27" t="s">
@@ -2721,7 +2724,7 @@
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="93" t="str">
-        <f>RIGHT(D35:D191,4)</f>
+        <f>RIGHT(D35:D192,4)</f>
         <v>6159</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -2745,7 +2748,7 @@
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="93" t="str">
-        <f>RIGHT(D36:D191,4)</f>
+        <f>RIGHT(D36:D192,4)</f>
         <v>6158</v>
       </c>
       <c r="B36" s="27" t="s">
@@ -2773,7 +2776,7 @@
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93" t="str">
-        <f>RIGHT(D37:D193,4)</f>
+        <f>RIGHT(D37:D194,4)</f>
         <v>6340</v>
       </c>
       <c r="B37" s="95" t="s">
@@ -2801,7 +2804,7 @@
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="93" t="str">
-        <f>RIGHT(D38:D191,4)</f>
+        <f>RIGHT(D38:D192,4)</f>
         <v>6353</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -2831,7 +2834,7 @@
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="93" t="str">
-        <f>RIGHT(D39:D192,4)</f>
+        <f>RIGHT(D39:D193,4)</f>
         <v/>
       </c>
       <c r="B39" s="74" t="s">
@@ -2848,7 +2851,7 @@
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A40" s="93" t="str">
-        <f>RIGHT(D40:D195,4)</f>
+        <f>RIGHT(D40:D196,4)</f>
         <v>6870</v>
       </c>
       <c r="B40" s="27" t="s">
@@ -2873,7 +2876,7 @@
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="93" t="str">
-        <f>RIGHT(D41:D197,4)</f>
+        <f>RIGHT(D41:D198,4)</f>
         <v>7038</v>
       </c>
       <c r="B41" s="27" t="s">
@@ -2898,7 +2901,7 @@
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="93" t="str">
-        <f>RIGHT(D42:D198,4)</f>
+        <f>RIGHT(D42:D199,4)</f>
         <v>7040</v>
       </c>
       <c r="B42" s="27" t="s">
@@ -2925,7 +2928,7 @@
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="93" t="str">
-        <f>RIGHT(D43:D197,4)</f>
+        <f>RIGHT(D43:D198,4)</f>
         <v>7075</v>
       </c>
       <c r="B43" s="27" t="s">
@@ -2950,7 +2953,7 @@
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="93" t="str">
-        <f>RIGHT(D44:D198,4)</f>
+        <f>RIGHT(D44:D199,4)</f>
         <v>7070</v>
       </c>
       <c r="B44" s="27" t="s">
@@ -2975,7 +2978,7 @@
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="93" t="str">
-        <f>RIGHT(D45:D196,4)</f>
+        <f>RIGHT(D45:D197,4)</f>
         <v>6253</v>
       </c>
       <c r="B45" s="27" t="s">
@@ -3000,7 +3003,7 @@
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="93" t="str">
-        <f>RIGHT(D46:D195,4)</f>
+        <f>RIGHT(D46:D196,4)</f>
         <v>6602</v>
       </c>
       <c r="B46" s="27" t="s">
@@ -3025,7 +3028,7 @@
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="93" t="str">
-        <f>RIGHT(D47:D198,4)</f>
+        <f>RIGHT(D47:D199,4)</f>
         <v>6768</v>
       </c>
       <c r="B47" s="27" t="s">
@@ -3050,7 +3053,7 @@
     </row>
     <row r="48" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="93" t="str">
-        <f>RIGHT(D48:D199,4)</f>
+        <f>RIGHT(D48:D200,4)</f>
         <v>6770</v>
       </c>
       <c r="B48" s="27" t="s">
@@ -3075,7 +3078,7 @@
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="93" t="str">
-        <f>RIGHT(D49:D202,4)</f>
+        <f>RIGHT(D49:D203,4)</f>
         <v>6829</v>
       </c>
       <c r="B49" s="27" t="s">
@@ -3099,7 +3102,7 @@
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="93" t="str">
-        <f>RIGHT(D50:D207,4)</f>
+        <f>RIGHT(D50:D208,4)</f>
         <v>7074</v>
       </c>
       <c r="B50" s="27" t="s">
@@ -3123,7 +3126,7 @@
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="93" t="str">
-        <f>RIGHT(D51:D208,4)</f>
+        <f>RIGHT(D51:D209,4)</f>
         <v>7073</v>
       </c>
       <c r="B51" s="27" t="s">
@@ -3147,7 +3150,7 @@
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="93" t="str">
-        <f>RIGHT(D52:D209,4)</f>
+        <f>RIGHT(D52:D210,4)</f>
         <v>6759</v>
       </c>
       <c r="B52" s="27" t="s">
@@ -3171,7 +3174,7 @@
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="93" t="str">
-        <f>RIGHT(D53:D210,4)</f>
+        <f>RIGHT(D53:D211,4)</f>
         <v>6724</v>
       </c>
       <c r="B53" s="27" t="s">
@@ -3197,7 +3200,7 @@
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="93" t="str">
-        <f>RIGHT(D54:D211,4)</f>
+        <f>RIGHT(D54:D212,4)</f>
         <v>6616</v>
       </c>
       <c r="B54" s="27" t="s">
@@ -3223,7 +3226,7 @@
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="93" t="str">
-        <f>RIGHT(D55:D210,4)</f>
+        <f>RIGHT(D55:D211,4)</f>
         <v>6901</v>
       </c>
       <c r="B55" s="27" t="s">
@@ -3249,7 +3252,7 @@
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="93" t="str">
-        <f>RIGHT(D56:D211,4)</f>
+        <f>RIGHT(D56:D212,4)</f>
         <v>6962</v>
       </c>
       <c r="B56" s="27" t="s">
@@ -3275,7 +3278,7 @@
     </row>
     <row r="57" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="93" t="str">
-        <f>RIGHT(D57:D209,4)</f>
+        <f>RIGHT(D57:D210,4)</f>
         <v>6303</v>
       </c>
       <c r="B57" s="70" t="s">
@@ -3306,7 +3309,7 @@
     </row>
     <row r="58" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="93" t="str">
-        <f>RIGHT(D58:D210,4)</f>
+        <f>RIGHT(D58:D211,4)</f>
         <v>7077</v>
       </c>
       <c r="B58" s="70" t="s">
@@ -3331,7 +3334,7 @@
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="93" t="str">
-        <f>RIGHT(D59:D210,4)</f>
+        <f>RIGHT(D59:D211,4)</f>
         <v>7080</v>
       </c>
       <c r="B59" s="45" t="s">
@@ -3361,7 +3364,7 @@
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="93" t="str">
-        <f>RIGHT(D60:D211,4)</f>
+        <f>RIGHT(D60:D212,4)</f>
         <v>6762</v>
       </c>
       <c r="B60" s="45" t="s">
@@ -3387,7 +3390,7 @@
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="93" t="str">
-        <f>RIGHT(D61:D211,4)</f>
+        <f>RIGHT(D61:D212,4)</f>
         <v>5820</v>
       </c>
       <c r="B61" s="45" t="s">
@@ -3413,7 +3416,7 @@
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="93" t="str">
-        <f>RIGHT(D62:D212,4)</f>
+        <f>RIGHT(D62:D213,4)</f>
         <v>7082</v>
       </c>
       <c r="B62" s="45" t="s">
@@ -3437,7 +3440,7 @@
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="93" t="str">
-        <f>RIGHT(D63:D213,4)</f>
+        <f>RIGHT(D63:D214,4)</f>
         <v>6764</v>
       </c>
       <c r="B63" s="45" t="s">
@@ -3461,7 +3464,7 @@
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="93" t="str">
-        <f>RIGHT(D64:D215,4)</f>
+        <f>RIGHT(D64:D216,4)</f>
         <v>6761</v>
       </c>
       <c r="B64" s="45" t="s">
@@ -3485,7 +3488,7 @@
     </row>
     <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="93" t="str">
-        <f>RIGHT(D65:D216,4)</f>
+        <f>RIGHT(D65:D217,4)</f>
         <v>6767</v>
       </c>
       <c r="B65" s="45" t="s">
@@ -3509,7 +3512,7 @@
     </row>
     <row r="66" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="93" t="str">
-        <f>RIGHT(D66:D216,4)</f>
+        <f>RIGHT(D66:D217,4)</f>
         <v>6765</v>
       </c>
       <c r="B66" s="45" t="s">
@@ -3533,7 +3536,7 @@
     </row>
     <row r="67" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="93" t="str">
-        <f>RIGHT(D67:D217,4)</f>
+        <f>RIGHT(D67:D218,4)</f>
         <v>6909</v>
       </c>
       <c r="B67" s="45" t="s">
@@ -3559,7 +3562,7 @@
     </row>
     <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="93" t="str">
-        <f>RIGHT(D68:D218,4)</f>
+        <f>RIGHT(D68:D219,4)</f>
         <v>6987</v>
       </c>
       <c r="B68" s="45" t="s">
@@ -3585,7 +3588,7 @@
     </row>
     <row r="69" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="93" t="str">
-        <f>RIGHT(D69:D216,4)</f>
+        <f>RIGHT(D69:D217,4)</f>
         <v>7066</v>
       </c>
       <c r="B69" s="45" t="s">
@@ -3615,7 +3618,7 @@
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="93" t="str">
-        <f>RIGHT(D70:D217,4)</f>
+        <f>RIGHT(D70:D218,4)</f>
         <v>6837</v>
       </c>
       <c r="B70" s="45" t="s">
@@ -3639,49 +3642,48 @@
       <c r="I70" s="14"/>
       <c r="J70" s="39"/>
     </row>
-    <row r="71" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="93" t="str">
         <f>RIGHT(D71:D219,4)</f>
-        <v>6661</v>
-      </c>
-      <c r="B71" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C71" s="30" t="s">
+        <v>7244</v>
+      </c>
+      <c r="B71" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="C71" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D71" s="28">
-        <v>1001022246661</v>
+        <v>1001022557244</v>
       </c>
       <c r="E71" s="24"/>
       <c r="F71" s="23"/>
       <c r="G71" s="23">
-        <f>E71*1</f>
+        <f>E71</f>
         <v>0</v>
       </c>
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
       <c r="J71" s="39"/>
-      <c r="K71" s="82"/>
-    </row>
-    <row r="72" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="93" t="str">
         <f>RIGHT(D72:D220,4)</f>
-        <v>6713</v>
+        <v>6661</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C72" s="35" t="s">
-        <v>26</v>
+        <v>84</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D72" s="28">
-        <v>1001022246713</v>
+        <v>1001022246661</v>
       </c>
       <c r="E72" s="24"/>
       <c r="F72" s="23"/>
       <c r="G72" s="23">
-        <f>E72*0.41</f>
+        <f>E72*1</f>
         <v>0</v>
       </c>
       <c r="H72" s="14"/>
@@ -3689,97 +3691,96 @@
       <c r="J72" s="39"/>
       <c r="K72" s="82"/>
     </row>
-    <row r="73" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="93" t="str">
-        <f>RIGHT(D73:D216,4)</f>
-        <v/>
-      </c>
-      <c r="B73" s="74" t="s">
-        <v>86</v>
-      </c>
-      <c r="C73" s="74"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="73"/>
-      <c r="G73" s="74"/>
-      <c r="H73" s="74"/>
-      <c r="I73" s="74"/>
-      <c r="J73" s="75"/>
-    </row>
-    <row r="74" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D73:D221,4)</f>
+        <v>6713</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="28">
+        <v>1001022246713</v>
+      </c>
+      <c r="E73" s="24"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23">
+        <f>E73*0.41</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="82"/>
+    </row>
+    <row r="74" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="93" t="str">
         <f>RIGHT(D74:D217,4)</f>
+        <v/>
+      </c>
+      <c r="B74" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="74"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="73"/>
+      <c r="G74" s="74"/>
+      <c r="H74" s="74"/>
+      <c r="I74" s="74"/>
+      <c r="J74" s="75"/>
+    </row>
+    <row r="75" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="93" t="str">
+        <f>RIGHT(D75:D218,4)</f>
         <v>5698</v>
       </c>
-      <c r="B74" s="46" t="s">
+      <c r="B75" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C74" s="30" t="s">
+      <c r="C75" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="28">
+      <c r="D75" s="28">
         <v>1001034065698</v>
       </c>
-      <c r="E74" s="24"/>
-      <c r="F74" s="23">
+      <c r="E75" s="24"/>
+      <c r="F75" s="23">
         <v>1.013333333333333</v>
       </c>
-      <c r="G74" s="23">
-        <f>E74*1</f>
+      <c r="G75" s="23">
+        <f>E75*1</f>
         <v>0</v>
       </c>
-      <c r="H74" s="14">
+      <c r="H75" s="14">
         <v>3.04</v>
       </c>
-      <c r="I74" s="14">
+      <c r="I75" s="14">
         <v>30</v>
       </c>
-      <c r="J74" s="39"/>
-    </row>
-    <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="93" t="str">
-        <f>RIGHT(D75:D220,4)</f>
-        <v>6528</v>
-      </c>
-      <c r="B75" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C75" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D75" s="28">
-        <v>1001031076528</v>
-      </c>
-      <c r="E75" s="24"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23">
-        <f>E75*0.4</f>
-        <v>0</v>
-      </c>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
       <c r="J75" s="39"/>
     </row>
     <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="93" t="str">
         <f>RIGHT(D76:D221,4)</f>
-        <v>7059</v>
+        <v>6528</v>
       </c>
       <c r="B76" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C76" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D76" s="28">
-        <v>1001035277059</v>
+        <v>1001031076528</v>
       </c>
       <c r="E76" s="24"/>
-      <c r="F76" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F76" s="23"/>
       <c r="G76" s="23">
-        <f>F76*E76</f>
+        <f>E76*0.4</f>
         <v>0</v>
       </c>
       <c r="H76" s="14"/>
@@ -3788,21 +3789,21 @@
     </row>
     <row r="77" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="93" t="str">
-        <f>RIGHT(D77:D221,4)</f>
-        <v>6609</v>
+        <f>RIGHT(D77:D222,4)</f>
+        <v>7059</v>
       </c>
       <c r="B77" s="46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C77" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D77" s="28">
-        <v>1001033856609</v>
+        <v>1001035277059</v>
       </c>
       <c r="E77" s="24"/>
       <c r="F77" s="23">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G77" s="23">
         <f>F77*E77</f>
@@ -3815,193 +3816,195 @@
     <row r="78" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="93" t="str">
         <f>RIGHT(D78:D222,4)</f>
-        <v>7001</v>
+        <v>6609</v>
       </c>
       <c r="B78" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D78" s="28">
-        <v>1001035937001</v>
+        <v>1001033856609</v>
       </c>
       <c r="E78" s="24"/>
       <c r="F78" s="23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G78" s="23">
-        <f>E78</f>
+        <f>F78*E78</f>
         <v>0</v>
       </c>
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
       <c r="J78" s="39"/>
     </row>
-    <row r="79" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="93" t="str">
-        <f>RIGHT(D79:D222,4)</f>
-        <v>6527</v>
+        <f>RIGHT(D79:D223,4)</f>
+        <v>7001</v>
       </c>
       <c r="B79" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="C79" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D79" s="28">
-        <v>1001031076527</v>
+        <v>1001035937001</v>
       </c>
       <c r="E79" s="24"/>
       <c r="F79" s="23">
-        <v>1.0166666666666671</v>
+        <v>1</v>
       </c>
       <c r="G79" s="23">
-        <f>E79*1</f>
+        <f>E79</f>
         <v>0</v>
       </c>
-      <c r="H79" s="14">
-        <v>3.05</v>
-      </c>
-      <c r="I79" s="14">
-        <v>30</v>
-      </c>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
       <c r="J79" s="39"/>
     </row>
-    <row r="80" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="93" t="str">
         <f>RIGHT(D80:D223,4)</f>
-        <v/>
-      </c>
-      <c r="B80" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="C80" s="74"/>
-      <c r="D80" s="74"/>
-      <c r="E80" s="74"/>
-      <c r="F80" s="73"/>
-      <c r="G80" s="74"/>
-      <c r="H80" s="74"/>
-      <c r="I80" s="74"/>
-      <c r="J80" s="75"/>
-    </row>
-    <row r="81" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>6527</v>
+      </c>
+      <c r="B80" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="28">
+        <v>1001031076527</v>
+      </c>
+      <c r="E80" s="24"/>
+      <c r="F80" s="23">
+        <v>1.0166666666666671</v>
+      </c>
+      <c r="G80" s="23">
+        <f>E80*1</f>
+        <v>0</v>
+      </c>
+      <c r="H80" s="14">
+        <v>3.05</v>
+      </c>
+      <c r="I80" s="14">
+        <v>30</v>
+      </c>
+      <c r="J80" s="39"/>
+    </row>
+    <row r="81" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="93" t="str">
         <f>RIGHT(D81:D224,4)</f>
-        <v>7232</v>
-      </c>
-      <c r="B81" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C81" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D81" s="28">
-        <v>1001302277232</v>
-      </c>
-      <c r="E81" s="24"/>
-      <c r="F81" s="23">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G81" s="23">
-        <f>E81*F81</f>
-        <v>0</v>
-      </c>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14">
-        <v>50</v>
-      </c>
-      <c r="J81" s="39"/>
-    </row>
-    <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B81" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81" s="74"/>
+      <c r="D81" s="74"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="73"/>
+      <c r="G81" s="74"/>
+      <c r="H81" s="74"/>
+      <c r="I81" s="74"/>
+      <c r="J81" s="75"/>
+    </row>
+    <row r="82" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A82" s="93" t="str">
         <f>RIGHT(D82:D225,4)</f>
-        <v>6785</v>
+        <v>7232</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C82" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D82" s="28">
-        <v>1001300516785</v>
+        <v>1001302277232</v>
       </c>
       <c r="E82" s="24"/>
-      <c r="F82" s="23"/>
+      <c r="F82" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G82" s="23">
-        <f>E82*0.33</f>
+        <f>E82*F82</f>
         <v>0</v>
       </c>
       <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
+      <c r="I82" s="14">
+        <v>50</v>
+      </c>
       <c r="J82" s="39"/>
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="93" t="str">
         <f>RIGHT(D83:D226,4)</f>
-        <v>7149</v>
-      </c>
-      <c r="B83" s="96" t="s">
-        <v>96</v>
+        <v>6785</v>
+      </c>
+      <c r="B83" s="27" t="s">
+        <v>95</v>
       </c>
       <c r="C83" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D83" s="28">
-        <v>1001303637149</v>
+        <v>1001300516785</v>
       </c>
       <c r="E83" s="24"/>
-      <c r="F83" s="23">
-        <v>0.84</v>
-      </c>
+      <c r="F83" s="23"/>
       <c r="G83" s="23">
-        <f>F83*E83</f>
+        <f>E83*0.33</f>
         <v>0</v>
       </c>
       <c r="H83" s="14"/>
-      <c r="I83" s="14">
-        <v>50</v>
-      </c>
+      <c r="I83" s="14"/>
       <c r="J83" s="39"/>
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="93" t="str">
-        <f>RIGHT(D84:D226,4)</f>
-        <v>6786</v>
-      </c>
-      <c r="B84" s="27" t="s">
-        <v>97</v>
+        <f>RIGHT(D84:D227,4)</f>
+        <v>7149</v>
+      </c>
+      <c r="B84" s="96" t="s">
+        <v>96</v>
       </c>
       <c r="C84" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D84" s="28">
-        <v>1001300516786</v>
+        <v>1001303637149</v>
       </c>
       <c r="E84" s="24"/>
-      <c r="F84" s="23"/>
+      <c r="F84" s="23">
+        <v>0.84</v>
+      </c>
       <c r="G84" s="23">
-        <f>E84</f>
+        <f>F84*E84</f>
         <v>0</v>
       </c>
       <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
+      <c r="I84" s="14">
+        <v>50</v>
+      </c>
       <c r="J84" s="39"/>
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="93" t="str">
         <f>RIGHT(D85:D227,4)</f>
-        <v>4903</v>
+        <v>6786</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C85" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D85" s="28">
-        <v>1001040434903</v>
+        <v>1001300516786</v>
       </c>
       <c r="E85" s="24"/>
       <c r="F85" s="23"/>
@@ -4015,17 +4018,17 @@
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="93" t="str">
-        <f>RIGHT(D86:D227,4)</f>
-        <v>7131</v>
+        <f>RIGHT(D86:D228,4)</f>
+        <v>4903</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C86" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D86" s="28">
-        <v>1001303637131</v>
+        <v>1001040434903</v>
       </c>
       <c r="E86" s="24"/>
       <c r="F86" s="23"/>
@@ -4034,123 +4037,123 @@
         <v>0</v>
       </c>
       <c r="H86" s="14"/>
-      <c r="I86" s="14">
-        <v>45</v>
-      </c>
+      <c r="I86" s="14"/>
       <c r="J86" s="39"/>
     </row>
-    <row r="87" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="93" t="str">
-        <f>RIGHT(D87:D225,4)</f>
-        <v>7241</v>
+        <f>RIGHT(D87:D228,4)</f>
+        <v>7131</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C87" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D87" s="28">
-        <v>1001303107241</v>
+        <v>1001303637131</v>
       </c>
       <c r="E87" s="24"/>
-      <c r="F87" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F87" s="23"/>
       <c r="G87" s="23">
-        <f>E87*0.28</f>
+        <f>E87</f>
         <v>0</v>
       </c>
-      <c r="H87" s="14">
-        <v>2.2400000000000002</v>
-      </c>
+      <c r="H87" s="14"/>
       <c r="I87" s="14">
         <v>45</v>
       </c>
       <c r="J87" s="39"/>
     </row>
-    <row r="88" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="93" t="str">
-        <f>RIGHT(D88:D228,4)</f>
-        <v/>
-      </c>
-      <c r="B88" s="74" t="s">
-        <v>101</v>
-      </c>
-      <c r="C88" s="74"/>
-      <c r="D88" s="74"/>
-      <c r="E88" s="74"/>
-      <c r="F88" s="73"/>
-      <c r="G88" s="74"/>
-      <c r="H88" s="74"/>
-      <c r="I88" s="74"/>
-      <c r="J88" s="75"/>
-    </row>
-    <row r="89" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D88:D226,4)</f>
+        <v>7241</v>
+      </c>
+      <c r="B88" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88" s="28">
+        <v>1001303107241</v>
+      </c>
+      <c r="E88" s="24"/>
+      <c r="F88" s="23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G88" s="23">
+        <f>E88*0.28</f>
+        <v>0</v>
+      </c>
+      <c r="H88" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I88" s="14">
+        <v>45</v>
+      </c>
+      <c r="J88" s="39"/>
+    </row>
+    <row r="89" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="93" t="str">
         <f>RIGHT(D89:D229,4)</f>
+        <v/>
+      </c>
+      <c r="B89" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" s="74"/>
+      <c r="D89" s="74"/>
+      <c r="E89" s="74"/>
+      <c r="F89" s="73"/>
+      <c r="G89" s="74"/>
+      <c r="H89" s="74"/>
+      <c r="I89" s="74"/>
+      <c r="J89" s="75"/>
+    </row>
+    <row r="90" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="93" t="str">
+        <f>RIGHT(D90:D230,4)</f>
         <v>7154</v>
       </c>
-      <c r="B89" s="27" t="s">
+      <c r="B90" s="27" t="s">
         <v>102</v>
-      </c>
-      <c r="C89" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D89" s="28">
-        <v>1001300387154</v>
-      </c>
-      <c r="E89" s="24"/>
-      <c r="F89" s="23">
-        <v>0.35</v>
-      </c>
-      <c r="G89" s="23">
-        <f>E89*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14">
-        <v>50</v>
-      </c>
-      <c r="J89" s="39"/>
-    </row>
-    <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="93" t="str">
-        <f>RIGHT(D90:D231,4)</f>
-        <v>6793</v>
-      </c>
-      <c r="B90" s="27" t="s">
-        <v>103</v>
       </c>
       <c r="C90" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D90" s="28">
-        <v>1001303636793</v>
+        <v>1001300387154</v>
       </c>
       <c r="E90" s="24"/>
-      <c r="F90" s="23"/>
+      <c r="F90" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G90" s="23">
-        <f>E90*0.33</f>
+        <f>E90*0.35</f>
         <v>0</v>
       </c>
       <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
+      <c r="I90" s="14">
+        <v>50</v>
+      </c>
       <c r="J90" s="39"/>
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="93" t="str">
         <f>RIGHT(D91:D232,4)</f>
-        <v>6795</v>
+        <v>6793</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D91" s="28">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="E91" s="24"/>
       <c r="F91" s="23"/>
@@ -4164,17 +4167,17 @@
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="93" t="str">
-        <f>RIGHT(D92:D232,4)</f>
-        <v>6807</v>
+        <f>RIGHT(D92:D233,4)</f>
+        <v>6795</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C92" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D92" s="28">
-        <v>1001300366807</v>
+        <v>1001302596795</v>
       </c>
       <c r="E92" s="24"/>
       <c r="F92" s="23"/>
@@ -4188,76 +4191,76 @@
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="93" t="str">
-        <f>RIGHT(D93:D232,4)</f>
-        <v>7236</v>
+        <f>RIGHT(D93:D233,4)</f>
+        <v>6807</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C93" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D93" s="28">
-        <v>1001304507236</v>
+        <v>1001300366807</v>
       </c>
       <c r="E93" s="24"/>
-      <c r="F93" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F93" s="23"/>
       <c r="G93" s="23">
-        <f>E93*0.28</f>
+        <f>E93*0.33</f>
         <v>0</v>
       </c>
-      <c r="H93" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I93" s="14">
-        <v>45</v>
-      </c>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
       <c r="J93" s="39"/>
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="93" t="str">
-        <f>RIGHT(D94:D234,4)</f>
-        <v>6787</v>
+        <f>RIGHT(D94:D233,4)</f>
+        <v>7236</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C94" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D94" s="28">
-        <v>1001300456787</v>
+        <v>1001304507236</v>
       </c>
       <c r="E94" s="24"/>
-      <c r="F94" s="23"/>
+      <c r="F94" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G94" s="23">
-        <f>E94*0.33</f>
+        <f>E94*0.28</f>
         <v>0</v>
       </c>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
+      <c r="H94" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I94" s="14">
+        <v>45</v>
+      </c>
       <c r="J94" s="39"/>
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="93" t="str">
         <f>RIGHT(D95:D235,4)</f>
-        <v>6788</v>
+        <v>6787</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C95" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D95" s="28">
-        <v>1001300456788</v>
+        <v>1001300456787</v>
       </c>
       <c r="E95" s="24"/>
       <c r="F95" s="23"/>
       <c r="G95" s="23">
-        <f>E95*1</f>
+        <f>E95*0.33</f>
         <v>0</v>
       </c>
       <c r="H95" s="14"/>
@@ -4267,16 +4270,16 @@
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="93" t="str">
         <f>RIGHT(D96:D236,4)</f>
-        <v>6790</v>
+        <v>6788</v>
       </c>
       <c r="B96" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C96" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D96" s="28">
-        <v>1001300366790</v>
+        <v>1001300456788</v>
       </c>
       <c r="E96" s="24"/>
       <c r="F96" s="23"/>
@@ -4290,126 +4293,126 @@
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="93" t="str">
-        <f>RIGHT(D97:D235,4)</f>
-        <v>7169</v>
-      </c>
-      <c r="B97" s="64" t="s">
-        <v>110</v>
+        <f>RIGHT(D97:D237,4)</f>
+        <v>6790</v>
+      </c>
+      <c r="B97" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="C97" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D97" s="28">
-        <v>1001303987169</v>
+        <v>1001300366790</v>
       </c>
       <c r="E97" s="24"/>
-      <c r="F97" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F97" s="23"/>
       <c r="G97" s="23">
-        <f>E97*F97</f>
+        <f>E97*1</f>
         <v>0</v>
       </c>
       <c r="H97" s="14"/>
-      <c r="I97" s="14">
-        <v>50</v>
-      </c>
+      <c r="I97" s="14"/>
       <c r="J97" s="39"/>
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="93" t="str">
         <f>RIGHT(D98:D236,4)</f>
-        <v>6791</v>
+        <v>7169</v>
       </c>
       <c r="B98" s="64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C98" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D98" s="28">
-        <v>1001304096791</v>
+        <v>1001303987169</v>
       </c>
       <c r="E98" s="24"/>
-      <c r="F98" s="23"/>
+      <c r="F98" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G98" s="23">
-        <f>E98*0.33</f>
+        <f>E98*F98</f>
         <v>0</v>
       </c>
       <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
+      <c r="I98" s="14">
+        <v>50</v>
+      </c>
       <c r="J98" s="39"/>
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="93" t="str">
         <f>RIGHT(D99:D237,4)</f>
-        <v>7166</v>
+        <v>6791</v>
       </c>
       <c r="B99" s="64" t="s">
-        <v>112</v>
-      </c>
-      <c r="C99" s="30" t="s">
-        <v>23</v>
+        <v>111</v>
+      </c>
+      <c r="C99" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D99" s="28">
-        <v>1001303987166</v>
+        <v>1001304096791</v>
       </c>
       <c r="E99" s="24"/>
       <c r="F99" s="23"/>
       <c r="G99" s="23">
-        <f>E99*1</f>
+        <f>E99*0.33</f>
         <v>0</v>
       </c>
       <c r="H99" s="14"/>
-      <c r="I99" s="14">
-        <v>50</v>
-      </c>
+      <c r="I99" s="14"/>
       <c r="J99" s="39"/>
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="93" t="str">
         <f>RIGHT(D100:D238,4)</f>
-        <v>6459</v>
+        <v>7166</v>
       </c>
       <c r="B100" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="C100" s="33" t="s">
-        <v>26</v>
+        <v>112</v>
+      </c>
+      <c r="C100" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D100" s="28">
-        <v>1001214196459</v>
+        <v>1001303987166</v>
       </c>
       <c r="E100" s="24"/>
-      <c r="F100" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F100" s="23"/>
       <c r="G100" s="23">
-        <f>E100*F100</f>
+        <f>E100*1</f>
         <v>0</v>
       </c>
       <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
+      <c r="I100" s="14">
+        <v>50</v>
+      </c>
       <c r="J100" s="39"/>
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="93" t="str">
         <f>RIGHT(D101:D239,4)</f>
-        <v>6586</v>
+        <v>6459</v>
       </c>
       <c r="B101" s="64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C101" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D101" s="28">
-        <v>1001215576586</v>
+        <v>1001214196459</v>
       </c>
       <c r="E101" s="24"/>
-      <c r="F101" s="23"/>
+      <c r="F101" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G101" s="23">
-        <f>E101*0.09</f>
+        <f>E101*F101</f>
         <v>0</v>
       </c>
       <c r="H101" s="14"/>
@@ -4418,17 +4421,17 @@
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="93" t="str">
-        <f>RIGHT(D102:D237,4)</f>
-        <v>6228</v>
+        <f>RIGHT(D102:D240,4)</f>
+        <v>6586</v>
       </c>
       <c r="B102" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C102" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D102" s="28">
-        <v>1001225416228</v>
+        <v>1001215576586</v>
       </c>
       <c r="E102" s="24"/>
       <c r="F102" s="23"/>
@@ -4443,23 +4446,21 @@
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="93" t="str">
         <f>RIGHT(D103:D238,4)</f>
-        <v>7087</v>
+        <v>6228</v>
       </c>
       <c r="B103" s="64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C103" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D103" s="28">
-        <v>1001084227087</v>
+        <v>1001225416228</v>
       </c>
       <c r="E103" s="24"/>
-      <c r="F103" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F103" s="23"/>
       <c r="G103" s="23">
-        <f>F103*E103</f>
+        <f>E103*0.09</f>
         <v>0</v>
       </c>
       <c r="H103" s="14"/>
@@ -4468,219 +4469,215 @@
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="93" t="str">
-        <f>RIGHT(D104:D237,4)</f>
-        <v>5544</v>
-      </c>
-      <c r="B104" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C104" s="30" t="s">
-        <v>23</v>
+        <f>RIGHT(D104:D239,4)</f>
+        <v>7087</v>
+      </c>
+      <c r="B104" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="C104" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D104" s="28">
-        <v>1001051875544</v>
+        <v>1001084227087</v>
       </c>
       <c r="E104" s="24"/>
       <c r="F104" s="23">
-        <v>0.85</v>
+        <v>0.3</v>
       </c>
       <c r="G104" s="23">
-        <f>E104*1</f>
+        <f>F104*E104</f>
         <v>0</v>
       </c>
-      <c r="H104" s="14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I104" s="14">
-        <v>45</v>
-      </c>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
       <c r="J104" s="39"/>
     </row>
-    <row r="105" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="93" t="str">
-        <f>RIGHT(D105:D239,4)</f>
-        <v>6697</v>
+        <f>RIGHT(D105:D238,4)</f>
+        <v>5544</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C105" s="36" t="s">
-        <v>26</v>
+        <v>117</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D105" s="28">
-        <v>1001301876697</v>
+        <v>1001051875544</v>
       </c>
       <c r="E105" s="24"/>
       <c r="F105" s="23">
-        <v>0.35</v>
+        <v>0.85</v>
       </c>
       <c r="G105" s="23">
-        <f>E105*0.35</f>
+        <f>E105*1</f>
         <v>0</v>
       </c>
       <c r="H105" s="14">
-        <v>2.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I105" s="14">
         <v>45</v>
       </c>
       <c r="J105" s="39"/>
     </row>
-    <row r="106" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="93" t="str">
-        <f>RIGHT(D106:D240,4)</f>
+        <f t="shared" ref="A106:A111" si="0">RIGHT(D106:D240,4)</f>
+        <v>6697</v>
+      </c>
+      <c r="B106" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C106" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D106" s="28">
+        <v>1001301876697</v>
+      </c>
+      <c r="E106" s="24"/>
+      <c r="F106" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="G106" s="23">
+        <f>E106*0.35</f>
+        <v>0</v>
+      </c>
+      <c r="H106" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I106" s="14">
+        <v>45</v>
+      </c>
+      <c r="J106" s="39"/>
+    </row>
+    <row r="107" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="93" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B106" s="74" t="s">
+      <c r="B107" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="C106" s="74"/>
-      <c r="D106" s="74"/>
-      <c r="E106" s="74"/>
-      <c r="F106" s="73"/>
-      <c r="G106" s="74"/>
-      <c r="H106" s="74"/>
-      <c r="I106" s="74"/>
-      <c r="J106" s="75"/>
-    </row>
-    <row r="107" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="93" t="str">
-        <f>RIGHT(D107:D241,4)</f>
+      <c r="C107" s="74"/>
+      <c r="D107" s="74"/>
+      <c r="E107" s="74"/>
+      <c r="F107" s="73"/>
+      <c r="G107" s="74"/>
+      <c r="H107" s="74"/>
+      <c r="I107" s="74"/>
+      <c r="J107" s="75"/>
+    </row>
+    <row r="108" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="93" t="str">
+        <f t="shared" si="0"/>
         <v>5706</v>
       </c>
-      <c r="B107" s="27" t="s">
+      <c r="B108" s="27" t="s">
         <v>120</v>
-      </c>
-      <c r="C107" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D107" s="28">
-        <v>1001061975706</v>
-      </c>
-      <c r="E107" s="24"/>
-      <c r="F107" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="G107" s="23">
-        <f>E107*0.25</f>
-        <v>0</v>
-      </c>
-      <c r="H107" s="14">
-        <v>2</v>
-      </c>
-      <c r="I107" s="14">
-        <v>120</v>
-      </c>
-      <c r="J107" s="39"/>
-    </row>
-    <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="93" t="str">
-        <f>RIGHT(D108:D242,4)</f>
-        <v>6454</v>
-      </c>
-      <c r="B108" s="27" t="s">
-        <v>121</v>
       </c>
       <c r="C108" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D108" s="28">
-        <v>1001201976454</v>
+        <v>1001061975706</v>
       </c>
       <c r="E108" s="24"/>
       <c r="F108" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G108" s="23">
-        <f>E108*0.1</f>
+        <f>E108*0.25</f>
         <v>0</v>
       </c>
       <c r="H108" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I108" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J108" s="39"/>
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="93" t="str">
-        <f>RIGHT(D109:D243,4)</f>
-        <v>6222</v>
+        <f t="shared" si="0"/>
+        <v>6454</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C109" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D109" s="28">
-        <v>1001205386222</v>
+        <v>1001201976454</v>
       </c>
       <c r="E109" s="24"/>
-      <c r="F109" s="23"/>
+      <c r="F109" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G109" s="23">
-        <f>E109*0.09</f>
+        <f>E109*0.1</f>
         <v>0</v>
       </c>
-      <c r="H109" s="14"/>
-      <c r="I109" s="14"/>
+      <c r="H109" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I109" s="14">
+        <v>60</v>
+      </c>
       <c r="J109" s="39"/>
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="93" t="str">
-        <f>RIGHT(D110:D244,4)</f>
-        <v>5931</v>
+        <f t="shared" si="0"/>
+        <v>6222</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C110" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D110" s="28">
-        <v>1001060755931</v>
+        <v>1001205386222</v>
       </c>
       <c r="E110" s="24"/>
-      <c r="F110" s="23">
-        <v>0.22</v>
-      </c>
+      <c r="F110" s="23"/>
       <c r="G110" s="23">
-        <f>E110*0.22</f>
+        <f>E110*0.09</f>
         <v>0</v>
       </c>
-      <c r="H110" s="14">
-        <v>1.76</v>
-      </c>
-      <c r="I110" s="14">
-        <v>120</v>
-      </c>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
       <c r="J110" s="39"/>
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="93" t="str">
-        <f>RIGHT(D111:D246,4)</f>
-        <v>5708</v>
+        <f t="shared" si="0"/>
+        <v>5931</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C111" s="30" t="s">
-        <v>23</v>
+        <v>123</v>
+      </c>
+      <c r="C111" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D111" s="28">
-        <v>1001063145708</v>
+        <v>1001060755931</v>
       </c>
       <c r="E111" s="24"/>
       <c r="F111" s="23">
-        <v>0.51249999999999996</v>
+        <v>0.22</v>
       </c>
       <c r="G111" s="23">
-        <f>E111*1</f>
+        <f>E111*0.22</f>
         <v>0</v>
       </c>
       <c r="H111" s="14">
-        <v>4.0999999999999996</v>
+        <v>1.76</v>
       </c>
       <c r="I111" s="14">
         <v>120</v>
@@ -4690,45 +4687,51 @@
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="93" t="str">
         <f>RIGHT(D112:D247,4)</f>
-        <v>1146</v>
+        <v>5708</v>
       </c>
       <c r="B112" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C112" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D112" s="28">
-        <v>1001061971146</v>
+        <v>1001063145708</v>
       </c>
       <c r="E112" s="24"/>
-      <c r="F112" s="23"/>
+      <c r="F112" s="23">
+        <v>0.51249999999999996</v>
+      </c>
       <c r="G112" s="23">
-        <f>E112</f>
+        <f>E112*1</f>
         <v>0</v>
       </c>
-      <c r="H112" s="14"/>
-      <c r="I112" s="14"/>
+      <c r="H112" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I112" s="14">
+        <v>120</v>
+      </c>
       <c r="J112" s="39"/>
     </row>
     <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="93" t="str">
-        <f>RIGHT(D113:D247,4)</f>
-        <v>6834</v>
+        <f>RIGHT(D113:D248,4)</f>
+        <v>1146</v>
       </c>
       <c r="B113" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C113" s="33" t="s">
-        <v>26</v>
+        <v>125</v>
+      </c>
+      <c r="C113" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D113" s="28">
-        <v>1001203146834</v>
+        <v>1001061971146</v>
       </c>
       <c r="E113" s="24"/>
       <c r="F113" s="23"/>
       <c r="G113" s="23">
-        <f>E113*0.1</f>
+        <f>E113</f>
         <v>0</v>
       </c>
       <c r="H113" s="14"/>
@@ -4738,23 +4741,21 @@
     <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="93" t="str">
         <f>RIGHT(D114:D248,4)</f>
-        <v>6448</v>
+        <v>6834</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C114" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D114" s="28">
-        <v>1001234146448</v>
+        <v>1001203146834</v>
       </c>
       <c r="E114" s="24"/>
-      <c r="F114" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F114" s="23"/>
       <c r="G114" s="23">
-        <f>F114*E114</f>
+        <f>E114*0.1</f>
         <v>0</v>
       </c>
       <c r="H114" s="14"/>
@@ -4764,20 +4765,20 @@
     <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="93" t="str">
         <f>RIGHT(D115:D249,4)</f>
-        <v>6221</v>
+        <v>6448</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C115" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D115" s="28">
-        <v>1001205376221</v>
+        <v>1001234146448</v>
       </c>
       <c r="E115" s="24"/>
       <c r="F115" s="23">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G115" s="23">
         <f>F115*E115</f>
@@ -4789,21 +4790,21 @@
     </row>
     <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="93" t="str">
-        <f>RIGHT(D116:D249,4)</f>
-        <v>5679</v>
+        <f>RIGHT(D116:D250,4)</f>
+        <v>6221</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C116" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D116" s="28">
-        <v>1001190765679</v>
+        <v>1001205376221</v>
       </c>
       <c r="E116" s="24"/>
       <c r="F116" s="23">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="G116" s="23">
         <f>F116*E116</f>
@@ -4815,80 +4816,80 @@
     </row>
     <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="93" t="str">
-        <f>RIGHT(D117:D251,4)</f>
-        <v>4993</v>
+        <f>RIGHT(D117:D250,4)</f>
+        <v>5679</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C117" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D117" s="28">
-        <v>1001060764993</v>
+        <v>1001190765679</v>
       </c>
       <c r="E117" s="24"/>
       <c r="F117" s="23">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G117" s="23">
-        <f>E117*0.25</f>
+        <f>F117*E117</f>
         <v>0</v>
       </c>
-      <c r="H117" s="14">
-        <v>2</v>
-      </c>
-      <c r="I117" s="14">
-        <v>120</v>
-      </c>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
       <c r="J117" s="39"/>
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="93" t="str">
-        <f>RIGHT(D118:D252,4)</f>
-        <v>7105</v>
+        <f t="shared" ref="A118:A125" si="1">RIGHT(D118:D252,4)</f>
+        <v>4993</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C118" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D118" s="28">
-        <v>1001203207105</v>
+        <v>1001060764993</v>
       </c>
       <c r="E118" s="24"/>
       <c r="F118" s="23">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="G118" s="23">
-        <f t="shared" ref="G118:G125" si="0">F118*E118</f>
+        <f>E118*0.25</f>
         <v>0</v>
       </c>
-      <c r="H118" s="14"/>
-      <c r="I118" s="14"/>
+      <c r="H118" s="14">
+        <v>2</v>
+      </c>
+      <c r="I118" s="14">
+        <v>120</v>
+      </c>
       <c r="J118" s="39"/>
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="93" t="str">
-        <f>RIGHT(D119:D253,4)</f>
-        <v>7106</v>
+        <f t="shared" si="1"/>
+        <v>7105</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C119" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D119" s="28">
-        <v>1001205447106</v>
+        <v>1001203207105</v>
       </c>
       <c r="E119" s="24"/>
       <c r="F119" s="23">
         <v>0.09</v>
       </c>
       <c r="G119" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G119:G126" si="2">F119*E119</f>
         <v>0</v>
       </c>
       <c r="H119" s="14"/>
@@ -4897,24 +4898,24 @@
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="93" t="str">
-        <f>RIGHT(D120:D254,4)</f>
-        <v>7107</v>
+        <f t="shared" si="1"/>
+        <v>7106</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C120" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D120" s="28">
-        <v>1001205467107</v>
+        <v>1001205447106</v>
       </c>
       <c r="E120" s="24"/>
       <c r="F120" s="23">
         <v>0.09</v>
       </c>
       <c r="G120" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H120" s="14"/>
@@ -4923,24 +4924,24 @@
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="93" t="str">
-        <f>RIGHT(D121:D255,4)</f>
-        <v>7147</v>
+        <f t="shared" si="1"/>
+        <v>7107</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C121" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D121" s="28">
-        <v>1001063237147</v>
+        <v>1001205467107</v>
       </c>
       <c r="E121" s="24"/>
       <c r="F121" s="23">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="G121" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H121" s="14"/>
@@ -4949,24 +4950,24 @@
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="93" t="str">
-        <f>RIGHT(D122:D256,4)</f>
-        <v>7225</v>
+        <f t="shared" si="1"/>
+        <v>7147</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C122" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D122" s="28">
-        <v>1001066537225</v>
+        <v>1001063237147</v>
       </c>
       <c r="E122" s="24"/>
       <c r="F122" s="23">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="G122" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H122" s="14"/>
@@ -4975,24 +4976,24 @@
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="93" t="str">
-        <f>RIGHT(D123:D257,4)</f>
-        <v>7227</v>
+        <f t="shared" si="1"/>
+        <v>7225</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C123" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D123" s="28">
-        <v>1001063097227</v>
+        <v>1001066537225</v>
       </c>
       <c r="E123" s="24"/>
       <c r="F123" s="23">
         <v>0.18</v>
       </c>
       <c r="G123" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H123" s="14"/>
@@ -5001,24 +5002,24 @@
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="93" t="str">
-        <f>RIGHT(D124:D258,4)</f>
-        <v>7226</v>
+        <f t="shared" si="1"/>
+        <v>7227</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>246</v>
+        <v>136</v>
       </c>
       <c r="C124" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D124" s="28">
-        <v>1001066527226</v>
+        <v>1001063097227</v>
       </c>
       <c r="E124" s="24"/>
       <c r="F124" s="23">
         <v>0.18</v>
       </c>
       <c r="G124" s="23">
-        <f t="shared" ref="G124" si="1">F124*E124</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H124" s="14"/>
@@ -5027,24 +5028,24 @@
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="93" t="str">
-        <f>RIGHT(D125:D252,4)</f>
-        <v>3684</v>
+        <f t="shared" si="1"/>
+        <v>7226</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="C125" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D125" s="28">
-        <v>1001062353684</v>
+        <v>1001066527226</v>
       </c>
       <c r="E125" s="24"/>
       <c r="F125" s="23">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="G125" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G125" si="3">F125*E125</f>
         <v>0</v>
       </c>
       <c r="H125" s="14"/>
@@ -5053,209 +5054,209 @@
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="93" t="str">
-        <f>RIGHT(D126:D252,4)</f>
-        <v>5682</v>
+        <f>RIGHT(D126:D253,4)</f>
+        <v>3684</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C126" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D126" s="28">
-        <v>1001193115682</v>
+        <v>1001062353684</v>
       </c>
       <c r="E126" s="24"/>
       <c r="F126" s="23">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G126" s="23">
-        <f>E126*0.12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H126" s="14">
-        <v>0.96</v>
-      </c>
-      <c r="I126" s="14">
-        <v>60</v>
-      </c>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
       <c r="J126" s="39"/>
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="93" t="str">
-        <f>RIGHT(D127:D255,4)</f>
-        <v>4117</v>
+        <f>RIGHT(D127:D253,4)</f>
+        <v>5682</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="C127" s="30" t="s">
-        <v>23</v>
+        <v>138</v>
+      </c>
+      <c r="C127" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D127" s="28">
-        <v>1001062504117</v>
+        <v>1001193115682</v>
       </c>
       <c r="E127" s="24"/>
       <c r="F127" s="23">
-        <v>0.48749999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="G127" s="23">
-        <f>E127*1</f>
+        <f>E127*0.12</f>
         <v>0</v>
       </c>
       <c r="H127" s="14">
-        <v>3.9</v>
+        <v>0.96</v>
       </c>
       <c r="I127" s="14">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J127" s="39"/>
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="93" t="str">
         <f>RIGHT(D128:D256,4)</f>
-        <v>3680</v>
+        <v>4117</v>
       </c>
       <c r="B128" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C128" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D128" s="28">
-        <v>1001062353680</v>
+        <v>1001062504117</v>
       </c>
       <c r="E128" s="24"/>
-      <c r="F128" s="23"/>
+      <c r="F128" s="23">
+        <v>0.48749999999999999</v>
+      </c>
       <c r="G128" s="23">
-        <f>E128</f>
+        <f>E128*1</f>
         <v>0</v>
       </c>
-      <c r="H128" s="14"/>
-      <c r="I128" s="14"/>
+      <c r="H128" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="I128" s="14">
+        <v>120</v>
+      </c>
       <c r="J128" s="39"/>
     </row>
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="93" t="str">
-        <f>RIGHT(D129:D256,4)</f>
-        <v>5483</v>
+        <f>RIGHT(D129:D257,4)</f>
+        <v>3680</v>
       </c>
       <c r="B129" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="C129" s="33" t="s">
-        <v>26</v>
+        <v>140</v>
+      </c>
+      <c r="C129" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D129" s="28">
-        <v>1001062505483</v>
+        <v>1001062353680</v>
       </c>
       <c r="E129" s="24"/>
-      <c r="F129" s="23">
-        <v>0.25</v>
-      </c>
+      <c r="F129" s="23"/>
       <c r="G129" s="23">
-        <f>E129*0.25</f>
+        <f>E129</f>
         <v>0</v>
       </c>
-      <c r="H129" s="14">
-        <v>2</v>
-      </c>
-      <c r="I129" s="14">
-        <v>120</v>
-      </c>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
       <c r="J129" s="39"/>
     </row>
-    <row r="130" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="93" t="str">
         <f>RIGHT(D130:D257,4)</f>
-        <v>6453</v>
+        <v>5483</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C130" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D130" s="28">
-        <v>1001202506453</v>
+        <v>1001062505483</v>
       </c>
       <c r="E130" s="24"/>
       <c r="F130" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G130" s="23">
-        <f>E130*0.1</f>
+        <f>E130*0.25</f>
         <v>0</v>
       </c>
       <c r="H130" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I130" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J130" s="39"/>
     </row>
-    <row r="131" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="93" t="str">
         <f>RIGHT(D131:D258,4)</f>
+        <v>6453</v>
+      </c>
+      <c r="B131" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="C131" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131" s="28">
+        <v>1001202506453</v>
+      </c>
+      <c r="E131" s="24"/>
+      <c r="F131" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G131" s="23">
+        <f>E131*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="H131" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I131" s="14">
+        <v>60</v>
+      </c>
+      <c r="J131" s="39"/>
+    </row>
+    <row r="132" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="93" t="str">
+        <f>RIGHT(D132:D259,4)</f>
         <v/>
       </c>
-      <c r="B131" s="74" t="s">
+      <c r="B132" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="C131" s="74"/>
-      <c r="D131" s="74"/>
-      <c r="E131" s="74"/>
-      <c r="F131" s="73"/>
-      <c r="G131" s="74"/>
-      <c r="H131" s="74"/>
-      <c r="I131" s="74"/>
-      <c r="J131" s="75"/>
-    </row>
-    <row r="132" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="93" t="str">
-        <f>RIGHT(D132:D262,4)</f>
-        <v>6470</v>
-      </c>
-      <c r="B132" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C132" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D132" s="80">
-        <v>1001092436470</v>
-      </c>
-      <c r="E132" s="24"/>
-      <c r="F132" s="23"/>
-      <c r="G132" s="23">
-        <f>E132*1</f>
-        <v>0</v>
-      </c>
-      <c r="H132" s="14"/>
-      <c r="I132" s="14"/>
-      <c r="J132" s="39"/>
-    </row>
-    <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C132" s="74"/>
+      <c r="D132" s="74"/>
+      <c r="E132" s="74"/>
+      <c r="F132" s="73"/>
+      <c r="G132" s="74"/>
+      <c r="H132" s="74"/>
+      <c r="I132" s="74"/>
+      <c r="J132" s="75"/>
+    </row>
+    <row r="133" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A133" s="93" t="str">
         <f>RIGHT(D133:D263,4)</f>
-        <v>6495</v>
+        <v>6470</v>
       </c>
       <c r="B133" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D133" s="80">
-        <v>1001092436495</v>
+        <v>1001092436470</v>
       </c>
       <c r="E133" s="24"/>
-      <c r="F133" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F133" s="23"/>
       <c r="G133" s="23">
-        <f>F133*E133</f>
+        <f>E133*1</f>
         <v>0</v>
       </c>
       <c r="H133" s="14"/>
@@ -5265,20 +5266,20 @@
     <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="93" t="str">
         <f>RIGHT(D134:D264,4)</f>
-        <v>7235</v>
+        <v>6495</v>
       </c>
       <c r="B134" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C134" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D134" s="80">
-        <v>1001095227235</v>
+        <v>1001092436495</v>
       </c>
       <c r="E134" s="24"/>
       <c r="F134" s="23">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="G134" s="23">
         <f>F134*E134</f>
@@ -5291,20 +5292,20 @@
     <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="93" t="str">
         <f>RIGHT(D135:D265,4)</f>
-        <v>6411</v>
+        <v>7235</v>
       </c>
       <c r="B135" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C135" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D135" s="80">
-        <v>1001093316411</v>
+        <v>1001095227235</v>
       </c>
       <c r="E135" s="24"/>
       <c r="F135" s="23">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="G135" s="23">
         <f>F135*E135</f>
@@ -5316,22 +5317,24 @@
     </row>
     <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="93" t="str">
-        <f>RIGHT(D136:D263,4)</f>
-        <v>6866</v>
+        <f>RIGHT(D136:D266,4)</f>
+        <v>6411</v>
       </c>
       <c r="B136" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D136" s="80">
-        <v>1001095716866</v>
+        <v>1001093316411</v>
       </c>
       <c r="E136" s="24"/>
-      <c r="F136" s="23"/>
+      <c r="F136" s="23">
+        <v>0.3</v>
+      </c>
       <c r="G136" s="23">
-        <f>E136*1</f>
+        <f>F136*E136</f>
         <v>0</v>
       </c>
       <c r="H136" s="14"/>
@@ -5340,47 +5343,41 @@
     </row>
     <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="93" t="str">
-        <f>RIGHT(D137:D260,4)</f>
-        <v>3215</v>
-      </c>
-      <c r="B137" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C137" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D137" s="51">
-        <v>1001094053215</v>
+        <f>RIGHT(D137:D264,4)</f>
+        <v>6866</v>
+      </c>
+      <c r="B137" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C137" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D137" s="80">
+        <v>1001095716866</v>
       </c>
       <c r="E137" s="24"/>
-      <c r="F137" s="23">
-        <v>0.4</v>
-      </c>
+      <c r="F137" s="23"/>
       <c r="G137" s="23">
-        <f>E137*0.4</f>
+        <f>E137*1</f>
         <v>0</v>
       </c>
-      <c r="H137" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I137" s="14">
-        <v>60</v>
-      </c>
+      <c r="H137" s="14"/>
+      <c r="I137" s="14"/>
       <c r="J137" s="39"/>
     </row>
-    <row r="138" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="93" t="str">
         <f>RIGHT(D138:D261,4)</f>
-        <v>7245</v>
+        <v>3215</v>
       </c>
       <c r="B138" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C138" s="37" t="s">
         <v>26</v>
       </c>
       <c r="D138" s="51">
-        <v>1001092687245</v>
+        <v>1001094053215</v>
       </c>
       <c r="E138" s="24"/>
       <c r="F138" s="23">
@@ -5390,101 +5387,105 @@
         <f>E138*0.4</f>
         <v>0</v>
       </c>
-      <c r="H138" s="14"/>
-      <c r="I138" s="14"/>
+      <c r="H138" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I138" s="14">
+        <v>60</v>
+      </c>
       <c r="J138" s="39"/>
     </row>
-    <row r="139" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="93" t="str">
-        <f>RIGHT(D139:D263,4)</f>
+        <f>RIGHT(D139:D262,4)</f>
+        <v>7245</v>
+      </c>
+      <c r="B139" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C139" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139" s="51">
+        <v>1001092687245</v>
+      </c>
+      <c r="E139" s="24"/>
+      <c r="F139" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="G139" s="23">
+        <f>E139*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
+      <c r="J139" s="39"/>
+    </row>
+    <row r="140" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="93" t="str">
+        <f>RIGHT(D140:D264,4)</f>
         <v/>
       </c>
-      <c r="B139" s="74" t="s">
+      <c r="B140" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="C139" s="74"/>
-      <c r="D139" s="74"/>
-      <c r="E139" s="74"/>
-      <c r="F139" s="73"/>
-      <c r="G139" s="74"/>
-      <c r="H139" s="74"/>
-      <c r="I139" s="74"/>
-      <c r="J139" s="75"/>
-    </row>
-    <row r="140" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="93" t="str">
-        <f>RIGHT(D140:D266,4)</f>
-        <v>7090</v>
-      </c>
-      <c r="B140" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="C140" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D140" s="28">
-        <v>1001084217090</v>
-      </c>
-      <c r="E140" s="24"/>
-      <c r="F140" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G140" s="23">
-        <f>E140*F140</f>
-        <v>0</v>
-      </c>
-      <c r="H140" s="14"/>
-      <c r="I140" s="14">
-        <v>50</v>
-      </c>
-      <c r="J140" s="39"/>
-    </row>
-    <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C140" s="74"/>
+      <c r="D140" s="74"/>
+      <c r="E140" s="74"/>
+      <c r="F140" s="73"/>
+      <c r="G140" s="74"/>
+      <c r="H140" s="74"/>
+      <c r="I140" s="74"/>
+      <c r="J140" s="75"/>
+    </row>
+    <row r="141" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A141" s="93" t="str">
         <f>RIGHT(D141:D267,4)</f>
-        <v>4691</v>
+        <v>7090</v>
       </c>
       <c r="B141" s="47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C141" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D141" s="28">
-        <v>1001083424691</v>
+        <v>1001084217090</v>
       </c>
       <c r="E141" s="24"/>
       <c r="F141" s="23">
         <v>0.3</v>
       </c>
       <c r="G141" s="23">
-        <f t="shared" ref="G141:G147" si="2">F141*E141</f>
+        <f>E141*F141</f>
         <v>0</v>
       </c>
       <c r="H141" s="14"/>
-      <c r="I141" s="14"/>
-      <c r="J141" s="92"/>
+      <c r="I141" s="14">
+        <v>50</v>
+      </c>
+      <c r="J141" s="39"/>
     </row>
     <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="93" t="str">
         <f>RIGHT(D142:D268,4)</f>
-        <v>7187</v>
+        <v>4691</v>
       </c>
       <c r="B142" s="47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C142" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D142" s="28">
-        <v>1001085637187</v>
+        <v>1001083424691</v>
       </c>
       <c r="E142" s="24"/>
       <c r="F142" s="23">
         <v>0.3</v>
       </c>
       <c r="G142" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G142:G148" si="4">F142*E142</f>
         <v>0</v>
       </c>
       <c r="H142" s="14"/>
@@ -5494,23 +5495,23 @@
     <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="93" t="str">
         <f>RIGHT(D143:D269,4)</f>
-        <v>6201</v>
+        <v>7187</v>
       </c>
       <c r="B143" s="47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C143" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D143" s="28">
-        <v>1001225636201</v>
+        <v>1001085637187</v>
       </c>
       <c r="E143" s="24"/>
       <c r="F143" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G143" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H143" s="14"/>
@@ -5519,24 +5520,24 @@
     </row>
     <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="93" t="str">
-        <f>RIGHT(D144:D269,4)</f>
-        <v>6842</v>
+        <f>RIGHT(D144:D270,4)</f>
+        <v>6201</v>
       </c>
       <c r="B144" s="47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C144" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D144" s="28">
-        <v>1001080216842</v>
+        <v>1001225636201</v>
       </c>
       <c r="E144" s="24"/>
       <c r="F144" s="23">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="G144" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H144" s="14"/>
@@ -5545,24 +5546,24 @@
     </row>
     <row r="145" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="93" t="str">
-        <f>RIGHT(D145:D269,4)</f>
-        <v>6492</v>
+        <f>RIGHT(D145:D270,4)</f>
+        <v>6842</v>
       </c>
       <c r="B145" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C145" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D145" s="28">
-        <v>1001084226492</v>
+        <v>1001080216842</v>
       </c>
       <c r="E145" s="24"/>
       <c r="F145" s="23">
         <v>0.3</v>
       </c>
       <c r="G145" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H145" s="14"/>
@@ -5571,24 +5572,24 @@
     </row>
     <row r="146" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="93" t="str">
-        <f>RIGHT(D146:D267,4)</f>
-        <v>6279</v>
+        <f>RIGHT(D146:D270,4)</f>
+        <v>6492</v>
       </c>
       <c r="B146" s="47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C146" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D146" s="28">
-        <v>1001220286279</v>
+        <v>1001084226492</v>
       </c>
       <c r="E146" s="24"/>
       <c r="F146" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G146" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H146" s="14"/>
@@ -5598,23 +5599,23 @@
     <row r="147" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="93" t="str">
         <f>RIGHT(D147:D268,4)</f>
-        <v>4786</v>
+        <v>6279</v>
       </c>
       <c r="B147" s="47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C147" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D147" s="28">
-        <v>1001053944786</v>
+        <v>1001220286279</v>
       </c>
       <c r="E147" s="24"/>
       <c r="F147" s="23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="G147" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H147" s="14"/>
@@ -5624,23 +5625,23 @@
     <row r="148" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="93" t="str">
         <f>RIGHT(D148:D269,4)</f>
-        <v>7052</v>
+        <v>4786</v>
       </c>
       <c r="B148" s="47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D148" s="28">
-        <v>1001204447052</v>
+        <v>1001053944786</v>
       </c>
       <c r="E148" s="24"/>
       <c r="F148" s="23">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G148" s="23">
-        <f>E148</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H148" s="14"/>
@@ -5649,17 +5650,17 @@
     </row>
     <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="93" t="str">
-        <f>RIGHT(D149:D269,4)</f>
-        <v>7053</v>
+        <f>RIGHT(D149:D270,4)</f>
+        <v>7052</v>
       </c>
       <c r="B149" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C149" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D149" s="28">
-        <v>1001223297053</v>
+        <v>1001204447052</v>
       </c>
       <c r="E149" s="24"/>
       <c r="F149" s="23">
@@ -5675,47 +5676,47 @@
     </row>
     <row r="150" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="93" t="str">
-        <f>RIGHT(D150:D269,4)</f>
-        <v>7092</v>
-      </c>
-      <c r="B150" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C150" s="33" t="s">
-        <v>26</v>
+        <f>RIGHT(D150:D270,4)</f>
+        <v>7053</v>
+      </c>
+      <c r="B150" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="C150" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D150" s="28">
-        <v>1001223297092</v>
+        <v>1001223297053</v>
       </c>
       <c r="E150" s="24"/>
       <c r="F150" s="23">
-        <v>0.14000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G150" s="23">
-        <f>F150*E150</f>
+        <f>E150</f>
         <v>0</v>
       </c>
       <c r="H150" s="14"/>
       <c r="I150" s="14"/>
-      <c r="J150" s="39"/>
+      <c r="J150" s="92"/>
     </row>
     <row r="151" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="93" t="str">
         <f>RIGHT(D151:D270,4)</f>
-        <v>7103</v>
+        <v>7092</v>
       </c>
       <c r="B151" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C151" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D151" s="28">
-        <v>1001223297103</v>
+        <v>1001223297092</v>
       </c>
       <c r="E151" s="24"/>
       <c r="F151" s="23">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G151" s="23">
         <f>F151*E151</f>
@@ -5723,56 +5724,65 @@
       </c>
       <c r="H151" s="14"/>
       <c r="I151" s="14"/>
-      <c r="J151" s="92"/>
-    </row>
-    <row r="152" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J151" s="39"/>
+    </row>
+    <row r="152" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="93" t="str">
-        <f>RIGHT(D152:D267,4)</f>
-        <v>6919</v>
-      </c>
-      <c r="B152" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="C152" s="35" t="s">
+        <f>RIGHT(D152:D271,4)</f>
+        <v>7103</v>
+      </c>
+      <c r="B152" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C152" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D152" s="28">
-        <v>1001223296919</v>
+        <v>1001223297103</v>
       </c>
       <c r="E152" s="24"/>
-      <c r="F152" s="23"/>
+      <c r="F152" s="23">
+        <v>0.18</v>
+      </c>
       <c r="G152" s="23">
-        <f>E152*0.18</f>
+        <f>F152*E152</f>
         <v>0</v>
       </c>
       <c r="H152" s="14"/>
       <c r="I152" s="14"/>
       <c r="J152" s="92"/>
     </row>
-    <row r="153" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="93" t="str">
         <f>RIGHT(D153:D268,4)</f>
-        <v/>
-      </c>
-      <c r="B153" s="74" t="s">
-        <v>165</v>
-      </c>
-      <c r="C153" s="74"/>
-      <c r="D153" s="74"/>
-      <c r="E153" s="74"/>
-      <c r="F153" s="73"/>
-      <c r="G153" s="74"/>
-      <c r="H153" s="74"/>
-      <c r="I153" s="74"/>
-      <c r="J153" s="75"/>
+        <v>6919</v>
+      </c>
+      <c r="B153" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="C153" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D153" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E153" s="24"/>
+      <c r="F153" s="23"/>
+      <c r="G153" s="23">
+        <f>E153*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H153" s="14"/>
+      <c r="I153" s="14"/>
+      <c r="J153" s="92"/>
     </row>
     <row r="154" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="93" t="str">
-        <f>RIGHT(D154:D271,4)</f>
+        <f>RIGHT(D154:D269,4)</f>
         <v/>
       </c>
       <c r="B154" s="74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C154" s="74"/>
       <c r="D154" s="74"/>
@@ -5783,73 +5793,66 @@
       <c r="I154" s="74"/>
       <c r="J154" s="75"/>
     </row>
-    <row r="155" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="93" t="str">
         <f>RIGHT(D155:D272,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B155" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="C155" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D155" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E155" s="24"/>
-      <c r="F155" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G155" s="23">
-        <f>E155*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H155" s="14">
-        <v>8</v>
-      </c>
-      <c r="I155" s="72">
-        <v>120</v>
-      </c>
-      <c r="J155" s="39"/>
-    </row>
-    <row r="156" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B155" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="C155" s="74"/>
+      <c r="D155" s="74"/>
+      <c r="E155" s="74"/>
+      <c r="F155" s="73"/>
+      <c r="G155" s="74"/>
+      <c r="H155" s="74"/>
+      <c r="I155" s="74"/>
+      <c r="J155" s="75"/>
+    </row>
+    <row r="156" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A156" s="93" t="str">
         <f>RIGHT(D156:D273,4)</f>
-        <v>6155</v>
+        <v>6314</v>
       </c>
       <c r="B156" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C156" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D156" s="28">
-        <v>1002115036155</v>
+        <v>1002112606314</v>
       </c>
       <c r="E156" s="24"/>
-      <c r="F156" s="23"/>
+      <c r="F156" s="23">
+        <v>0.5</v>
+      </c>
       <c r="G156" s="23">
-        <f>E156*0.45</f>
+        <f>E156*0.5</f>
         <v>0</v>
       </c>
-      <c r="H156" s="14"/>
-      <c r="I156" s="72"/>
+      <c r="H156" s="14">
+        <v>8</v>
+      </c>
+      <c r="I156" s="72">
+        <v>120</v>
+      </c>
       <c r="J156" s="39"/>
     </row>
     <row r="157" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="93" t="str">
         <f>RIGHT(D157:D274,4)</f>
-        <v>6157</v>
+        <v>6155</v>
       </c>
       <c r="B157" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C157" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D157" s="28">
-        <v>1002115056157</v>
+        <v>1002115036155</v>
       </c>
       <c r="E157" s="24"/>
       <c r="F157" s="23"/>
@@ -5861,174 +5864,168 @@
       <c r="I157" s="72"/>
       <c r="J157" s="39"/>
     </row>
-    <row r="158" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="93" t="str">
-        <f t="shared" ref="A158:A169" si="3">RIGHT(D158:D273,4)</f>
+        <f>RIGHT(D158:D275,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B158" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C158" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D158" s="28">
+        <v>1002115056157</v>
+      </c>
+      <c r="E158" s="24"/>
+      <c r="F158" s="23"/>
+      <c r="G158" s="23">
+        <f>E158*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H158" s="14"/>
+      <c r="I158" s="72"/>
+      <c r="J158" s="39"/>
+    </row>
+    <row r="159" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="93" t="str">
+        <f t="shared" ref="A159:A170" si="5">RIGHT(D159:D274,4)</f>
         <v>6313</v>
       </c>
-      <c r="B158" s="47" t="s">
+      <c r="B159" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="C158" s="36" t="s">
+      <c r="C159" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D158" s="28">
+      <c r="D159" s="28">
         <v>1002112606313</v>
       </c>
-      <c r="E158" s="24"/>
-      <c r="F158" s="23">
+      <c r="E159" s="24"/>
+      <c r="F159" s="23">
         <v>0.9</v>
       </c>
-      <c r="G158" s="23">
-        <f>E158*0.9</f>
+      <c r="G159" s="23">
+        <f>E159*0.9</f>
         <v>0</v>
       </c>
-      <c r="H158" s="14">
+      <c r="H159" s="14">
         <v>9</v>
       </c>
-      <c r="I158" s="72">
+      <c r="I159" s="72">
         <v>120</v>
       </c>
-      <c r="J158" s="39"/>
-    </row>
-    <row r="159" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B159" s="74" t="s">
-        <v>171</v>
-      </c>
-      <c r="C159" s="74"/>
-      <c r="D159" s="74"/>
-      <c r="E159" s="74"/>
-      <c r="F159" s="73"/>
-      <c r="G159" s="74"/>
-      <c r="H159" s="74"/>
-      <c r="I159" s="74"/>
-      <c r="J159" s="75"/>
+      <c r="J159" s="39"/>
     </row>
     <row r="160" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>4945</v>
-      </c>
-      <c r="B160" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="C160" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D160" s="28">
-        <v>1002151784945</v>
-      </c>
-      <c r="E160" s="24"/>
-      <c r="F160" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G160" s="23">
-        <f>E160*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H160" s="14">
-        <v>8</v>
-      </c>
-      <c r="I160" s="72">
-        <v>120</v>
-      </c>
-      <c r="J160" s="39"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="B160" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="C160" s="74"/>
+      <c r="D160" s="74"/>
+      <c r="E160" s="74"/>
+      <c r="F160" s="73"/>
+      <c r="G160" s="74"/>
+      <c r="H160" s="74"/>
+      <c r="I160" s="74"/>
+      <c r="J160" s="75"/>
     </row>
     <row r="161" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
+        <v>4945</v>
+      </c>
+      <c r="B161" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="C161" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D161" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E161" s="24"/>
+      <c r="F161" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G161" s="23">
+        <f>E161*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H161" s="14">
+        <v>8</v>
+      </c>
+      <c r="I161" s="72">
+        <v>120</v>
+      </c>
+      <c r="J161" s="39"/>
+    </row>
+    <row r="162" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="93" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="B161" s="74" t="s">
+      <c r="B162" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="C161" s="74"/>
-      <c r="D161" s="74"/>
-      <c r="E161" s="74"/>
-      <c r="F161" s="73"/>
-      <c r="G161" s="74"/>
-      <c r="H161" s="74"/>
-      <c r="I161" s="74"/>
-      <c r="J161" s="75"/>
-    </row>
-    <row r="162" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="93" t="str">
-        <f t="shared" si="3"/>
+      <c r="C162" s="74"/>
+      <c r="D162" s="74"/>
+      <c r="E162" s="74"/>
+      <c r="F162" s="73"/>
+      <c r="G162" s="74"/>
+      <c r="H162" s="74"/>
+      <c r="I162" s="74"/>
+      <c r="J162" s="75"/>
+    </row>
+    <row r="163" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="93" t="str">
+        <f t="shared" si="5"/>
         <v>4956</v>
       </c>
-      <c r="B162" s="89" t="s">
+      <c r="B163" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="C162" s="90" t="s">
+      <c r="C163" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D162" s="83">
+      <c r="D163" s="83">
         <v>1002133974956</v>
       </c>
-      <c r="E162" s="84"/>
-      <c r="F162" s="85">
+      <c r="E163" s="84"/>
+      <c r="F163" s="85">
         <v>0.42</v>
       </c>
-      <c r="G162" s="85">
-        <f>E162*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H162" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="I162" s="91">
-        <v>120</v>
-      </c>
-      <c r="J162" s="86"/>
-      <c r="K162" s="87"/>
-    </row>
-    <row r="163" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>1762</v>
-      </c>
-      <c r="B163" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="C163" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D163" s="28">
-        <v>1002131151762</v>
-      </c>
-      <c r="E163" s="24"/>
-      <c r="F163" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G163" s="23">
+      <c r="G163" s="85">
         <f>E163*0.42</f>
         <v>0</v>
       </c>
-      <c r="H163" s="14">
+      <c r="H163" s="86">
         <v>4.2</v>
       </c>
-      <c r="I163" s="72">
+      <c r="I163" s="91">
         <v>120</v>
       </c>
-      <c r="J163" s="39"/>
-    </row>
-    <row r="164" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J163" s="86"/>
+      <c r="K163" s="87"/>
+    </row>
+    <row r="164" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A164" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>1764</v>
+        <f t="shared" si="5"/>
+        <v>1762</v>
       </c>
       <c r="B164" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="C164" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C164" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D164" s="28">
-        <v>1002131181764</v>
+        <v>1002131151762</v>
       </c>
       <c r="E164" s="24"/>
       <c r="F164" s="23">
@@ -6046,30 +6043,43 @@
       </c>
       <c r="J164" s="39"/>
     </row>
-    <row r="165" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B165" s="74" t="s">
-        <v>177</v>
-      </c>
-      <c r="C165" s="74"/>
-      <c r="D165" s="74"/>
-      <c r="E165" s="74"/>
-      <c r="F165" s="73"/>
-      <c r="G165" s="74"/>
-      <c r="H165" s="74"/>
-      <c r="I165" s="74"/>
-      <c r="J165" s="75"/>
+        <f t="shared" si="5"/>
+        <v>1764</v>
+      </c>
+      <c r="B165" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C165" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D165" s="28">
+        <v>1002131181764</v>
+      </c>
+      <c r="E165" s="24"/>
+      <c r="F165" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G165" s="23">
+        <f>E165*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H165" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I165" s="72">
+        <v>120</v>
+      </c>
+      <c r="J165" s="39"/>
     </row>
     <row r="166" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B166" s="74" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C166" s="74"/>
       <c r="D166" s="74"/>
@@ -6082,131 +6092,138 @@
     </row>
     <row r="167" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="B167" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="C167" s="74"/>
+      <c r="D167" s="74"/>
+      <c r="E167" s="74"/>
+      <c r="F167" s="73"/>
+      <c r="G167" s="74"/>
+      <c r="H167" s="74"/>
+      <c r="I167" s="74"/>
+      <c r="J167" s="75"/>
+    </row>
+    <row r="168" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="93" t="str">
+        <f t="shared" si="5"/>
         <v>6004</v>
       </c>
-      <c r="B167" s="47" t="s">
+      <c r="B168" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="C167" s="36" t="s">
+      <c r="C168" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D167" s="68" t="s">
+      <c r="D168" s="68" t="s">
         <v>180</v>
-      </c>
-      <c r="E167" s="24"/>
-      <c r="F167" s="23">
-        <v>1</v>
-      </c>
-      <c r="G167" s="23">
-        <f>E167*1</f>
-        <v>0</v>
-      </c>
-      <c r="H167" s="14">
-        <v>8</v>
-      </c>
-      <c r="I167" s="72">
-        <v>120</v>
-      </c>
-      <c r="J167" s="39"/>
-    </row>
-    <row r="168" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>5417</v>
-      </c>
-      <c r="B168" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="C168" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D168" s="68" t="s">
-        <v>182</v>
       </c>
       <c r="E168" s="24"/>
       <c r="F168" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G168" s="23">
         <f>E168*1</f>
         <v>0</v>
       </c>
       <c r="H168" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I168" s="72">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="J168" s="39"/>
     </row>
-    <row r="169" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A169" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>6019</v>
+        <f t="shared" si="5"/>
+        <v>5417</v>
       </c>
       <c r="B169" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="C169" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D169" s="69" t="s">
-        <v>184</v>
+        <v>181</v>
+      </c>
+      <c r="C169" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D169" s="68" t="s">
+        <v>182</v>
       </c>
       <c r="E169" s="24"/>
       <c r="F169" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G169" s="23">
         <f>E169*1</f>
         <v>0</v>
       </c>
       <c r="H169" s="14">
+        <v>6</v>
+      </c>
+      <c r="I169" s="72">
+        <v>90</v>
+      </c>
+      <c r="J169" s="39"/>
+    </row>
+    <row r="170" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="93" t="str">
+        <f t="shared" si="5"/>
+        <v>6019</v>
+      </c>
+      <c r="B170" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C170" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D170" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="E170" s="24"/>
+      <c r="F170" s="23">
+        <v>1</v>
+      </c>
+      <c r="G170" s="23">
+        <f>E170*1</f>
+        <v>0</v>
+      </c>
+      <c r="H170" s="14">
         <v>12</v>
       </c>
-      <c r="I169" s="72">
+      <c r="I170" s="72">
         <v>120</v>
       </c>
-      <c r="J169" s="39"/>
-    </row>
-    <row r="170" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="77"/>
-      <c r="B170" s="77" t="s">
+      <c r="J170" s="39"/>
+    </row>
+    <row r="171" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="77"/>
+      <c r="B171" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="C170" s="16"/>
-      <c r="D170" s="48"/>
-      <c r="E170" s="17">
-        <f>SUM(E5:E169)</f>
+      <c r="C171" s="16"/>
+      <c r="D171" s="48"/>
+      <c r="E171" s="17">
+        <f>SUM(E5:E170)</f>
         <v>0</v>
       </c>
-      <c r="F170" s="17">
-        <f>SUM(F10:F169)</f>
+      <c r="F171" s="17">
+        <f>SUM(F10:F170)</f>
         <v>44.613333333333316</v>
       </c>
-      <c r="G170" s="17">
-        <f>SUM(G11:G169)</f>
+      <c r="G171" s="17">
+        <f>SUM(G11:G170)</f>
         <v>0</v>
       </c>
-      <c r="H170" s="17">
-        <f>SUM(H10:H166)</f>
+      <c r="H171" s="17">
+        <f>SUM(H10:H167)</f>
         <v>128.91</v>
       </c>
-      <c r="I170" s="17"/>
-      <c r="J170" s="17"/>
-    </row>
-    <row r="171" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="53"/>
-      <c r="C171" s="18"/>
-      <c r="D171" s="52"/>
-      <c r="F171" s="19"/>
-      <c r="G171" s="19"/>
-      <c r="H171" s="20"/>
-      <c r="I171" s="20"/>
-      <c r="J171" s="21"/>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I171" s="17"/>
+      <c r="J171" s="17"/>
+    </row>
+    <row r="172" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B172" s="53"/>
       <c r="C172" s="18"/>
       <c r="D172" s="52"/>
@@ -21436,17 +21453,27 @@
       <c r="I1694" s="20"/>
       <c r="J1694" s="21"/>
     </row>
+    <row r="1695" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1695" s="53"/>
+      <c r="C1695" s="18"/>
+      <c r="D1695" s="52"/>
+      <c r="F1695" s="19"/>
+      <c r="G1695" s="19"/>
+      <c r="H1695" s="20"/>
+      <c r="I1695" s="20"/>
+      <c r="J1695" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J170" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J171" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B163" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B164" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D167:D169" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D168:D170" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 02,06,25ц-выезд 04,06.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 02,06,25ц-выезд 04,06.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\чистый бланк\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B56DB84-F285-4819-B4F7-6BA15DE6E29C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428076C9-65A7-4B20-98BB-2EF648276F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,22 +17,14 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$173</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="250">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -776,6 +768,12 @@
   </si>
   <si>
     <t>ФИЛЕЙНЫЕ Папа может сос ц/о мгс 0.72*4</t>
+  </si>
+  <si>
+    <t>САЛЬЧИЧОН Останкино с/к в/у 1/180</t>
+  </si>
+  <si>
+    <t>ТОМ ЯМ Папа Может сос п/о мгс 0.33кг 8шт</t>
   </si>
 </sst>
 </file>
@@ -1927,11 +1925,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L1695"/>
+  <dimension ref="A1:L1697"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J177" sqref="J177"/>
+      <selection pane="bottomLeft" activeCell="J178" sqref="J178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2076,7 +2074,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="93" t="str">
-        <f>RIGHT(D11:D170,4)</f>
+        <f>RIGHT(D11:D172,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -2107,7 +2105,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93" t="str">
-        <f>RIGHT(D12:D171,4)</f>
+        <f>RIGHT(D12:D173,4)</f>
         <v>4555</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -2132,7 +2130,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="93" t="str">
-        <f>RIGHT(D13:D171,4)</f>
+        <f>RIGHT(D13:D173,4)</f>
         <v>5992</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2156,7 +2154,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="93" t="str">
-        <f>RIGHT(D14:D172,4)</f>
+        <f>RIGHT(D14:D174,4)</f>
         <v>6268</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2180,7 +2178,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="93" t="str">
-        <f>RIGHT(D15:D173,4)</f>
+        <f>RIGHT(D15:D175,4)</f>
         <v>7126</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -2206,7 +2204,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="93" t="str">
-        <f>RIGHT(D16:D173,4)</f>
+        <f>RIGHT(D16:D175,4)</f>
         <v>6247</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2230,7 +2228,7 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="93" t="str">
-        <f>RIGHT(D17:D173,4)</f>
+        <f>RIGHT(D17:D175,4)</f>
         <v>6325</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2260,7 +2258,7 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="93" t="str">
-        <f>RIGHT(D18:D174,4)</f>
+        <f>RIGHT(D18:D176,4)</f>
         <v>6324</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2286,7 +2284,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="93" t="str">
-        <f>RIGHT(D19:D175,4)</f>
+        <f>RIGHT(D19:D177,4)</f>
         <v>6839</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2312,7 +2310,7 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="93" t="str">
-        <f>RIGHT(D20:D176,4)</f>
+        <f>RIGHT(D20:D178,4)</f>
         <v>7231</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -2336,7 +2334,7 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="93" t="str">
-        <f>RIGHT(D21:D177,4)</f>
+        <f>RIGHT(D21:D179,4)</f>
         <v>4063</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2366,7 +2364,7 @@
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="93" t="str">
-        <f>RIGHT(D22:D178,4)</f>
+        <f>RIGHT(D22:D180,4)</f>
         <v>6333</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -2396,7 +2394,7 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="93" t="str">
-        <f>RIGHT(D23:D179,4)</f>
+        <f>RIGHT(D23:D181,4)</f>
         <v>4574</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2426,7 +2424,7 @@
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="93" t="str">
-        <f>RIGHT(D24:D180,4)</f>
+        <f>RIGHT(D24:D182,4)</f>
         <v>6861</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -2456,7 +2454,7 @@
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="93" t="str">
-        <f>RIGHT(D25:D184,4)</f>
+        <f>RIGHT(D25:D186,4)</f>
         <v>6862</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -2480,7 +2478,7 @@
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="93" t="str">
-        <f>RIGHT(D26:D184,4)</f>
+        <f>RIGHT(D26:D186,4)</f>
         <v>6341</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -2504,7 +2502,7 @@
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="93" t="str">
-        <f>RIGHT(D27:D185,4)</f>
+        <f>RIGHT(D27:D187,4)</f>
         <v>5247</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -2534,7 +2532,7 @@
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="93" t="str">
-        <f>RIGHT(D28:D188,4)</f>
+        <f>RIGHT(D28:D190,4)</f>
         <v>4813</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -2564,7 +2562,7 @@
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="93" t="str">
-        <f>RIGHT(D29:D189,4)</f>
+        <f>RIGHT(D29:D191,4)</f>
         <v>6392</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -2594,7 +2592,7 @@
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="93" t="str">
-        <f>RIGHT(D30:D190,4)</f>
+        <f>RIGHT(D30:D192,4)</f>
         <v>6801</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -2620,7 +2618,7 @@
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="93" t="str">
-        <f>RIGHT(D31:D191,4)</f>
+        <f>RIGHT(D31:D193,4)</f>
         <v>6802</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -2644,7 +2642,7 @@
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="93" t="str">
-        <f>RIGHT(D32:D192,4)</f>
+        <f>RIGHT(D32:D194,4)</f>
         <v>6877</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -2668,7 +2666,7 @@
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="93" t="str">
-        <f>RIGHT(D33:D193,4)</f>
+        <f>RIGHT(D33:D195,4)</f>
         <v>6888</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -2694,7 +2692,7 @@
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="93" t="str">
-        <f>RIGHT(D34:D191,4)</f>
+        <f>RIGHT(D34:D193,4)</f>
         <v>5851</v>
       </c>
       <c r="B34" s="27" t="s">
@@ -2724,7 +2722,7 @@
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="93" t="str">
-        <f>RIGHT(D35:D192,4)</f>
+        <f>RIGHT(D35:D194,4)</f>
         <v>6159</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -2748,7 +2746,7 @@
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="93" t="str">
-        <f>RIGHT(D36:D192,4)</f>
+        <f>RIGHT(D36:D194,4)</f>
         <v>6158</v>
       </c>
       <c r="B36" s="27" t="s">
@@ -2776,7 +2774,7 @@
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93" t="str">
-        <f>RIGHT(D37:D194,4)</f>
+        <f>RIGHT(D37:D196,4)</f>
         <v>6340</v>
       </c>
       <c r="B37" s="95" t="s">
@@ -2804,7 +2802,7 @@
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="93" t="str">
-        <f>RIGHT(D38:D192,4)</f>
+        <f>RIGHT(D38:D194,4)</f>
         <v>6353</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -2834,7 +2832,7 @@
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="93" t="str">
-        <f>RIGHT(D39:D193,4)</f>
+        <f>RIGHT(D39:D195,4)</f>
         <v/>
       </c>
       <c r="B39" s="74" t="s">
@@ -2851,7 +2849,7 @@
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A40" s="93" t="str">
-        <f>RIGHT(D40:D196,4)</f>
+        <f>RIGHT(D40:D198,4)</f>
         <v>6870</v>
       </c>
       <c r="B40" s="27" t="s">
@@ -2876,7 +2874,7 @@
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="93" t="str">
-        <f>RIGHT(D41:D198,4)</f>
+        <f>RIGHT(D41:D200,4)</f>
         <v>7038</v>
       </c>
       <c r="B41" s="27" t="s">
@@ -2901,7 +2899,7 @@
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="93" t="str">
-        <f>RIGHT(D42:D199,4)</f>
+        <f>RIGHT(D42:D201,4)</f>
         <v>7040</v>
       </c>
       <c r="B42" s="27" t="s">
@@ -2928,7 +2926,7 @@
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="93" t="str">
-        <f>RIGHT(D43:D198,4)</f>
+        <f>RIGHT(D43:D200,4)</f>
         <v>7075</v>
       </c>
       <c r="B43" s="27" t="s">
@@ -2953,7 +2951,7 @@
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="93" t="str">
-        <f>RIGHT(D44:D199,4)</f>
+        <f>RIGHT(D44:D201,4)</f>
         <v>7070</v>
       </c>
       <c r="B44" s="27" t="s">
@@ -2978,7 +2976,7 @@
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="93" t="str">
-        <f>RIGHT(D45:D197,4)</f>
+        <f>RIGHT(D45:D199,4)</f>
         <v>6253</v>
       </c>
       <c r="B45" s="27" t="s">
@@ -3003,7 +3001,7 @@
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="93" t="str">
-        <f>RIGHT(D46:D196,4)</f>
+        <f>RIGHT(D46:D198,4)</f>
         <v>6602</v>
       </c>
       <c r="B46" s="27" t="s">
@@ -3028,7 +3026,7 @@
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="93" t="str">
-        <f>RIGHT(D47:D199,4)</f>
+        <f>RIGHT(D47:D201,4)</f>
         <v>6768</v>
       </c>
       <c r="B47" s="27" t="s">
@@ -3053,7 +3051,7 @@
     </row>
     <row r="48" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="93" t="str">
-        <f>RIGHT(D48:D200,4)</f>
+        <f>RIGHT(D48:D202,4)</f>
         <v>6770</v>
       </c>
       <c r="B48" s="27" t="s">
@@ -3078,7 +3076,7 @@
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="93" t="str">
-        <f>RIGHT(D49:D203,4)</f>
+        <f>RIGHT(D49:D205,4)</f>
         <v>6829</v>
       </c>
       <c r="B49" s="27" t="s">
@@ -3102,7 +3100,7 @@
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="93" t="str">
-        <f>RIGHT(D50:D208,4)</f>
+        <f>RIGHT(D50:D210,4)</f>
         <v>7074</v>
       </c>
       <c r="B50" s="27" t="s">
@@ -3126,7 +3124,7 @@
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="93" t="str">
-        <f>RIGHT(D51:D209,4)</f>
+        <f>RIGHT(D51:D211,4)</f>
         <v>7073</v>
       </c>
       <c r="B51" s="27" t="s">
@@ -3150,7 +3148,7 @@
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="93" t="str">
-        <f>RIGHT(D52:D210,4)</f>
+        <f>RIGHT(D52:D212,4)</f>
         <v>6759</v>
       </c>
       <c r="B52" s="27" t="s">
@@ -3174,7 +3172,7 @@
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="93" t="str">
-        <f>RIGHT(D53:D211,4)</f>
+        <f>RIGHT(D53:D213,4)</f>
         <v>6724</v>
       </c>
       <c r="B53" s="27" t="s">
@@ -3200,7 +3198,7 @@
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="93" t="str">
-        <f>RIGHT(D54:D212,4)</f>
+        <f>RIGHT(D54:D214,4)</f>
         <v>6616</v>
       </c>
       <c r="B54" s="27" t="s">
@@ -3226,7 +3224,7 @@
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="93" t="str">
-        <f>RIGHT(D55:D211,4)</f>
+        <f>RIGHT(D55:D213,4)</f>
         <v>6901</v>
       </c>
       <c r="B55" s="27" t="s">
@@ -3252,7 +3250,7 @@
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="93" t="str">
-        <f>RIGHT(D56:D212,4)</f>
+        <f>RIGHT(D56:D214,4)</f>
         <v>6962</v>
       </c>
       <c r="B56" s="27" t="s">
@@ -3278,7 +3276,7 @@
     </row>
     <row r="57" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="93" t="str">
-        <f>RIGHT(D57:D210,4)</f>
+        <f>RIGHT(D57:D212,4)</f>
         <v>6303</v>
       </c>
       <c r="B57" s="70" t="s">
@@ -3309,7 +3307,7 @@
     </row>
     <row r="58" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="93" t="str">
-        <f>RIGHT(D58:D211,4)</f>
+        <f>RIGHT(D58:D213,4)</f>
         <v>7077</v>
       </c>
       <c r="B58" s="70" t="s">
@@ -3334,7 +3332,7 @@
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="93" t="str">
-        <f>RIGHT(D59:D211,4)</f>
+        <f>RIGHT(D59:D213,4)</f>
         <v>7080</v>
       </c>
       <c r="B59" s="45" t="s">
@@ -3364,7 +3362,7 @@
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="93" t="str">
-        <f>RIGHT(D60:D212,4)</f>
+        <f>RIGHT(D60:D214,4)</f>
         <v>6762</v>
       </c>
       <c r="B60" s="45" t="s">
@@ -3390,7 +3388,7 @@
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="93" t="str">
-        <f>RIGHT(D61:D212,4)</f>
+        <f>RIGHT(D61:D214,4)</f>
         <v>5820</v>
       </c>
       <c r="B61" s="45" t="s">
@@ -3416,7 +3414,7 @@
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="93" t="str">
-        <f>RIGHT(D62:D213,4)</f>
+        <f>RIGHT(D62:D215,4)</f>
         <v>7082</v>
       </c>
       <c r="B62" s="45" t="s">
@@ -3440,7 +3438,7 @@
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="93" t="str">
-        <f>RIGHT(D63:D214,4)</f>
+        <f>RIGHT(D63:D216,4)</f>
         <v>6764</v>
       </c>
       <c r="B63" s="45" t="s">
@@ -3464,7 +3462,7 @@
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="93" t="str">
-        <f>RIGHT(D64:D216,4)</f>
+        <f>RIGHT(D64:D218,4)</f>
         <v>6761</v>
       </c>
       <c r="B64" s="45" t="s">
@@ -3488,7 +3486,7 @@
     </row>
     <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="93" t="str">
-        <f>RIGHT(D65:D217,4)</f>
+        <f>RIGHT(D65:D219,4)</f>
         <v>6767</v>
       </c>
       <c r="B65" s="45" t="s">
@@ -3512,7 +3510,7 @@
     </row>
     <row r="66" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="93" t="str">
-        <f>RIGHT(D66:D217,4)</f>
+        <f>RIGHT(D66:D219,4)</f>
         <v>6765</v>
       </c>
       <c r="B66" s="45" t="s">
@@ -3536,7 +3534,7 @@
     </row>
     <row r="67" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="93" t="str">
-        <f>RIGHT(D67:D218,4)</f>
+        <f>RIGHT(D67:D220,4)</f>
         <v>6909</v>
       </c>
       <c r="B67" s="45" t="s">
@@ -3562,21 +3560,21 @@
     </row>
     <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="93" t="str">
-        <f>RIGHT(D68:D219,4)</f>
-        <v>6987</v>
+        <f>RIGHT(D68:D221,4)</f>
+        <v>7250</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c r="C68" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D68" s="28">
-        <v>1001025886987</v>
+        <v>1001026617250</v>
       </c>
       <c r="E68" s="24"/>
       <c r="F68" s="23">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
       <c r="G68" s="23">
         <f>E68*F68</f>
@@ -3588,127 +3586,128 @@
     </row>
     <row r="69" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="93" t="str">
-        <f>RIGHT(D69:D217,4)</f>
-        <v>7066</v>
+        <f>RIGHT(D69:D221,4)</f>
+        <v>6987</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C69" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D69" s="28">
-        <v>1001022377066</v>
+        <v>1001025886987</v>
       </c>
       <c r="E69" s="24"/>
       <c r="F69" s="23">
-        <v>0.41</v>
+        <v>0.6</v>
       </c>
       <c r="G69" s="23">
-        <f>E69*0.41</f>
+        <f>E69*F69</f>
         <v>0</v>
       </c>
-      <c r="H69" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="I69" s="14">
-        <v>45</v>
-      </c>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
       <c r="J69" s="39"/>
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="93" t="str">
-        <f>RIGHT(D70:D218,4)</f>
-        <v>6837</v>
+        <f>RIGHT(D70:D219,4)</f>
+        <v>7066</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C70" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D70" s="28">
-        <v>1001022556837</v>
+        <v>1001022377066</v>
       </c>
       <c r="E70" s="24"/>
       <c r="F70" s="23">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="G70" s="23">
-        <f>E70*0.4</f>
+        <f>E70*0.41</f>
         <v>0</v>
       </c>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
+      <c r="H70" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="I70" s="14">
+        <v>45</v>
+      </c>
       <c r="J70" s="39"/>
     </row>
     <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="93" t="str">
-        <f>RIGHT(D71:D219,4)</f>
-        <v>7244</v>
+        <f>RIGHT(D71:D220,4)</f>
+        <v>6837</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>247</v>
+        <v>83</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D71" s="28">
-        <v>1001022557244</v>
+        <v>1001022556837</v>
       </c>
       <c r="E71" s="24"/>
-      <c r="F71" s="23"/>
+      <c r="F71" s="23">
+        <v>0.4</v>
+      </c>
       <c r="G71" s="23">
-        <f>E71</f>
+        <f>E71*0.4</f>
         <v>0</v>
       </c>
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
       <c r="J71" s="39"/>
     </row>
-    <row r="72" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="93" t="str">
-        <f>RIGHT(D72:D220,4)</f>
-        <v>6661</v>
-      </c>
-      <c r="B72" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C72" s="30" t="s">
+        <f>RIGHT(D72:D221,4)</f>
+        <v>7244</v>
+      </c>
+      <c r="B72" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="C72" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D72" s="28">
-        <v>1001022246661</v>
+        <v>1001022557244</v>
       </c>
       <c r="E72" s="24"/>
       <c r="F72" s="23"/>
       <c r="G72" s="23">
-        <f>E72*1</f>
+        <f>E72</f>
         <v>0</v>
       </c>
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
       <c r="J72" s="39"/>
-      <c r="K72" s="82"/>
-    </row>
-    <row r="73" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="93" t="str">
-        <f>RIGHT(D73:D221,4)</f>
-        <v>6713</v>
+        <f>RIGHT(D73:D222,4)</f>
+        <v>6661</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>26</v>
+        <v>84</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D73" s="28">
-        <v>1001022246713</v>
+        <v>1001022246661</v>
       </c>
       <c r="E73" s="24"/>
       <c r="F73" s="23"/>
       <c r="G73" s="23">
-        <f>E73*0.41</f>
+        <f>E73*1</f>
         <v>0</v>
       </c>
       <c r="H73" s="14"/>
@@ -3716,97 +3715,96 @@
       <c r="J73" s="39"/>
       <c r="K73" s="82"/>
     </row>
-    <row r="74" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="93" t="str">
-        <f>RIGHT(D74:D217,4)</f>
+        <f>RIGHT(D74:D223,4)</f>
+        <v>6713</v>
+      </c>
+      <c r="B74" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74" s="28">
+        <v>1001022246713</v>
+      </c>
+      <c r="E74" s="24"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23">
+        <f>E74*0.41</f>
+        <v>0</v>
+      </c>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="82"/>
+    </row>
+    <row r="75" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="93" t="str">
+        <f>RIGHT(D75:D219,4)</f>
         <v/>
       </c>
-      <c r="B74" s="74" t="s">
+      <c r="B75" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="74"/>
-      <c r="D74" s="74"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="73"/>
-      <c r="G74" s="74"/>
-      <c r="H74" s="74"/>
-      <c r="I74" s="74"/>
-      <c r="J74" s="75"/>
-    </row>
-    <row r="75" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="93" t="str">
-        <f>RIGHT(D75:D218,4)</f>
+      <c r="C75" s="74"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="73"/>
+      <c r="G75" s="74"/>
+      <c r="H75" s="74"/>
+      <c r="I75" s="74"/>
+      <c r="J75" s="75"/>
+    </row>
+    <row r="76" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="93" t="str">
+        <f>RIGHT(D76:D220,4)</f>
         <v>5698</v>
       </c>
-      <c r="B75" s="46" t="s">
+      <c r="B76" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C75" s="30" t="s">
+      <c r="C76" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D75" s="28">
+      <c r="D76" s="28">
         <v>1001034065698</v>
       </c>
-      <c r="E75" s="24"/>
-      <c r="F75" s="23">
+      <c r="E76" s="24"/>
+      <c r="F76" s="23">
         <v>1.013333333333333</v>
       </c>
-      <c r="G75" s="23">
-        <f>E75*1</f>
+      <c r="G76" s="23">
+        <f>E76*1</f>
         <v>0</v>
       </c>
-      <c r="H75" s="14">
+      <c r="H76" s="14">
         <v>3.04</v>
       </c>
-      <c r="I75" s="14">
+      <c r="I76" s="14">
         <v>30</v>
       </c>
-      <c r="J75" s="39"/>
-    </row>
-    <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="93" t="str">
-        <f>RIGHT(D76:D221,4)</f>
-        <v>6528</v>
-      </c>
-      <c r="B76" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C76" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D76" s="28">
-        <v>1001031076528</v>
-      </c>
-      <c r="E76" s="24"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23">
-        <f>E76*0.4</f>
-        <v>0</v>
-      </c>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
       <c r="J76" s="39"/>
     </row>
     <row r="77" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="93" t="str">
-        <f>RIGHT(D77:D222,4)</f>
-        <v>7059</v>
+        <f>RIGHT(D77:D223,4)</f>
+        <v>6528</v>
       </c>
       <c r="B77" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C77" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D77" s="28">
-        <v>1001035277059</v>
+        <v>1001031076528</v>
       </c>
       <c r="E77" s="24"/>
-      <c r="F77" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F77" s="23"/>
       <c r="G77" s="23">
-        <f>F77*E77</f>
+        <f>E77*0.4</f>
         <v>0</v>
       </c>
       <c r="H77" s="14"/>
@@ -3815,21 +3813,21 @@
     </row>
     <row r="78" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="93" t="str">
-        <f>RIGHT(D78:D222,4)</f>
-        <v>6609</v>
+        <f>RIGHT(D78:D224,4)</f>
+        <v>7059</v>
       </c>
       <c r="B78" s="46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C78" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D78" s="28">
-        <v>1001033856609</v>
+        <v>1001035277059</v>
       </c>
       <c r="E78" s="24"/>
       <c r="F78" s="23">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G78" s="23">
         <f>F78*E78</f>
@@ -3841,194 +3839,196 @@
     </row>
     <row r="79" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="93" t="str">
-        <f>RIGHT(D79:D223,4)</f>
-        <v>7001</v>
+        <f>RIGHT(D79:D224,4)</f>
+        <v>6609</v>
       </c>
       <c r="B79" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C79" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D79" s="28">
-        <v>1001035937001</v>
+        <v>1001033856609</v>
       </c>
       <c r="E79" s="24"/>
       <c r="F79" s="23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G79" s="23">
-        <f>E79</f>
+        <f>F79*E79</f>
         <v>0</v>
       </c>
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
       <c r="J79" s="39"/>
     </row>
-    <row r="80" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="93" t="str">
-        <f>RIGHT(D80:D223,4)</f>
-        <v>6527</v>
+        <f>RIGHT(D80:D225,4)</f>
+        <v>7001</v>
       </c>
       <c r="B80" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="C80" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D80" s="28">
-        <v>1001031076527</v>
+        <v>1001035937001</v>
       </c>
       <c r="E80" s="24"/>
       <c r="F80" s="23">
+        <v>1</v>
+      </c>
+      <c r="G80" s="23">
+        <f>E80</f>
+        <v>0</v>
+      </c>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="39"/>
+    </row>
+    <row r="81" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="93" t="str">
+        <f>RIGHT(D81:D225,4)</f>
+        <v>6527</v>
+      </c>
+      <c r="B81" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" s="28">
+        <v>1001031076527</v>
+      </c>
+      <c r="E81" s="24"/>
+      <c r="F81" s="23">
         <v>1.0166666666666671</v>
       </c>
-      <c r="G80" s="23">
-        <f>E80*1</f>
+      <c r="G81" s="23">
+        <f>E81*1</f>
         <v>0</v>
       </c>
-      <c r="H80" s="14">
+      <c r="H81" s="14">
         <v>3.05</v>
       </c>
-      <c r="I80" s="14">
+      <c r="I81" s="14">
         <v>30</v>
       </c>
-      <c r="J80" s="39"/>
-    </row>
-    <row r="81" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="93" t="str">
-        <f>RIGHT(D81:D224,4)</f>
+      <c r="J81" s="39"/>
+    </row>
+    <row r="82" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="93" t="str">
+        <f>RIGHT(D82:D226,4)</f>
         <v/>
       </c>
-      <c r="B81" s="74" t="s">
+      <c r="B82" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="C81" s="74"/>
-      <c r="D81" s="74"/>
-      <c r="E81" s="74"/>
-      <c r="F81" s="73"/>
-      <c r="G81" s="74"/>
-      <c r="H81" s="74"/>
-      <c r="I81" s="74"/>
-      <c r="J81" s="75"/>
-    </row>
-    <row r="82" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="93" t="str">
-        <f>RIGHT(D82:D225,4)</f>
+      <c r="C82" s="74"/>
+      <c r="D82" s="74"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="73"/>
+      <c r="G82" s="74"/>
+      <c r="H82" s="74"/>
+      <c r="I82" s="74"/>
+      <c r="J82" s="75"/>
+    </row>
+    <row r="83" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="93" t="str">
+        <f>RIGHT(D83:D227,4)</f>
         <v>7232</v>
       </c>
-      <c r="B82" s="27" t="s">
+      <c r="B83" s="27" t="s">
         <v>94</v>
-      </c>
-      <c r="C82" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D82" s="28">
-        <v>1001302277232</v>
-      </c>
-      <c r="E82" s="24"/>
-      <c r="F82" s="23">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G82" s="23">
-        <f>E82*F82</f>
-        <v>0</v>
-      </c>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14">
-        <v>50</v>
-      </c>
-      <c r="J82" s="39"/>
-    </row>
-    <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="93" t="str">
-        <f>RIGHT(D83:D226,4)</f>
-        <v>6785</v>
-      </c>
-      <c r="B83" s="27" t="s">
-        <v>95</v>
       </c>
       <c r="C83" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D83" s="28">
-        <v>1001300516785</v>
+        <v>1001302277232</v>
       </c>
       <c r="E83" s="24"/>
-      <c r="F83" s="23"/>
+      <c r="F83" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G83" s="23">
-        <f>E83*0.33</f>
+        <f>E83*F83</f>
         <v>0</v>
       </c>
       <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
+      <c r="I83" s="14">
+        <v>50</v>
+      </c>
       <c r="J83" s="39"/>
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="93" t="str">
-        <f>RIGHT(D84:D227,4)</f>
-        <v>7149</v>
-      </c>
-      <c r="B84" s="96" t="s">
-        <v>96</v>
+        <f>RIGHT(D84:D228,4)</f>
+        <v>6785</v>
+      </c>
+      <c r="B84" s="27" t="s">
+        <v>95</v>
       </c>
       <c r="C84" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D84" s="28">
-        <v>1001303637149</v>
+        <v>1001300516785</v>
       </c>
       <c r="E84" s="24"/>
-      <c r="F84" s="23">
-        <v>0.84</v>
-      </c>
+      <c r="F84" s="23"/>
       <c r="G84" s="23">
-        <f>F84*E84</f>
+        <f>E84*0.33</f>
         <v>0</v>
       </c>
       <c r="H84" s="14"/>
-      <c r="I84" s="14">
-        <v>50</v>
-      </c>
+      <c r="I84" s="14"/>
       <c r="J84" s="39"/>
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="93" t="str">
-        <f>RIGHT(D85:D227,4)</f>
-        <v>6786</v>
-      </c>
-      <c r="B85" s="27" t="s">
-        <v>97</v>
+        <f>RIGHT(D85:D229,4)</f>
+        <v>7149</v>
+      </c>
+      <c r="B85" s="96" t="s">
+        <v>96</v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D85" s="28">
-        <v>1001300516786</v>
+        <v>1001303637149</v>
       </c>
       <c r="E85" s="24"/>
-      <c r="F85" s="23"/>
+      <c r="F85" s="23">
+        <v>0.84</v>
+      </c>
       <c r="G85" s="23">
-        <f>E85</f>
+        <f>F85*E85</f>
         <v>0</v>
       </c>
       <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
+      <c r="I85" s="14">
+        <v>50</v>
+      </c>
       <c r="J85" s="39"/>
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="93" t="str">
-        <f>RIGHT(D86:D228,4)</f>
-        <v>4903</v>
+        <f>RIGHT(D86:D229,4)</f>
+        <v>6786</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C86" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D86" s="28">
-        <v>1001040434903</v>
+        <v>1001300516786</v>
       </c>
       <c r="E86" s="24"/>
       <c r="F86" s="23"/>
@@ -4042,17 +4042,17 @@
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="93" t="str">
-        <f>RIGHT(D87:D228,4)</f>
-        <v>7131</v>
+        <f>RIGHT(D87:D230,4)</f>
+        <v>4903</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C87" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D87" s="28">
-        <v>1001303637131</v>
+        <v>1001040434903</v>
       </c>
       <c r="E87" s="24"/>
       <c r="F87" s="23"/>
@@ -4061,123 +4061,123 @@
         <v>0</v>
       </c>
       <c r="H87" s="14"/>
-      <c r="I87" s="14">
-        <v>45</v>
-      </c>
+      <c r="I87" s="14"/>
       <c r="J87" s="39"/>
     </row>
-    <row r="88" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="93" t="str">
-        <f>RIGHT(D88:D226,4)</f>
-        <v>7241</v>
+        <f>RIGHT(D88:D230,4)</f>
+        <v>7131</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C88" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D88" s="28">
-        <v>1001303107241</v>
+        <v>1001303637131</v>
       </c>
       <c r="E88" s="24"/>
-      <c r="F88" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F88" s="23"/>
       <c r="G88" s="23">
-        <f>E88*0.28</f>
+        <f>E88</f>
         <v>0</v>
       </c>
-      <c r="H88" s="14">
-        <v>2.2400000000000002</v>
-      </c>
+      <c r="H88" s="14"/>
       <c r="I88" s="14">
         <v>45</v>
       </c>
       <c r="J88" s="39"/>
     </row>
-    <row r="89" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="93" t="str">
-        <f>RIGHT(D89:D229,4)</f>
+        <f>RIGHT(D89:D228,4)</f>
+        <v>7241</v>
+      </c>
+      <c r="B89" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" s="28">
+        <v>1001303107241</v>
+      </c>
+      <c r="E89" s="24"/>
+      <c r="F89" s="23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G89" s="23">
+        <f>E89*0.28</f>
+        <v>0</v>
+      </c>
+      <c r="H89" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I89" s="14">
+        <v>45</v>
+      </c>
+      <c r="J89" s="39"/>
+    </row>
+    <row r="90" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="93" t="str">
+        <f>RIGHT(D90:D231,4)</f>
         <v/>
       </c>
-      <c r="B89" s="74" t="s">
+      <c r="B90" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="C89" s="74"/>
-      <c r="D89" s="74"/>
-      <c r="E89" s="74"/>
-      <c r="F89" s="73"/>
-      <c r="G89" s="74"/>
-      <c r="H89" s="74"/>
-      <c r="I89" s="74"/>
-      <c r="J89" s="75"/>
-    </row>
-    <row r="90" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="93" t="str">
-        <f>RIGHT(D90:D230,4)</f>
-        <v>7154</v>
-      </c>
-      <c r="B90" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C90" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D90" s="28">
-        <v>1001300387154</v>
-      </c>
-      <c r="E90" s="24"/>
-      <c r="F90" s="23">
-        <v>0.35</v>
-      </c>
-      <c r="G90" s="23">
-        <f>E90*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14">
-        <v>50</v>
-      </c>
-      <c r="J90" s="39"/>
-    </row>
-    <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C90" s="74"/>
+      <c r="D90" s="74"/>
+      <c r="E90" s="74"/>
+      <c r="F90" s="73"/>
+      <c r="G90" s="74"/>
+      <c r="H90" s="74"/>
+      <c r="I90" s="74"/>
+      <c r="J90" s="75"/>
+    </row>
+    <row r="91" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A91" s="93" t="str">
         <f>RIGHT(D91:D232,4)</f>
-        <v>6793</v>
+        <v>7154</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D91" s="28">
-        <v>1001303636793</v>
+        <v>1001300387154</v>
       </c>
       <c r="E91" s="24"/>
-      <c r="F91" s="23"/>
+      <c r="F91" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G91" s="23">
-        <f>E91*0.33</f>
+        <f>E91*0.35</f>
         <v>0</v>
       </c>
       <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
+      <c r="I91" s="14">
+        <v>50</v>
+      </c>
       <c r="J91" s="39"/>
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="93" t="str">
-        <f>RIGHT(D92:D233,4)</f>
-        <v>6795</v>
+        <f>RIGHT(D92:D234,4)</f>
+        <v>6793</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C92" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D92" s="28">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="E92" s="24"/>
       <c r="F92" s="23"/>
@@ -4191,17 +4191,17 @@
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="93" t="str">
-        <f>RIGHT(D93:D233,4)</f>
-        <v>6807</v>
+        <f>RIGHT(D93:D235,4)</f>
+        <v>6795</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C93" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D93" s="28">
-        <v>1001300366807</v>
+        <v>1001302596795</v>
       </c>
       <c r="E93" s="24"/>
       <c r="F93" s="23"/>
@@ -4215,76 +4215,76 @@
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="93" t="str">
-        <f>RIGHT(D94:D233,4)</f>
-        <v>7236</v>
+        <f>RIGHT(D94:D235,4)</f>
+        <v>6807</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C94" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D94" s="28">
-        <v>1001304507236</v>
+        <v>1001300366807</v>
       </c>
       <c r="E94" s="24"/>
-      <c r="F94" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F94" s="23"/>
       <c r="G94" s="23">
-        <f>E94*0.28</f>
+        <f>E94*0.33</f>
         <v>0</v>
       </c>
-      <c r="H94" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I94" s="14">
-        <v>45</v>
-      </c>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
       <c r="J94" s="39"/>
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="93" t="str">
         <f>RIGHT(D95:D235,4)</f>
-        <v>6787</v>
+        <v>7236</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C95" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D95" s="28">
-        <v>1001300456787</v>
+        <v>1001304507236</v>
       </c>
       <c r="E95" s="24"/>
-      <c r="F95" s="23"/>
+      <c r="F95" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G95" s="23">
-        <f>E95*0.33</f>
+        <f>E95*0.28</f>
         <v>0</v>
       </c>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
+      <c r="H95" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I95" s="14">
+        <v>45</v>
+      </c>
       <c r="J95" s="39"/>
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="93" t="str">
-        <f>RIGHT(D96:D236,4)</f>
-        <v>6788</v>
+        <f>RIGHT(D96:D237,4)</f>
+        <v>6787</v>
       </c>
       <c r="B96" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C96" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D96" s="28">
-        <v>1001300456788</v>
+        <v>1001300456787</v>
       </c>
       <c r="E96" s="24"/>
       <c r="F96" s="23"/>
       <c r="G96" s="23">
-        <f>E96*1</f>
+        <f>E96*0.33</f>
         <v>0</v>
       </c>
       <c r="H96" s="14"/>
@@ -4293,17 +4293,17 @@
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="93" t="str">
-        <f>RIGHT(D97:D237,4)</f>
-        <v>6790</v>
+        <f>RIGHT(D97:D238,4)</f>
+        <v>6788</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C97" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D97" s="28">
-        <v>1001300366790</v>
+        <v>1001300456788</v>
       </c>
       <c r="E97" s="24"/>
       <c r="F97" s="23"/>
@@ -4317,126 +4317,126 @@
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="93" t="str">
-        <f>RIGHT(D98:D236,4)</f>
-        <v>7169</v>
-      </c>
-      <c r="B98" s="64" t="s">
-        <v>110</v>
+        <f>RIGHT(D98:D239,4)</f>
+        <v>6790</v>
+      </c>
+      <c r="B98" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="C98" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D98" s="28">
-        <v>1001303987169</v>
+        <v>1001300366790</v>
       </c>
       <c r="E98" s="24"/>
-      <c r="F98" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F98" s="23"/>
       <c r="G98" s="23">
-        <f>E98*F98</f>
+        <f>E98*1</f>
         <v>0</v>
       </c>
       <c r="H98" s="14"/>
-      <c r="I98" s="14">
-        <v>50</v>
-      </c>
+      <c r="I98" s="14"/>
       <c r="J98" s="39"/>
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="93" t="str">
-        <f>RIGHT(D99:D237,4)</f>
-        <v>6791</v>
+        <f>RIGHT(D99:D238,4)</f>
+        <v>7169</v>
       </c>
       <c r="B99" s="64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C99" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D99" s="28">
-        <v>1001304096791</v>
+        <v>1001303987169</v>
       </c>
       <c r="E99" s="24"/>
-      <c r="F99" s="23"/>
+      <c r="F99" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G99" s="23">
-        <f>E99*0.33</f>
+        <f>E99*F99</f>
         <v>0</v>
       </c>
       <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
+      <c r="I99" s="14">
+        <v>50</v>
+      </c>
       <c r="J99" s="39"/>
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="93" t="str">
-        <f>RIGHT(D100:D238,4)</f>
-        <v>7166</v>
+        <f>RIGHT(D100:D239,4)</f>
+        <v>6791</v>
       </c>
       <c r="B100" s="64" t="s">
-        <v>112</v>
-      </c>
-      <c r="C100" s="30" t="s">
-        <v>23</v>
+        <v>111</v>
+      </c>
+      <c r="C100" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D100" s="28">
-        <v>1001303987166</v>
+        <v>1001304096791</v>
       </c>
       <c r="E100" s="24"/>
       <c r="F100" s="23"/>
       <c r="G100" s="23">
-        <f>E100*1</f>
+        <f>E100*0.33</f>
         <v>0</v>
       </c>
       <c r="H100" s="14"/>
-      <c r="I100" s="14">
-        <v>50</v>
-      </c>
+      <c r="I100" s="14"/>
       <c r="J100" s="39"/>
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="93" t="str">
-        <f>RIGHT(D101:D239,4)</f>
-        <v>6459</v>
+        <f>RIGHT(D101:D240,4)</f>
+        <v>7166</v>
       </c>
       <c r="B101" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="C101" s="33" t="s">
-        <v>26</v>
+        <v>112</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D101" s="28">
-        <v>1001214196459</v>
+        <v>1001303987166</v>
       </c>
       <c r="E101" s="24"/>
-      <c r="F101" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F101" s="23"/>
       <c r="G101" s="23">
-        <f>E101*F101</f>
+        <f>E101*1</f>
         <v>0</v>
       </c>
       <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
+      <c r="I101" s="14">
+        <v>50</v>
+      </c>
       <c r="J101" s="39"/>
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="93" t="str">
-        <f>RIGHT(D102:D240,4)</f>
-        <v>6586</v>
+        <f>RIGHT(D102:D241,4)</f>
+        <v>6459</v>
       </c>
       <c r="B102" s="64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C102" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D102" s="28">
-        <v>1001215576586</v>
+        <v>1001214196459</v>
       </c>
       <c r="E102" s="24"/>
-      <c r="F102" s="23"/>
+      <c r="F102" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G102" s="23">
-        <f>E102*0.09</f>
+        <f>E102*F102</f>
         <v>0</v>
       </c>
       <c r="H102" s="14"/>
@@ -4445,17 +4445,17 @@
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="93" t="str">
-        <f>RIGHT(D103:D238,4)</f>
-        <v>6228</v>
+        <f>RIGHT(D103:D242,4)</f>
+        <v>6586</v>
       </c>
       <c r="B103" s="64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C103" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D103" s="28">
-        <v>1001225416228</v>
+        <v>1001215576586</v>
       </c>
       <c r="E103" s="24"/>
       <c r="F103" s="23"/>
@@ -4469,24 +4469,22 @@
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="93" t="str">
-        <f>RIGHT(D104:D239,4)</f>
-        <v>7087</v>
+        <f>RIGHT(D104:D240,4)</f>
+        <v>6228</v>
       </c>
       <c r="B104" s="64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C104" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D104" s="28">
-        <v>1001084227087</v>
+        <v>1001225416228</v>
       </c>
       <c r="E104" s="24"/>
-      <c r="F104" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F104" s="23"/>
       <c r="G104" s="23">
-        <f>F104*E104</f>
+        <f>E104*0.09</f>
         <v>0</v>
       </c>
       <c r="H104" s="14"/>
@@ -4495,219 +4493,215 @@
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="93" t="str">
-        <f>RIGHT(D105:D238,4)</f>
-        <v>5544</v>
-      </c>
-      <c r="B105" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C105" s="30" t="s">
-        <v>23</v>
+        <f>RIGHT(D105:D241,4)</f>
+        <v>7087</v>
+      </c>
+      <c r="B105" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="C105" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D105" s="28">
-        <v>1001051875544</v>
+        <v>1001084227087</v>
       </c>
       <c r="E105" s="24"/>
       <c r="F105" s="23">
-        <v>0.85</v>
+        <v>0.3</v>
       </c>
       <c r="G105" s="23">
-        <f>E105*1</f>
+        <f>F105*E105</f>
         <v>0</v>
       </c>
-      <c r="H105" s="14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I105" s="14">
-        <v>45</v>
-      </c>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
       <c r="J105" s="39"/>
     </row>
-    <row r="106" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="93" t="str">
-        <f t="shared" ref="A106:A111" si="0">RIGHT(D106:D240,4)</f>
-        <v>6697</v>
+        <f>RIGHT(D106:D240,4)</f>
+        <v>5544</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C106" s="36" t="s">
-        <v>26</v>
+        <v>117</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D106" s="28">
-        <v>1001301876697</v>
+        <v>1001051875544</v>
       </c>
       <c r="E106" s="24"/>
       <c r="F106" s="23">
-        <v>0.35</v>
+        <v>0.85</v>
       </c>
       <c r="G106" s="23">
-        <f>E106*0.35</f>
+        <f>E106*1</f>
         <v>0</v>
       </c>
       <c r="H106" s="14">
-        <v>2.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I106" s="14">
         <v>45</v>
       </c>
       <c r="J106" s="39"/>
     </row>
-    <row r="107" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D107:D242,4)</f>
+        <v>6697</v>
+      </c>
+      <c r="B107" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C107" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" s="28">
+        <v>1001301876697</v>
+      </c>
+      <c r="E107" s="24"/>
+      <c r="F107" s="23">
+        <v>0.35</v>
+      </c>
+      <c r="G107" s="23">
+        <f>E107*0.35</f>
+        <v>0</v>
+      </c>
+      <c r="H107" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="I107" s="14">
+        <v>45</v>
+      </c>
+      <c r="J107" s="39"/>
+    </row>
+    <row r="108" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="93" t="str">
+        <f>RIGHT(D108:D243,4)</f>
         <v/>
       </c>
-      <c r="B107" s="74" t="s">
+      <c r="B108" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="C107" s="74"/>
-      <c r="D107" s="74"/>
-      <c r="E107" s="74"/>
-      <c r="F107" s="73"/>
-      <c r="G107" s="74"/>
-      <c r="H107" s="74"/>
-      <c r="I107" s="74"/>
-      <c r="J107" s="75"/>
-    </row>
-    <row r="108" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="93" t="str">
-        <f t="shared" si="0"/>
+      <c r="C108" s="74"/>
+      <c r="D108" s="74"/>
+      <c r="E108" s="74"/>
+      <c r="F108" s="73"/>
+      <c r="G108" s="74"/>
+      <c r="H108" s="74"/>
+      <c r="I108" s="74"/>
+      <c r="J108" s="75"/>
+    </row>
+    <row r="109" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="93" t="str">
+        <f>RIGHT(D109:D244,4)</f>
         <v>5706</v>
       </c>
-      <c r="B108" s="27" t="s">
+      <c r="B109" s="27" t="s">
         <v>120</v>
-      </c>
-      <c r="C108" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D108" s="28">
-        <v>1001061975706</v>
-      </c>
-      <c r="E108" s="24"/>
-      <c r="F108" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="G108" s="23">
-        <f>E108*0.25</f>
-        <v>0</v>
-      </c>
-      <c r="H108" s="14">
-        <v>2</v>
-      </c>
-      <c r="I108" s="14">
-        <v>120</v>
-      </c>
-      <c r="J108" s="39"/>
-    </row>
-    <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>6454</v>
-      </c>
-      <c r="B109" s="27" t="s">
-        <v>121</v>
       </c>
       <c r="C109" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D109" s="28">
-        <v>1001201976454</v>
+        <v>1001061975706</v>
       </c>
       <c r="E109" s="24"/>
       <c r="F109" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G109" s="23">
-        <f>E109*0.1</f>
+        <f>E109*0.25</f>
         <v>0</v>
       </c>
       <c r="H109" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I109" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J109" s="39"/>
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>6222</v>
+        <f>RIGHT(D110:D245,4)</f>
+        <v>6454</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C110" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D110" s="28">
-        <v>1001205386222</v>
+        <v>1001201976454</v>
       </c>
       <c r="E110" s="24"/>
-      <c r="F110" s="23"/>
+      <c r="F110" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G110" s="23">
-        <f>E110*0.09</f>
+        <f>E110*0.1</f>
         <v>0</v>
       </c>
-      <c r="H110" s="14"/>
-      <c r="I110" s="14"/>
+      <c r="H110" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I110" s="14">
+        <v>60</v>
+      </c>
       <c r="J110" s="39"/>
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="93" t="str">
-        <f t="shared" si="0"/>
-        <v>5931</v>
+        <f>RIGHT(D111:D246,4)</f>
+        <v>6222</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C111" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D111" s="28">
-        <v>1001060755931</v>
+        <v>1001205386222</v>
       </c>
       <c r="E111" s="24"/>
-      <c r="F111" s="23">
-        <v>0.22</v>
-      </c>
+      <c r="F111" s="23"/>
       <c r="G111" s="23">
-        <f>E111*0.22</f>
+        <f>E111*0.09</f>
         <v>0</v>
       </c>
-      <c r="H111" s="14">
-        <v>1.76</v>
-      </c>
-      <c r="I111" s="14">
-        <v>120</v>
-      </c>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
       <c r="J111" s="39"/>
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="93" t="str">
         <f>RIGHT(D112:D247,4)</f>
-        <v>5708</v>
+        <v>5931</v>
       </c>
       <c r="B112" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C112" s="30" t="s">
-        <v>23</v>
+        <v>123</v>
+      </c>
+      <c r="C112" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D112" s="28">
-        <v>1001063145708</v>
+        <v>1001060755931</v>
       </c>
       <c r="E112" s="24"/>
       <c r="F112" s="23">
-        <v>0.51249999999999996</v>
+        <v>0.22</v>
       </c>
       <c r="G112" s="23">
-        <f>E112*1</f>
+        <f>E112*0.22</f>
         <v>0</v>
       </c>
       <c r="H112" s="14">
-        <v>4.0999999999999996</v>
+        <v>1.76</v>
       </c>
       <c r="I112" s="14">
         <v>120</v>
@@ -4716,46 +4710,52 @@
     </row>
     <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="93" t="str">
-        <f>RIGHT(D113:D248,4)</f>
-        <v>1146</v>
+        <f>RIGHT(D113:D249,4)</f>
+        <v>5708</v>
       </c>
       <c r="B113" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C113" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D113" s="28">
-        <v>1001061971146</v>
+        <v>1001063145708</v>
       </c>
       <c r="E113" s="24"/>
-      <c r="F113" s="23"/>
+      <c r="F113" s="23">
+        <v>0.51249999999999996</v>
+      </c>
       <c r="G113" s="23">
-        <f>E113</f>
+        <f>E113*1</f>
         <v>0</v>
       </c>
-      <c r="H113" s="14"/>
-      <c r="I113" s="14"/>
+      <c r="H113" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I113" s="14">
+        <v>120</v>
+      </c>
       <c r="J113" s="39"/>
     </row>
     <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="93" t="str">
-        <f>RIGHT(D114:D248,4)</f>
-        <v>6834</v>
+        <f>RIGHT(D114:D250,4)</f>
+        <v>1146</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C114" s="33" t="s">
-        <v>26</v>
+        <v>125</v>
+      </c>
+      <c r="C114" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D114" s="28">
-        <v>1001203146834</v>
+        <v>1001061971146</v>
       </c>
       <c r="E114" s="24"/>
       <c r="F114" s="23"/>
       <c r="G114" s="23">
-        <f>E114*0.1</f>
+        <f>E114</f>
         <v>0</v>
       </c>
       <c r="H114" s="14"/>
@@ -4764,24 +4764,22 @@
     </row>
     <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="93" t="str">
-        <f>RIGHT(D115:D249,4)</f>
-        <v>6448</v>
+        <f>RIGHT(D115:D250,4)</f>
+        <v>6834</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C115" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D115" s="28">
-        <v>1001234146448</v>
+        <v>1001203146834</v>
       </c>
       <c r="E115" s="24"/>
-      <c r="F115" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F115" s="23"/>
       <c r="G115" s="23">
-        <f>F115*E115</f>
+        <f>E115*0.1</f>
         <v>0</v>
       </c>
       <c r="H115" s="14"/>
@@ -4790,21 +4788,21 @@
     </row>
     <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="93" t="str">
-        <f>RIGHT(D116:D250,4)</f>
-        <v>6221</v>
+        <f>RIGHT(D116:D251,4)</f>
+        <v>6448</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C116" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D116" s="28">
-        <v>1001205376221</v>
+        <v>1001234146448</v>
       </c>
       <c r="E116" s="24"/>
       <c r="F116" s="23">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G116" s="23">
         <f>F116*E116</f>
@@ -4816,21 +4814,21 @@
     </row>
     <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="93" t="str">
-        <f>RIGHT(D117:D250,4)</f>
-        <v>5679</v>
+        <f>RIGHT(D117:D252,4)</f>
+        <v>6221</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C117" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D117" s="28">
-        <v>1001190765679</v>
+        <v>1001205376221</v>
       </c>
       <c r="E117" s="24"/>
       <c r="F117" s="23">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="G117" s="23">
         <f>F117*E117</f>
@@ -4842,80 +4840,80 @@
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="93" t="str">
-        <f t="shared" ref="A118:A125" si="1">RIGHT(D118:D252,4)</f>
-        <v>4993</v>
+        <f>RIGHT(D118:D252,4)</f>
+        <v>5679</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C118" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D118" s="28">
-        <v>1001060764993</v>
+        <v>1001190765679</v>
       </c>
       <c r="E118" s="24"/>
       <c r="F118" s="23">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G118" s="23">
-        <f>E118*0.25</f>
+        <f>F118*E118</f>
         <v>0</v>
       </c>
-      <c r="H118" s="14">
-        <v>2</v>
-      </c>
-      <c r="I118" s="14">
-        <v>120</v>
-      </c>
+      <c r="H118" s="14"/>
+      <c r="I118" s="14"/>
       <c r="J118" s="39"/>
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>7105</v>
+        <f>RIGHT(D119:D254,4)</f>
+        <v>4993</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C119" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D119" s="28">
-        <v>1001203207105</v>
+        <v>1001060764993</v>
       </c>
       <c r="E119" s="24"/>
       <c r="F119" s="23">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="G119" s="23">
-        <f t="shared" ref="G119:G126" si="2">F119*E119</f>
+        <f>E119*0.25</f>
         <v>0</v>
       </c>
-      <c r="H119" s="14"/>
-      <c r="I119" s="14"/>
+      <c r="H119" s="14">
+        <v>2</v>
+      </c>
+      <c r="I119" s="14">
+        <v>120</v>
+      </c>
       <c r="J119" s="39"/>
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>7106</v>
+        <f>RIGHT(D120:D255,4)</f>
+        <v>7105</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C120" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D120" s="28">
-        <v>1001205447106</v>
+        <v>1001203207105</v>
       </c>
       <c r="E120" s="24"/>
       <c r="F120" s="23">
         <v>0.09</v>
       </c>
       <c r="G120" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G120:G128" si="0">F120*E120</f>
         <v>0</v>
       </c>
       <c r="H120" s="14"/>
@@ -4924,24 +4922,24 @@
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>7107</v>
+        <f>RIGHT(D121:D256,4)</f>
+        <v>7106</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C121" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D121" s="28">
-        <v>1001205467107</v>
+        <v>1001205447106</v>
       </c>
       <c r="E121" s="24"/>
       <c r="F121" s="23">
         <v>0.09</v>
       </c>
       <c r="G121" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H121" s="14"/>
@@ -4950,24 +4948,24 @@
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>7147</v>
+        <f>RIGHT(D122:D257,4)</f>
+        <v>7107</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C122" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D122" s="28">
-        <v>1001063237147</v>
+        <v>1001205467107</v>
       </c>
       <c r="E122" s="24"/>
       <c r="F122" s="23">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="G122" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H122" s="14"/>
@@ -4976,24 +4974,24 @@
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>7225</v>
+        <f>RIGHT(D123:D258,4)</f>
+        <v>7147</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C123" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D123" s="28">
-        <v>1001066537225</v>
+        <v>1001063237147</v>
       </c>
       <c r="E123" s="24"/>
       <c r="F123" s="23">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="G123" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H123" s="14"/>
@@ -5002,24 +5000,24 @@
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>7227</v>
+        <f>RIGHT(D124:D259,4)</f>
+        <v>7229</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>136</v>
+        <v>248</v>
       </c>
       <c r="C124" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D124" s="28">
-        <v>1001063097227</v>
+        <v>1001063237229</v>
       </c>
       <c r="E124" s="24"/>
       <c r="F124" s="23">
         <v>0.18</v>
       </c>
       <c r="G124" s="23">
-        <f t="shared" si="2"/>
+        <f>F124*E124</f>
         <v>0</v>
       </c>
       <c r="H124" s="14"/>
@@ -5028,24 +5026,24 @@
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>7226</v>
+        <f t="shared" ref="A125:A127" si="1">RIGHT(D125:D259,4)</f>
+        <v>7225</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>246</v>
+        <v>135</v>
       </c>
       <c r="C125" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D125" s="28">
-        <v>1001066527226</v>
+        <v>1001066537225</v>
       </c>
       <c r="E125" s="24"/>
       <c r="F125" s="23">
         <v>0.18</v>
       </c>
       <c r="G125" s="23">
-        <f t="shared" ref="G125" si="3">F125*E125</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H125" s="14"/>
@@ -5054,24 +5052,24 @@
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="93" t="str">
-        <f>RIGHT(D126:D253,4)</f>
-        <v>3684</v>
+        <f t="shared" si="1"/>
+        <v>7227</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C126" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D126" s="28">
-        <v>1001062353684</v>
+        <v>1001063097227</v>
       </c>
       <c r="E126" s="24"/>
       <c r="F126" s="23">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="G126" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H126" s="14"/>
@@ -5080,235 +5078,235 @@
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="93" t="str">
-        <f>RIGHT(D127:D253,4)</f>
-        <v>5682</v>
+        <f t="shared" si="1"/>
+        <v>7226</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="C127" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D127" s="28">
-        <v>1001193115682</v>
+        <v>1001066527226</v>
       </c>
       <c r="E127" s="24"/>
       <c r="F127" s="23">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G127" s="23">
-        <f>E127*0.12</f>
+        <f t="shared" ref="G127" si="2">F127*E127</f>
         <v>0</v>
       </c>
-      <c r="H127" s="14">
-        <v>0.96</v>
-      </c>
-      <c r="I127" s="14">
-        <v>60</v>
-      </c>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
       <c r="J127" s="39"/>
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="93" t="str">
-        <f>RIGHT(D128:D256,4)</f>
-        <v>4117</v>
+        <f>RIGHT(D128:D255,4)</f>
+        <v>3684</v>
       </c>
       <c r="B128" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="C128" s="30" t="s">
-        <v>23</v>
+        <v>137</v>
+      </c>
+      <c r="C128" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D128" s="28">
-        <v>1001062504117</v>
+        <v>1001062353684</v>
       </c>
       <c r="E128" s="24"/>
       <c r="F128" s="23">
-        <v>0.48749999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="G128" s="23">
-        <f>E128*1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H128" s="14">
-        <v>3.9</v>
-      </c>
-      <c r="I128" s="14">
-        <v>120</v>
-      </c>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
       <c r="J128" s="39"/>
     </row>
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="93" t="str">
-        <f>RIGHT(D129:D257,4)</f>
-        <v>3680</v>
+        <f>RIGHT(D129:D255,4)</f>
+        <v>5682</v>
       </c>
       <c r="B129" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C129" s="30" t="s">
-        <v>23</v>
+        <v>138</v>
+      </c>
+      <c r="C129" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D129" s="28">
-        <v>1001062353680</v>
+        <v>1001193115682</v>
       </c>
       <c r="E129" s="24"/>
-      <c r="F129" s="23"/>
+      <c r="F129" s="23">
+        <v>0.12</v>
+      </c>
       <c r="G129" s="23">
-        <f>E129</f>
+        <f>E129*0.12</f>
         <v>0</v>
       </c>
-      <c r="H129" s="14"/>
-      <c r="I129" s="14"/>
+      <c r="H129" s="14">
+        <v>0.96</v>
+      </c>
+      <c r="I129" s="14">
+        <v>60</v>
+      </c>
       <c r="J129" s="39"/>
     </row>
     <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="93" t="str">
-        <f>RIGHT(D130:D257,4)</f>
-        <v>5483</v>
+        <f>RIGHT(D130:D258,4)</f>
+        <v>4117</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="C130" s="33" t="s">
-        <v>26</v>
+        <v>139</v>
+      </c>
+      <c r="C130" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D130" s="28">
-        <v>1001062505483</v>
+        <v>1001062504117</v>
       </c>
       <c r="E130" s="24"/>
       <c r="F130" s="23">
-        <v>0.25</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="G130" s="23">
-        <f>E130*0.25</f>
+        <f>E130*1</f>
         <v>0</v>
       </c>
       <c r="H130" s="14">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="I130" s="14">
         <v>120</v>
       </c>
       <c r="J130" s="39"/>
     </row>
-    <row r="131" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="93" t="str">
-        <f>RIGHT(D131:D258,4)</f>
-        <v>6453</v>
+        <f>RIGHT(D131:D259,4)</f>
+        <v>3680</v>
       </c>
       <c r="B131" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="C131" s="33" t="s">
-        <v>26</v>
+        <v>140</v>
+      </c>
+      <c r="C131" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D131" s="28">
-        <v>1001202506453</v>
+        <v>1001062353680</v>
       </c>
       <c r="E131" s="24"/>
-      <c r="F131" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F131" s="23"/>
       <c r="G131" s="23">
-        <f>E131*0.1</f>
+        <f>E131</f>
         <v>0</v>
       </c>
-      <c r="H131" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="I131" s="14">
-        <v>60</v>
-      </c>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
       <c r="J131" s="39"/>
     </row>
-    <row r="132" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="93" t="str">
         <f>RIGHT(D132:D259,4)</f>
+        <v>5483</v>
+      </c>
+      <c r="B132" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C132" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D132" s="28">
+        <v>1001062505483</v>
+      </c>
+      <c r="E132" s="24"/>
+      <c r="F132" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="G132" s="23">
+        <f>E132*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="H132" s="14">
+        <v>2</v>
+      </c>
+      <c r="I132" s="14">
+        <v>120</v>
+      </c>
+      <c r="J132" s="39"/>
+    </row>
+    <row r="133" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="93" t="str">
+        <f>RIGHT(D133:D260,4)</f>
+        <v>6453</v>
+      </c>
+      <c r="B133" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="C133" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133" s="28">
+        <v>1001202506453</v>
+      </c>
+      <c r="E133" s="24"/>
+      <c r="F133" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G133" s="23">
+        <f>E133*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="H133" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I133" s="14">
+        <v>60</v>
+      </c>
+      <c r="J133" s="39"/>
+    </row>
+    <row r="134" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="93" t="str">
+        <f>RIGHT(D134:D261,4)</f>
         <v/>
       </c>
-      <c r="B132" s="74" t="s">
+      <c r="B134" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="C132" s="74"/>
-      <c r="D132" s="74"/>
-      <c r="E132" s="74"/>
-      <c r="F132" s="73"/>
-      <c r="G132" s="74"/>
-      <c r="H132" s="74"/>
-      <c r="I132" s="74"/>
-      <c r="J132" s="75"/>
-    </row>
-    <row r="133" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="93" t="str">
-        <f>RIGHT(D133:D263,4)</f>
-        <v>6470</v>
-      </c>
-      <c r="B133" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C133" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D133" s="80">
-        <v>1001092436470</v>
-      </c>
-      <c r="E133" s="24"/>
-      <c r="F133" s="23"/>
-      <c r="G133" s="23">
-        <f>E133*1</f>
-        <v>0</v>
-      </c>
-      <c r="H133" s="14"/>
-      <c r="I133" s="14"/>
-      <c r="J133" s="39"/>
-    </row>
-    <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="93" t="str">
-        <f>RIGHT(D134:D264,4)</f>
-        <v>6495</v>
-      </c>
-      <c r="B134" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="C134" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D134" s="80">
-        <v>1001092436495</v>
-      </c>
-      <c r="E134" s="24"/>
-      <c r="F134" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G134" s="23">
-        <f>F134*E134</f>
-        <v>0</v>
-      </c>
-      <c r="H134" s="14"/>
-      <c r="I134" s="14"/>
-      <c r="J134" s="39"/>
-    </row>
-    <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C134" s="74"/>
+      <c r="D134" s="74"/>
+      <c r="E134" s="74"/>
+      <c r="F134" s="73"/>
+      <c r="G134" s="74"/>
+      <c r="H134" s="74"/>
+      <c r="I134" s="74"/>
+      <c r="J134" s="75"/>
+    </row>
+    <row r="135" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A135" s="93" t="str">
         <f>RIGHT(D135:D265,4)</f>
-        <v>7235</v>
+        <v>6470</v>
       </c>
       <c r="B135" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D135" s="80">
-        <v>1001095227235</v>
+        <v>1001092436470</v>
       </c>
       <c r="E135" s="24"/>
-      <c r="F135" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F135" s="23"/>
       <c r="G135" s="23">
-        <f>F135*E135</f>
+        <f>E135*1</f>
         <v>0</v>
       </c>
       <c r="H135" s="14"/>
@@ -5318,16 +5316,16 @@
     <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="93" t="str">
         <f>RIGHT(D136:D266,4)</f>
-        <v>6411</v>
+        <v>6495</v>
       </c>
       <c r="B136" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C136" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D136" s="80">
-        <v>1001093316411</v>
+        <v>1001092436495</v>
       </c>
       <c r="E136" s="24"/>
       <c r="F136" s="23">
@@ -5343,22 +5341,24 @@
     </row>
     <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="93" t="str">
-        <f>RIGHT(D137:D264,4)</f>
-        <v>6866</v>
+        <f>RIGHT(D137:D267,4)</f>
+        <v>7235</v>
       </c>
       <c r="B137" s="29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D137" s="80">
-        <v>1001095716866</v>
+        <v>1001095227235</v>
       </c>
       <c r="E137" s="24"/>
-      <c r="F137" s="23"/>
+      <c r="F137" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G137" s="23">
-        <f>E137*1</f>
+        <f>F137*E137</f>
         <v>0</v>
       </c>
       <c r="H137" s="14"/>
@@ -5367,177 +5367,175 @@
     </row>
     <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="93" t="str">
-        <f>RIGHT(D138:D261,4)</f>
-        <v>3215</v>
-      </c>
-      <c r="B138" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C138" s="37" t="s">
+        <f>RIGHT(D138:D268,4)</f>
+        <v>6411</v>
+      </c>
+      <c r="B138" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C138" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D138" s="51">
-        <v>1001094053215</v>
+      <c r="D138" s="80">
+        <v>1001093316411</v>
       </c>
       <c r="E138" s="24"/>
       <c r="F138" s="23">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G138" s="23">
-        <f>E138*0.4</f>
+        <f>F138*E138</f>
         <v>0</v>
       </c>
-      <c r="H138" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I138" s="14">
-        <v>60</v>
-      </c>
+      <c r="H138" s="14"/>
+      <c r="I138" s="14"/>
       <c r="J138" s="39"/>
     </row>
-    <row r="139" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="93" t="str">
-        <f>RIGHT(D139:D262,4)</f>
-        <v>7245</v>
-      </c>
-      <c r="B139" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="C139" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D139" s="51">
-        <v>1001092687245</v>
+        <f>RIGHT(D139:D266,4)</f>
+        <v>6866</v>
+      </c>
+      <c r="B139" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C139" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D139" s="80">
+        <v>1001095716866</v>
       </c>
       <c r="E139" s="24"/>
-      <c r="F139" s="23">
-        <v>0.4</v>
-      </c>
+      <c r="F139" s="23"/>
       <c r="G139" s="23">
-        <f>E139*0.4</f>
+        <f>E139*1</f>
         <v>0</v>
       </c>
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
       <c r="J139" s="39"/>
     </row>
-    <row r="140" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="93" t="str">
-        <f>RIGHT(D140:D264,4)</f>
-        <v/>
-      </c>
-      <c r="B140" s="74" t="s">
-        <v>151</v>
-      </c>
-      <c r="C140" s="74"/>
-      <c r="D140" s="74"/>
-      <c r="E140" s="74"/>
-      <c r="F140" s="73"/>
-      <c r="G140" s="74"/>
-      <c r="H140" s="74"/>
-      <c r="I140" s="74"/>
-      <c r="J140" s="75"/>
-    </row>
-    <row r="141" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D140:D263,4)</f>
+        <v>3215</v>
+      </c>
+      <c r="B140" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C140" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D140" s="51">
+        <v>1001094053215</v>
+      </c>
+      <c r="E140" s="24"/>
+      <c r="F140" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="G140" s="23">
+        <f>E140*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="H140" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I140" s="14">
+        <v>60</v>
+      </c>
+      <c r="J140" s="39"/>
+    </row>
+    <row r="141" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="93" t="str">
-        <f>RIGHT(D141:D267,4)</f>
-        <v>7090</v>
-      </c>
-      <c r="B141" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="C141" s="35" t="s">
+        <f>RIGHT(D141:D264,4)</f>
+        <v>7245</v>
+      </c>
+      <c r="B141" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C141" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D141" s="28">
-        <v>1001084217090</v>
+      <c r="D141" s="51">
+        <v>1001092687245</v>
       </c>
       <c r="E141" s="24"/>
       <c r="F141" s="23">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G141" s="23">
-        <f>E141*F141</f>
+        <f>E141*0.4</f>
         <v>0</v>
       </c>
       <c r="H141" s="14"/>
-      <c r="I141" s="14">
-        <v>50</v>
-      </c>
+      <c r="I141" s="14"/>
       <c r="J141" s="39"/>
     </row>
-    <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="93" t="str">
-        <f>RIGHT(D142:D268,4)</f>
-        <v>4691</v>
-      </c>
-      <c r="B142" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="C142" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D142" s="28">
-        <v>1001083424691</v>
-      </c>
-      <c r="E142" s="24"/>
-      <c r="F142" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G142" s="23">
-        <f t="shared" ref="G142:G148" si="4">F142*E142</f>
-        <v>0</v>
-      </c>
-      <c r="H142" s="14"/>
-      <c r="I142" s="14"/>
-      <c r="J142" s="92"/>
-    </row>
-    <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D142:D266,4)</f>
+        <v/>
+      </c>
+      <c r="B142" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="C142" s="74"/>
+      <c r="D142" s="74"/>
+      <c r="E142" s="74"/>
+      <c r="F142" s="73"/>
+      <c r="G142" s="74"/>
+      <c r="H142" s="74"/>
+      <c r="I142" s="74"/>
+      <c r="J142" s="75"/>
+    </row>
+    <row r="143" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A143" s="93" t="str">
         <f>RIGHT(D143:D269,4)</f>
-        <v>7187</v>
+        <v>7090</v>
       </c>
       <c r="B143" s="47" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C143" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D143" s="28">
-        <v>1001085637187</v>
+        <v>1001084217090</v>
       </c>
       <c r="E143" s="24"/>
       <c r="F143" s="23">
         <v>0.3</v>
       </c>
       <c r="G143" s="23">
-        <f t="shared" si="4"/>
+        <f>E143*F143</f>
         <v>0</v>
       </c>
       <c r="H143" s="14"/>
-      <c r="I143" s="14"/>
-      <c r="J143" s="92"/>
+      <c r="I143" s="14">
+        <v>50</v>
+      </c>
+      <c r="J143" s="39"/>
     </row>
     <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="93" t="str">
         <f>RIGHT(D144:D270,4)</f>
-        <v>6201</v>
+        <v>4691</v>
       </c>
       <c r="B144" s="47" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C144" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D144" s="28">
-        <v>1001225636201</v>
+        <v>1001083424691</v>
       </c>
       <c r="E144" s="24"/>
       <c r="F144" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G144" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G144:G150" si="3">F144*E144</f>
         <v>0</v>
       </c>
       <c r="H144" s="14"/>
@@ -5546,24 +5544,24 @@
     </row>
     <row r="145" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="93" t="str">
-        <f>RIGHT(D145:D270,4)</f>
-        <v>6842</v>
+        <f>RIGHT(D145:D271,4)</f>
+        <v>7187</v>
       </c>
       <c r="B145" s="47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C145" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D145" s="28">
-        <v>1001080216842</v>
+        <v>1001085637187</v>
       </c>
       <c r="E145" s="24"/>
       <c r="F145" s="23">
         <v>0.3</v>
       </c>
       <c r="G145" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H145" s="14"/>
@@ -5572,24 +5570,24 @@
     </row>
     <row r="146" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="93" t="str">
-        <f>RIGHT(D146:D270,4)</f>
-        <v>6492</v>
+        <f>RIGHT(D146:D272,4)</f>
+        <v>6201</v>
       </c>
       <c r="B146" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C146" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D146" s="28">
-        <v>1001084226492</v>
+        <v>1001225636201</v>
       </c>
       <c r="E146" s="24"/>
       <c r="F146" s="23">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="G146" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H146" s="14"/>
@@ -5598,24 +5596,24 @@
     </row>
     <row r="147" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="93" t="str">
-        <f>RIGHT(D147:D268,4)</f>
-        <v>6279</v>
+        <f>RIGHT(D147:D272,4)</f>
+        <v>6842</v>
       </c>
       <c r="B147" s="47" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C147" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D147" s="28">
-        <v>1001220286279</v>
+        <v>1001080216842</v>
       </c>
       <c r="E147" s="24"/>
       <c r="F147" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G147" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H147" s="14"/>
@@ -5624,24 +5622,24 @@
     </row>
     <row r="148" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="93" t="str">
-        <f>RIGHT(D148:D269,4)</f>
-        <v>4786</v>
+        <f>RIGHT(D148:D272,4)</f>
+        <v>6492</v>
       </c>
       <c r="B148" s="47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C148" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D148" s="28">
-        <v>1001053944786</v>
+        <v>1001084226492</v>
       </c>
       <c r="E148" s="24"/>
       <c r="F148" s="23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.3</v>
       </c>
       <c r="G148" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H148" s="14"/>
@@ -5651,23 +5649,23 @@
     <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="93" t="str">
         <f>RIGHT(D149:D270,4)</f>
-        <v>7052</v>
+        <v>6279</v>
       </c>
       <c r="B149" s="47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C149" s="35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D149" s="28">
-        <v>1001204447052</v>
+        <v>1001220286279</v>
       </c>
       <c r="E149" s="24"/>
       <c r="F149" s="23">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="G149" s="23">
-        <f>E149</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H149" s="14"/>
@@ -5676,24 +5674,24 @@
     </row>
     <row r="150" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="93" t="str">
-        <f>RIGHT(D150:D270,4)</f>
-        <v>7053</v>
+        <f>RIGHT(D150:D271,4)</f>
+        <v>4786</v>
       </c>
       <c r="B150" s="47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C150" s="35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D150" s="28">
-        <v>1001223297053</v>
+        <v>1001053944786</v>
       </c>
       <c r="E150" s="24"/>
       <c r="F150" s="23">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G150" s="23">
-        <f>E150</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H150" s="14"/>
@@ -5702,263 +5700,268 @@
     </row>
     <row r="151" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="93" t="str">
-        <f>RIGHT(D151:D270,4)</f>
-        <v>7092</v>
-      </c>
-      <c r="B151" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C151" s="33" t="s">
-        <v>26</v>
+        <f>RIGHT(D151:D272,4)</f>
+        <v>7052</v>
+      </c>
+      <c r="B151" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C151" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D151" s="28">
-        <v>1001223297092</v>
+        <v>1001204447052</v>
       </c>
       <c r="E151" s="24"/>
       <c r="F151" s="23">
-        <v>0.14000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G151" s="23">
-        <f>F151*E151</f>
+        <f>E151</f>
         <v>0</v>
       </c>
       <c r="H151" s="14"/>
       <c r="I151" s="14"/>
-      <c r="J151" s="39"/>
+      <c r="J151" s="92"/>
     </row>
     <row r="152" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="93" t="str">
-        <f>RIGHT(D152:D271,4)</f>
-        <v>7103</v>
-      </c>
-      <c r="B152" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C152" s="33" t="s">
-        <v>26</v>
+        <f>RIGHT(D152:D272,4)</f>
+        <v>7053</v>
+      </c>
+      <c r="B152" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="C152" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D152" s="28">
-        <v>1001223297103</v>
+        <v>1001223297053</v>
       </c>
       <c r="E152" s="24"/>
       <c r="F152" s="23">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="G152" s="23">
-        <f>F152*E152</f>
+        <f>E152</f>
         <v>0</v>
       </c>
       <c r="H152" s="14"/>
       <c r="I152" s="14"/>
       <c r="J152" s="92"/>
     </row>
-    <row r="153" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="93" t="str">
-        <f>RIGHT(D153:D268,4)</f>
-        <v>6919</v>
-      </c>
-      <c r="B153" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="C153" s="35" t="s">
+        <f>RIGHT(D153:D272,4)</f>
+        <v>7092</v>
+      </c>
+      <c r="B153" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C153" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D153" s="28">
-        <v>1001223296919</v>
+        <v>1001223297092</v>
       </c>
       <c r="E153" s="24"/>
-      <c r="F153" s="23"/>
+      <c r="F153" s="23">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="G153" s="23">
-        <f>E153*0.18</f>
+        <f>F153*E153</f>
         <v>0</v>
       </c>
       <c r="H153" s="14"/>
       <c r="I153" s="14"/>
-      <c r="J153" s="92"/>
-    </row>
-    <row r="154" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J153" s="39"/>
+    </row>
+    <row r="154" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="93" t="str">
-        <f>RIGHT(D154:D269,4)</f>
+        <f>RIGHT(D154:D273,4)</f>
+        <v>7103</v>
+      </c>
+      <c r="B154" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C154" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D154" s="28">
+        <v>1001223297103</v>
+      </c>
+      <c r="E154" s="24"/>
+      <c r="F154" s="23">
+        <v>0.18</v>
+      </c>
+      <c r="G154" s="23">
+        <f>F154*E154</f>
+        <v>0</v>
+      </c>
+      <c r="H154" s="14"/>
+      <c r="I154" s="14"/>
+      <c r="J154" s="92"/>
+    </row>
+    <row r="155" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="93" t="str">
+        <f>RIGHT(D155:D270,4)</f>
+        <v>6919</v>
+      </c>
+      <c r="B155" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="C155" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D155" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E155" s="24"/>
+      <c r="F155" s="23"/>
+      <c r="G155" s="23">
+        <f>E155*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H155" s="14"/>
+      <c r="I155" s="14"/>
+      <c r="J155" s="92"/>
+    </row>
+    <row r="156" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="93" t="str">
+        <f>RIGHT(D156:D271,4)</f>
         <v/>
       </c>
-      <c r="B154" s="74" t="s">
+      <c r="B156" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="C154" s="74"/>
-      <c r="D154" s="74"/>
-      <c r="E154" s="74"/>
-      <c r="F154" s="73"/>
-      <c r="G154" s="74"/>
-      <c r="H154" s="74"/>
-      <c r="I154" s="74"/>
-      <c r="J154" s="75"/>
-    </row>
-    <row r="155" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="93" t="str">
-        <f>RIGHT(D155:D272,4)</f>
-        <v/>
-      </c>
-      <c r="B155" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="C155" s="74"/>
-      <c r="D155" s="74"/>
-      <c r="E155" s="74"/>
-      <c r="F155" s="73"/>
-      <c r="G155" s="74"/>
-      <c r="H155" s="74"/>
-      <c r="I155" s="74"/>
-      <c r="J155" s="75"/>
-    </row>
-    <row r="156" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="93" t="str">
-        <f>RIGHT(D156:D273,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B156" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="C156" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D156" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E156" s="24"/>
-      <c r="F156" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G156" s="23">
-        <f>E156*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H156" s="14">
-        <v>8</v>
-      </c>
-      <c r="I156" s="72">
-        <v>120</v>
-      </c>
-      <c r="J156" s="39"/>
-    </row>
-    <row r="157" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C156" s="74"/>
+      <c r="D156" s="74"/>
+      <c r="E156" s="74"/>
+      <c r="F156" s="73"/>
+      <c r="G156" s="74"/>
+      <c r="H156" s="74"/>
+      <c r="I156" s="74"/>
+      <c r="J156" s="75"/>
+    </row>
+    <row r="157" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="93" t="str">
         <f>RIGHT(D157:D274,4)</f>
-        <v>6155</v>
-      </c>
-      <c r="B157" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="C157" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D157" s="28">
-        <v>1002115036155</v>
-      </c>
-      <c r="E157" s="24"/>
-      <c r="F157" s="23"/>
-      <c r="G157" s="23">
-        <f>E157*0.45</f>
-        <v>0</v>
-      </c>
-      <c r="H157" s="14"/>
-      <c r="I157" s="72"/>
-      <c r="J157" s="39"/>
-    </row>
-    <row r="158" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B157" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="C157" s="74"/>
+      <c r="D157" s="74"/>
+      <c r="E157" s="74"/>
+      <c r="F157" s="73"/>
+      <c r="G157" s="74"/>
+      <c r="H157" s="74"/>
+      <c r="I157" s="74"/>
+      <c r="J157" s="75"/>
+    </row>
+    <row r="158" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A158" s="93" t="str">
         <f>RIGHT(D158:D275,4)</f>
-        <v>6157</v>
+        <v>6314</v>
       </c>
       <c r="B158" s="47" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C158" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D158" s="28">
+        <v>1002112606314</v>
+      </c>
+      <c r="E158" s="24"/>
+      <c r="F158" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G158" s="23">
+        <f>E158*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H158" s="14">
+        <v>8</v>
+      </c>
+      <c r="I158" s="72">
+        <v>120</v>
+      </c>
+      <c r="J158" s="39"/>
+    </row>
+    <row r="159" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="93" t="str">
+        <f>RIGHT(D159:D276,4)</f>
+        <v>6155</v>
+      </c>
+      <c r="B159" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="C159" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D159" s="28">
+        <v>1002115036155</v>
+      </c>
+      <c r="E159" s="24"/>
+      <c r="F159" s="23"/>
+      <c r="G159" s="23">
+        <f>E159*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H159" s="14"/>
+      <c r="I159" s="72"/>
+      <c r="J159" s="39"/>
+    </row>
+    <row r="160" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="93" t="str">
+        <f>RIGHT(D160:D277,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B160" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C160" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D160" s="28">
         <v>1002115056157</v>
       </c>
-      <c r="E158" s="24"/>
-      <c r="F158" s="23"/>
-      <c r="G158" s="23">
-        <f>E158*0.45</f>
+      <c r="E160" s="24"/>
+      <c r="F160" s="23"/>
+      <c r="G160" s="23">
+        <f>E160*0.45</f>
         <v>0</v>
       </c>
-      <c r="H158" s="14"/>
-      <c r="I158" s="72"/>
-      <c r="J158" s="39"/>
-    </row>
-    <row r="159" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="93" t="str">
-        <f t="shared" ref="A159:A170" si="5">RIGHT(D159:D274,4)</f>
+      <c r="H160" s="14"/>
+      <c r="I160" s="72"/>
+      <c r="J160" s="39"/>
+    </row>
+    <row r="161" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="93" t="str">
+        <f t="shared" ref="A161:A172" si="4">RIGHT(D161:D276,4)</f>
         <v>6313</v>
       </c>
-      <c r="B159" s="47" t="s">
+      <c r="B161" s="47" t="s">
         <v>170</v>
-      </c>
-      <c r="C159" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D159" s="28">
-        <v>1002112606313</v>
-      </c>
-      <c r="E159" s="24"/>
-      <c r="F159" s="23">
-        <v>0.9</v>
-      </c>
-      <c r="G159" s="23">
-        <f>E159*0.9</f>
-        <v>0</v>
-      </c>
-      <c r="H159" s="14">
-        <v>9</v>
-      </c>
-      <c r="I159" s="72">
-        <v>120</v>
-      </c>
-      <c r="J159" s="39"/>
-    </row>
-    <row r="160" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="93" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="B160" s="74" t="s">
-        <v>171</v>
-      </c>
-      <c r="C160" s="74"/>
-      <c r="D160" s="74"/>
-      <c r="E160" s="74"/>
-      <c r="F160" s="73"/>
-      <c r="G160" s="74"/>
-      <c r="H160" s="74"/>
-      <c r="I160" s="74"/>
-      <c r="J160" s="75"/>
-    </row>
-    <row r="161" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="93" t="str">
-        <f t="shared" si="5"/>
-        <v>4945</v>
-      </c>
-      <c r="B161" s="47" t="s">
-        <v>172</v>
       </c>
       <c r="C161" s="36" t="s">
         <v>26</v>
       </c>
       <c r="D161" s="28">
-        <v>1002151784945</v>
+        <v>1002112606313</v>
       </c>
       <c r="E161" s="24"/>
       <c r="F161" s="23">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="G161" s="23">
-        <f>E161*0.5</f>
+        <f>E161*0.9</f>
         <v>0</v>
       </c>
       <c r="H161" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I161" s="72">
         <v>120</v>
@@ -5967,11 +5970,11 @@
     </row>
     <row r="162" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="93" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B162" s="74" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C162" s="74"/>
       <c r="D162" s="74"/>
@@ -5982,204 +5985,191 @@
       <c r="I162" s="74"/>
       <c r="J162" s="75"/>
     </row>
-    <row r="163" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="93" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
+        <v>4945</v>
+      </c>
+      <c r="B163" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="C163" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D163" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E163" s="24"/>
+      <c r="F163" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G163" s="23">
+        <f>E163*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H163" s="14">
+        <v>8</v>
+      </c>
+      <c r="I163" s="72">
+        <v>120</v>
+      </c>
+      <c r="J163" s="39"/>
+    </row>
+    <row r="164" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="93" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B164" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="C164" s="74"/>
+      <c r="D164" s="74"/>
+      <c r="E164" s="74"/>
+      <c r="F164" s="73"/>
+      <c r="G164" s="74"/>
+      <c r="H164" s="74"/>
+      <c r="I164" s="74"/>
+      <c r="J164" s="75"/>
+    </row>
+    <row r="165" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="93" t="str">
+        <f t="shared" si="4"/>
         <v>4956</v>
       </c>
-      <c r="B163" s="89" t="s">
+      <c r="B165" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="C163" s="90" t="s">
+      <c r="C165" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D163" s="83">
+      <c r="D165" s="83">
         <v>1002133974956</v>
       </c>
-      <c r="E163" s="84"/>
-      <c r="F163" s="85">
+      <c r="E165" s="84"/>
+      <c r="F165" s="85">
         <v>0.42</v>
       </c>
-      <c r="G163" s="85">
-        <f>E163*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H163" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="I163" s="91">
-        <v>120</v>
-      </c>
-      <c r="J163" s="86"/>
-      <c r="K163" s="87"/>
-    </row>
-    <row r="164" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="93" t="str">
-        <f t="shared" si="5"/>
-        <v>1762</v>
-      </c>
-      <c r="B164" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="C164" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D164" s="28">
-        <v>1002131151762</v>
-      </c>
-      <c r="E164" s="24"/>
-      <c r="F164" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G164" s="23">
-        <f>E164*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H164" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="I164" s="72">
-        <v>120</v>
-      </c>
-      <c r="J164" s="39"/>
-    </row>
-    <row r="165" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="93" t="str">
-        <f t="shared" si="5"/>
-        <v>1764</v>
-      </c>
-      <c r="B165" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="C165" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D165" s="28">
-        <v>1002131181764</v>
-      </c>
-      <c r="E165" s="24"/>
-      <c r="F165" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G165" s="23">
+      <c r="G165" s="85">
         <f>E165*0.42</f>
         <v>0</v>
       </c>
-      <c r="H165" s="14">
+      <c r="H165" s="86">
         <v>4.2</v>
       </c>
-      <c r="I165" s="72">
+      <c r="I165" s="91">
         <v>120</v>
       </c>
-      <c r="J165" s="39"/>
-    </row>
-    <row r="166" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J165" s="86"/>
+      <c r="K165" s="87"/>
+    </row>
+    <row r="166" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A166" s="93" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="B166" s="74" t="s">
-        <v>177</v>
-      </c>
-      <c r="C166" s="74"/>
-      <c r="D166" s="74"/>
-      <c r="E166" s="74"/>
-      <c r="F166" s="73"/>
-      <c r="G166" s="74"/>
-      <c r="H166" s="74"/>
-      <c r="I166" s="74"/>
-      <c r="J166" s="75"/>
-    </row>
-    <row r="167" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>1762</v>
+      </c>
+      <c r="B166" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="C166" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D166" s="28">
+        <v>1002131151762</v>
+      </c>
+      <c r="E166" s="24"/>
+      <c r="F166" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G166" s="23">
+        <f>E166*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H166" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I166" s="72">
+        <v>120</v>
+      </c>
+      <c r="J166" s="39"/>
+    </row>
+    <row r="167" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="93" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="B167" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="C167" s="74"/>
-      <c r="D167" s="74"/>
-      <c r="E167" s="74"/>
-      <c r="F167" s="73"/>
-      <c r="G167" s="74"/>
-      <c r="H167" s="74"/>
-      <c r="I167" s="74"/>
-      <c r="J167" s="75"/>
+        <f t="shared" si="4"/>
+        <v>1764</v>
+      </c>
+      <c r="B167" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C167" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D167" s="28">
+        <v>1002131181764</v>
+      </c>
+      <c r="E167" s="24"/>
+      <c r="F167" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G167" s="23">
+        <f>E167*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H167" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I167" s="72">
+        <v>120</v>
+      </c>
+      <c r="J167" s="39"/>
     </row>
     <row r="168" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="93" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B168" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="C168" s="74"/>
+      <c r="D168" s="74"/>
+      <c r="E168" s="74"/>
+      <c r="F168" s="73"/>
+      <c r="G168" s="74"/>
+      <c r="H168" s="74"/>
+      <c r="I168" s="74"/>
+      <c r="J168" s="75"/>
+    </row>
+    <row r="169" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="93" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B169" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="C169" s="74"/>
+      <c r="D169" s="74"/>
+      <c r="E169" s="74"/>
+      <c r="F169" s="73"/>
+      <c r="G169" s="74"/>
+      <c r="H169" s="74"/>
+      <c r="I169" s="74"/>
+      <c r="J169" s="75"/>
+    </row>
+    <row r="170" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="93" t="str">
+        <f t="shared" si="4"/>
         <v>6004</v>
       </c>
-      <c r="B168" s="47" t="s">
+      <c r="B170" s="47" t="s">
         <v>179</v>
-      </c>
-      <c r="C168" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D168" s="68" t="s">
-        <v>180</v>
-      </c>
-      <c r="E168" s="24"/>
-      <c r="F168" s="23">
-        <v>1</v>
-      </c>
-      <c r="G168" s="23">
-        <f>E168*1</f>
-        <v>0</v>
-      </c>
-      <c r="H168" s="14">
-        <v>8</v>
-      </c>
-      <c r="I168" s="72">
-        <v>120</v>
-      </c>
-      <c r="J168" s="39"/>
-    </row>
-    <row r="169" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="93" t="str">
-        <f t="shared" si="5"/>
-        <v>5417</v>
-      </c>
-      <c r="B169" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="C169" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D169" s="68" t="s">
-        <v>182</v>
-      </c>
-      <c r="E169" s="24"/>
-      <c r="F169" s="23">
-        <v>2</v>
-      </c>
-      <c r="G169" s="23">
-        <f>E169*1</f>
-        <v>0</v>
-      </c>
-      <c r="H169" s="14">
-        <v>6</v>
-      </c>
-      <c r="I169" s="72">
-        <v>90</v>
-      </c>
-      <c r="J169" s="39"/>
-    </row>
-    <row r="170" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="93" t="str">
-        <f t="shared" si="5"/>
-        <v>6019</v>
-      </c>
-      <c r="B170" s="47" t="s">
-        <v>183</v>
       </c>
       <c r="C170" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D170" s="69" t="s">
-        <v>184</v>
+      <c r="D170" s="68" t="s">
+        <v>180</v>
       </c>
       <c r="E170" s="24"/>
       <c r="F170" s="23">
@@ -6190,60 +6180,100 @@
         <v>0</v>
       </c>
       <c r="H170" s="14">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I170" s="72">
         <v>120</v>
       </c>
       <c r="J170" s="39"/>
     </row>
-    <row r="171" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="77"/>
-      <c r="B171" s="77" t="s">
+    <row r="171" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="93" t="str">
+        <f t="shared" si="4"/>
+        <v>5417</v>
+      </c>
+      <c r="B171" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="C171" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D171" s="68" t="s">
+        <v>182</v>
+      </c>
+      <c r="E171" s="24"/>
+      <c r="F171" s="23">
+        <v>2</v>
+      </c>
+      <c r="G171" s="23">
+        <f>E171*1</f>
+        <v>0</v>
+      </c>
+      <c r="H171" s="14">
+        <v>6</v>
+      </c>
+      <c r="I171" s="72">
+        <v>90</v>
+      </c>
+      <c r="J171" s="39"/>
+    </row>
+    <row r="172" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="93" t="str">
+        <f t="shared" si="4"/>
+        <v>6019</v>
+      </c>
+      <c r="B172" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C172" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D172" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="E172" s="24"/>
+      <c r="F172" s="23">
+        <v>1</v>
+      </c>
+      <c r="G172" s="23">
+        <f>E172*1</f>
+        <v>0</v>
+      </c>
+      <c r="H172" s="14">
+        <v>12</v>
+      </c>
+      <c r="I172" s="72">
+        <v>120</v>
+      </c>
+      <c r="J172" s="39"/>
+    </row>
+    <row r="173" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="77"/>
+      <c r="B173" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="C171" s="16"/>
-      <c r="D171" s="48"/>
-      <c r="E171" s="17">
-        <f>SUM(E5:E170)</f>
+      <c r="C173" s="16"/>
+      <c r="D173" s="48"/>
+      <c r="E173" s="17">
+        <f>SUM(E5:E172)</f>
         <v>0</v>
       </c>
-      <c r="F171" s="17">
-        <f>SUM(F10:F170)</f>
-        <v>44.613333333333316</v>
-      </c>
-      <c r="G171" s="17">
-        <f>SUM(G11:G170)</f>
+      <c r="F173" s="17">
+        <f>SUM(F10:F172)</f>
+        <v>45.123333333333314</v>
+      </c>
+      <c r="G173" s="17">
+        <f>SUM(G11:G172)</f>
         <v>0</v>
       </c>
-      <c r="H171" s="17">
-        <f>SUM(H10:H167)</f>
+      <c r="H173" s="17">
+        <f>SUM(H10:H169)</f>
         <v>128.91</v>
       </c>
-      <c r="I171" s="17"/>
-      <c r="J171" s="17"/>
-    </row>
-    <row r="172" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="53"/>
-      <c r="C172" s="18"/>
-      <c r="D172" s="52"/>
-      <c r="F172" s="19"/>
-      <c r="G172" s="19"/>
-      <c r="H172" s="20"/>
-      <c r="I172" s="20"/>
-      <c r="J172" s="21"/>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B173" s="53"/>
-      <c r="C173" s="18"/>
-      <c r="D173" s="52"/>
-      <c r="F173" s="19"/>
-      <c r="G173" s="19"/>
-      <c r="H173" s="20"/>
-      <c r="I173" s="20"/>
-      <c r="J173" s="21"/>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I173" s="17"/>
+      <c r="J173" s="17"/>
+    </row>
+    <row r="174" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B174" s="53"/>
       <c r="C174" s="18"/>
       <c r="D174" s="52"/>
@@ -21463,17 +21493,37 @@
       <c r="I1695" s="20"/>
       <c r="J1695" s="21"/>
     </row>
+    <row r="1696" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1696" s="53"/>
+      <c r="C1696" s="18"/>
+      <c r="D1696" s="52"/>
+      <c r="F1696" s="19"/>
+      <c r="G1696" s="19"/>
+      <c r="H1696" s="20"/>
+      <c r="I1696" s="20"/>
+      <c r="J1696" s="21"/>
+    </row>
+    <row r="1697" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1697" s="53"/>
+      <c r="C1697" s="18"/>
+      <c r="D1697" s="52"/>
+      <c r="F1697" s="19"/>
+      <c r="G1697" s="19"/>
+      <c r="H1697" s="20"/>
+      <c r="I1697" s="20"/>
+      <c r="J1697" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J171" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J173" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B164" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B166" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D168:D170" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D170:D172" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 02,06,25ц-выезд 04,06.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 02,06,25ц-выезд 04,06.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\чистый бланк\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428076C9-65A7-4B20-98BB-2EF648276F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53B2FFD-552E-404B-B853-CB0F3E041F0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,22 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$175</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="252">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -774,6 +782,12 @@
   </si>
   <si>
     <t>ТОМ ЯМ Папа Может сос п/о мгс 0.33кг 8шт</t>
+  </si>
+  <si>
+    <t>ДЛЯ ДЕТЕЙ сос п/о мгс 0.33кг 6шт.</t>
+  </si>
+  <si>
+    <t>СЛИВОЧНЫЕ ПМ сос п/о мгс 0.3кг 7шт.</t>
   </si>
 </sst>
 </file>
@@ -1636,9 +1650,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1676,9 +1690,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1711,9 +1725,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1746,9 +1777,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1925,11 +1973,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L1697"/>
+  <dimension ref="A1:L1699"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J178" sqref="J178"/>
+      <pane ySplit="9" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I182" sqref="I182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2074,7 +2122,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="93" t="str">
-        <f>RIGHT(D11:D172,4)</f>
+        <f>RIGHT(D11:D174,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -2105,7 +2153,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93" t="str">
-        <f>RIGHT(D12:D173,4)</f>
+        <f>RIGHT(D12:D175,4)</f>
         <v>4555</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -2130,7 +2178,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="93" t="str">
-        <f>RIGHT(D13:D173,4)</f>
+        <f>RIGHT(D13:D175,4)</f>
         <v>5992</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2154,7 +2202,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="93" t="str">
-        <f>RIGHT(D14:D174,4)</f>
+        <f>RIGHT(D14:D176,4)</f>
         <v>6268</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2178,7 +2226,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="93" t="str">
-        <f>RIGHT(D15:D175,4)</f>
+        <f>RIGHT(D15:D177,4)</f>
         <v>7126</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -2204,7 +2252,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="93" t="str">
-        <f>RIGHT(D16:D175,4)</f>
+        <f>RIGHT(D16:D177,4)</f>
         <v>6247</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2228,7 +2276,7 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="93" t="str">
-        <f>RIGHT(D17:D175,4)</f>
+        <f>RIGHT(D17:D177,4)</f>
         <v>6325</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2258,7 +2306,7 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="93" t="str">
-        <f>RIGHT(D18:D176,4)</f>
+        <f>RIGHT(D18:D178,4)</f>
         <v>6324</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2284,7 +2332,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="93" t="str">
-        <f>RIGHT(D19:D177,4)</f>
+        <f>RIGHT(D19:D179,4)</f>
         <v>6839</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2310,7 +2358,7 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="93" t="str">
-        <f>RIGHT(D20:D178,4)</f>
+        <f>RIGHT(D20:D180,4)</f>
         <v>7231</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -2334,7 +2382,7 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="93" t="str">
-        <f>RIGHT(D21:D179,4)</f>
+        <f>RIGHT(D21:D181,4)</f>
         <v>4063</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2364,7 +2412,7 @@
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="93" t="str">
-        <f>RIGHT(D22:D180,4)</f>
+        <f>RIGHT(D22:D182,4)</f>
         <v>6333</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -2394,7 +2442,7 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="93" t="str">
-        <f>RIGHT(D23:D181,4)</f>
+        <f>RIGHT(D23:D183,4)</f>
         <v>4574</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2424,7 +2472,7 @@
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="93" t="str">
-        <f>RIGHT(D24:D182,4)</f>
+        <f>RIGHT(D24:D184,4)</f>
         <v>6861</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -2454,7 +2502,7 @@
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="93" t="str">
-        <f>RIGHT(D25:D186,4)</f>
+        <f>RIGHT(D25:D188,4)</f>
         <v>6862</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -2478,7 +2526,7 @@
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="93" t="str">
-        <f>RIGHT(D26:D186,4)</f>
+        <f>RIGHT(D26:D188,4)</f>
         <v>6341</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -2502,7 +2550,7 @@
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="93" t="str">
-        <f>RIGHT(D27:D187,4)</f>
+        <f>RIGHT(D27:D189,4)</f>
         <v>5247</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -2532,7 +2580,7 @@
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="93" t="str">
-        <f>RIGHT(D28:D190,4)</f>
+        <f>RIGHT(D28:D192,4)</f>
         <v>4813</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -2562,7 +2610,7 @@
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="93" t="str">
-        <f>RIGHT(D29:D191,4)</f>
+        <f>RIGHT(D29:D193,4)</f>
         <v>6392</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -2592,7 +2640,7 @@
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="93" t="str">
-        <f>RIGHT(D30:D192,4)</f>
+        <f>RIGHT(D30:D194,4)</f>
         <v>6801</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -2618,7 +2666,7 @@
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="93" t="str">
-        <f>RIGHT(D31:D193,4)</f>
+        <f>RIGHT(D31:D195,4)</f>
         <v>6802</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -2642,7 +2690,7 @@
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="93" t="str">
-        <f>RIGHT(D32:D194,4)</f>
+        <f>RIGHT(D32:D196,4)</f>
         <v>6877</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -2666,7 +2714,7 @@
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="93" t="str">
-        <f>RIGHT(D33:D195,4)</f>
+        <f>RIGHT(D33:D197,4)</f>
         <v>6888</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -2692,7 +2740,7 @@
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="93" t="str">
-        <f>RIGHT(D34:D193,4)</f>
+        <f>RIGHT(D34:D195,4)</f>
         <v>5851</v>
       </c>
       <c r="B34" s="27" t="s">
@@ -2722,7 +2770,7 @@
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="93" t="str">
-        <f>RIGHT(D35:D194,4)</f>
+        <f>RIGHT(D35:D196,4)</f>
         <v>6159</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -2746,7 +2794,7 @@
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="93" t="str">
-        <f>RIGHT(D36:D194,4)</f>
+        <f>RIGHT(D36:D196,4)</f>
         <v>6158</v>
       </c>
       <c r="B36" s="27" t="s">
@@ -2774,7 +2822,7 @@
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93" t="str">
-        <f>RIGHT(D37:D196,4)</f>
+        <f>RIGHT(D37:D198,4)</f>
         <v>6340</v>
       </c>
       <c r="B37" s="95" t="s">
@@ -2802,7 +2850,7 @@
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="93" t="str">
-        <f>RIGHT(D38:D194,4)</f>
+        <f>RIGHT(D38:D196,4)</f>
         <v>6353</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -2832,7 +2880,7 @@
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="93" t="str">
-        <f>RIGHT(D39:D195,4)</f>
+        <f>RIGHT(D39:D197,4)</f>
         <v/>
       </c>
       <c r="B39" s="74" t="s">
@@ -2849,7 +2897,7 @@
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A40" s="93" t="str">
-        <f>RIGHT(D40:D198,4)</f>
+        <f>RIGHT(D40:D200,4)</f>
         <v>6870</v>
       </c>
       <c r="B40" s="27" t="s">
@@ -2874,7 +2922,7 @@
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="93" t="str">
-        <f>RIGHT(D41:D200,4)</f>
+        <f>RIGHT(D41:D202,4)</f>
         <v>7038</v>
       </c>
       <c r="B41" s="27" t="s">
@@ -2899,7 +2947,7 @@
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="93" t="str">
-        <f>RIGHT(D42:D201,4)</f>
+        <f>RIGHT(D42:D203,4)</f>
         <v>7040</v>
       </c>
       <c r="B42" s="27" t="s">
@@ -2926,7 +2974,7 @@
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="93" t="str">
-        <f>RIGHT(D43:D200,4)</f>
+        <f>RIGHT(D43:D202,4)</f>
         <v>7075</v>
       </c>
       <c r="B43" s="27" t="s">
@@ -2951,7 +2999,7 @@
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="93" t="str">
-        <f>RIGHT(D44:D201,4)</f>
+        <f>RIGHT(D44:D203,4)</f>
         <v>7070</v>
       </c>
       <c r="B44" s="27" t="s">
@@ -2976,7 +3024,7 @@
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="93" t="str">
-        <f>RIGHT(D45:D199,4)</f>
+        <f>RIGHT(D45:D201,4)</f>
         <v>6253</v>
       </c>
       <c r="B45" s="27" t="s">
@@ -3001,7 +3049,7 @@
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="93" t="str">
-        <f>RIGHT(D46:D198,4)</f>
+        <f>RIGHT(D46:D200,4)</f>
         <v>6602</v>
       </c>
       <c r="B46" s="27" t="s">
@@ -3026,7 +3074,7 @@
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="93" t="str">
-        <f>RIGHT(D47:D201,4)</f>
+        <f>RIGHT(D47:D203,4)</f>
         <v>6768</v>
       </c>
       <c r="B47" s="27" t="s">
@@ -3051,7 +3099,7 @@
     </row>
     <row r="48" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="93" t="str">
-        <f>RIGHT(D48:D202,4)</f>
+        <f>RIGHT(D48:D204,4)</f>
         <v>6770</v>
       </c>
       <c r="B48" s="27" t="s">
@@ -3076,7 +3124,7 @@
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="93" t="str">
-        <f>RIGHT(D49:D205,4)</f>
+        <f>RIGHT(D49:D207,4)</f>
         <v>6829</v>
       </c>
       <c r="B49" s="27" t="s">
@@ -3100,7 +3148,7 @@
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="93" t="str">
-        <f>RIGHT(D50:D210,4)</f>
+        <f>RIGHT(D50:D212,4)</f>
         <v>7074</v>
       </c>
       <c r="B50" s="27" t="s">
@@ -3124,7 +3172,7 @@
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="93" t="str">
-        <f>RIGHT(D51:D211,4)</f>
+        <f>RIGHT(D51:D213,4)</f>
         <v>7073</v>
       </c>
       <c r="B51" s="27" t="s">
@@ -3148,7 +3196,7 @@
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="93" t="str">
-        <f>RIGHT(D52:D212,4)</f>
+        <f>RIGHT(D52:D214,4)</f>
         <v>6759</v>
       </c>
       <c r="B52" s="27" t="s">
@@ -3172,7 +3220,7 @@
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="93" t="str">
-        <f>RIGHT(D53:D213,4)</f>
+        <f>RIGHT(D53:D215,4)</f>
         <v>6724</v>
       </c>
       <c r="B53" s="27" t="s">
@@ -3198,7 +3246,7 @@
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="93" t="str">
-        <f>RIGHT(D54:D214,4)</f>
+        <f>RIGHT(D54:D216,4)</f>
         <v>6616</v>
       </c>
       <c r="B54" s="27" t="s">
@@ -3224,24 +3272,24 @@
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="93" t="str">
-        <f>RIGHT(D55:D213,4)</f>
-        <v>6901</v>
+        <f>RIGHT(D55:D217,4)</f>
+        <v>7276</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>68</v>
+        <v>251</v>
       </c>
       <c r="C55" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D55" s="28">
-        <v>1001025526901</v>
+        <v>1001022467276</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="23">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="G55" s="23">
-        <f>E55*F55</f>
+        <f>F55*E55</f>
         <v>0</v>
       </c>
       <c r="H55" s="14"/>
@@ -3250,17 +3298,17 @@
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="93" t="str">
-        <f>RIGHT(D56:D214,4)</f>
-        <v>6962</v>
+        <f>RIGHT(D56:D215,4)</f>
+        <v>6901</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C56" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D56" s="28">
-        <v>1001025526962</v>
+        <v>1001025526901</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="23">
@@ -3274,157 +3322,157 @@
       <c r="I56" s="14"/>
       <c r="J56" s="39"/>
     </row>
-    <row r="57" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="93" t="str">
-        <f>RIGHT(D57:D212,4)</f>
-        <v>6303</v>
-      </c>
-      <c r="B57" s="70" t="s">
-        <v>70</v>
+        <f>RIGHT(D57:D216,4)</f>
+        <v>6962</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D57" s="28">
-        <v>1001022726303</v>
+        <v>1001025526962</v>
       </c>
       <c r="E57" s="24"/>
       <c r="F57" s="23">
-        <v>1.0666666666666671</v>
+        <v>0.16</v>
       </c>
       <c r="G57" s="23">
-        <f>E57*1</f>
+        <f>E57*F57</f>
         <v>0</v>
       </c>
-      <c r="H57" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I57" s="14">
-        <v>45</v>
-      </c>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
       <c r="J57" s="39"/>
-      <c r="K57" s="82"/>
     </row>
     <row r="58" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="93" t="str">
-        <f>RIGHT(D58:D213,4)</f>
-        <v>7077</v>
+        <f>RIGHT(D58:D214,4)</f>
+        <v>6303</v>
       </c>
       <c r="B58" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>26</v>
+        <v>70</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D58" s="28">
-        <v>1001025507077</v>
+        <v>1001022726303</v>
       </c>
       <c r="E58" s="24"/>
-      <c r="F58" s="23"/>
+      <c r="F58" s="23">
+        <v>1.0666666666666671</v>
+      </c>
       <c r="G58" s="23">
-        <f>E58*0.4</f>
+        <f>E58*1</f>
         <v>0</v>
       </c>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
+      <c r="H58" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I58" s="14">
+        <v>45</v>
+      </c>
       <c r="J58" s="39"/>
       <c r="K58" s="82"/>
     </row>
-    <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="93" t="str">
-        <f>RIGHT(D59:D213,4)</f>
-        <v>7080</v>
-      </c>
-      <c r="B59" s="45" t="s">
-        <v>72</v>
+        <f>RIGHT(D59:D215,4)</f>
+        <v>7077</v>
+      </c>
+      <c r="B59" s="70" t="s">
+        <v>71</v>
       </c>
       <c r="C59" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D59" s="28">
-        <v>1001022467080</v>
+        <v>1001025507077</v>
       </c>
       <c r="E59" s="24"/>
-      <c r="F59" s="23">
-        <v>0.45</v>
-      </c>
+      <c r="F59" s="23"/>
       <c r="G59" s="23">
-        <f>E59*0.41</f>
+        <f>E59*0.4</f>
         <v>0</v>
       </c>
-      <c r="H59" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="I59" s="14">
-        <v>45</v>
-      </c>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
       <c r="J59" s="39"/>
+      <c r="K59" s="82"/>
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="93" t="str">
-        <f>RIGHT(D60:D214,4)</f>
-        <v>6762</v>
+        <f>RIGHT(D60:D215,4)</f>
+        <v>7080</v>
       </c>
       <c r="B60" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D60" s="28">
-        <v>1001020846762</v>
+        <v>1001022467080</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="23">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="G60" s="23">
-        <f>E60*F60</f>
+        <f>E60*0.41</f>
         <v>0</v>
       </c>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
+      <c r="H60" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="I60" s="14">
+        <v>45</v>
+      </c>
       <c r="J60" s="39"/>
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="93" t="str">
-        <f>RIGHT(D61:D214,4)</f>
-        <v>5820</v>
+        <f>RIGHT(D61:D216,4)</f>
+        <v>6762</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>23</v>
+        <v>73</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D61" s="28">
-        <v>1001022465820</v>
+        <v>1001020846762</v>
       </c>
       <c r="E61" s="24"/>
-      <c r="F61" s="23"/>
+      <c r="F61" s="23">
+        <v>0.41</v>
+      </c>
       <c r="G61" s="23">
-        <f>E61*1</f>
+        <f>E61*F61</f>
         <v>0</v>
       </c>
       <c r="H61" s="14"/>
-      <c r="I61" s="14">
-        <v>45</v>
-      </c>
+      <c r="I61" s="14"/>
       <c r="J61" s="39"/>
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="93" t="str">
-        <f>RIGHT(D62:D215,4)</f>
-        <v>7082</v>
+        <f>RIGHT(D62:D216,4)</f>
+        <v>5820</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C62" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D62" s="28">
-        <v>1001022467082</v>
+        <v>1001022465820</v>
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="23"/>
@@ -3433,22 +3481,24 @@
         <v>0</v>
       </c>
       <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
+      <c r="I62" s="14">
+        <v>45</v>
+      </c>
       <c r="J62" s="39"/>
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="93" t="str">
-        <f>RIGHT(D63:D216,4)</f>
-        <v>6764</v>
+        <f>RIGHT(D63:D217,4)</f>
+        <v>7082</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C63" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="28">
-        <v>1001020846764</v>
+        <v>1001022467082</v>
       </c>
       <c r="E63" s="24"/>
       <c r="F63" s="23"/>
@@ -3463,16 +3513,16 @@
     <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="93" t="str">
         <f>RIGHT(D64:D218,4)</f>
-        <v>6761</v>
+        <v>6764</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D64" s="28">
-        <v>1001020836761</v>
+        <v>1001020846764</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="23"/>
@@ -3486,17 +3536,17 @@
     </row>
     <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="93" t="str">
-        <f>RIGHT(D65:D219,4)</f>
-        <v>6767</v>
+        <f>RIGHT(D65:D220,4)</f>
+        <v>6761</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C65" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D65" s="28">
-        <v>1001023696767</v>
+        <v>1001020836761</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="23"/>
@@ -3510,22 +3560,22 @@
     </row>
     <row r="66" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="93" t="str">
-        <f>RIGHT(D66:D219,4)</f>
-        <v>6765</v>
+        <f>RIGHT(D66:D221,4)</f>
+        <v>6767</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C66" s="33" t="s">
-        <v>26</v>
+        <v>78</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D66" s="28">
-        <v>1001023696765</v>
+        <v>1001023696767</v>
       </c>
       <c r="E66" s="24"/>
       <c r="F66" s="23"/>
       <c r="G66" s="23">
-        <f>E66*0.36</f>
+        <f>E66*1</f>
         <v>0</v>
       </c>
       <c r="H66" s="14"/>
@@ -3534,24 +3584,22 @@
     </row>
     <row r="67" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="93" t="str">
-        <f>RIGHT(D67:D220,4)</f>
-        <v>6909</v>
+        <f>RIGHT(D67:D221,4)</f>
+        <v>6765</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C67" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D67" s="28">
-        <v>1001025766909</v>
+        <v>1001023696765</v>
       </c>
       <c r="E67" s="24"/>
-      <c r="F67" s="23">
-        <v>0.33</v>
-      </c>
+      <c r="F67" s="23"/>
       <c r="G67" s="23">
-        <f>E67*F67</f>
+        <f>E67*0.36</f>
         <v>0</v>
       </c>
       <c r="H67" s="14"/>
@@ -3560,17 +3608,17 @@
     </row>
     <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="93" t="str">
-        <f>RIGHT(D68:D221,4)</f>
-        <v>7250</v>
+        <f>RIGHT(D68:D222,4)</f>
+        <v>6909</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="C68" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D68" s="28">
-        <v>1001026617250</v>
+        <v>1001025766909</v>
       </c>
       <c r="E68" s="24"/>
       <c r="F68" s="23">
@@ -3586,21 +3634,21 @@
     </row>
     <row r="69" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="93" t="str">
-        <f>RIGHT(D69:D221,4)</f>
-        <v>6987</v>
+        <f>RIGHT(D69:D223,4)</f>
+        <v>7284</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="C69" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D69" s="28">
-        <v>1001025886987</v>
+        <v>1001025767284</v>
       </c>
       <c r="E69" s="24"/>
       <c r="F69" s="23">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
       <c r="G69" s="23">
         <f>E69*F69</f>
@@ -3612,54 +3660,50 @@
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="93" t="str">
-        <f>RIGHT(D70:D219,4)</f>
-        <v>7066</v>
+        <f>RIGHT(D70:D223,4)</f>
+        <v>7250</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>82</v>
+        <v>249</v>
       </c>
       <c r="C70" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D70" s="28">
-        <v>1001022377066</v>
+        <v>1001026617250</v>
       </c>
       <c r="E70" s="24"/>
       <c r="F70" s="23">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="G70" s="23">
-        <f>E70*0.41</f>
+        <f>E70*F70</f>
         <v>0</v>
       </c>
-      <c r="H70" s="14">
-        <v>4.5</v>
-      </c>
-      <c r="I70" s="14">
-        <v>45</v>
-      </c>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
       <c r="J70" s="39"/>
     </row>
     <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="93" t="str">
-        <f>RIGHT(D71:D220,4)</f>
-        <v>6837</v>
+        <f>RIGHT(D71:D223,4)</f>
+        <v>6987</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C71" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D71" s="28">
-        <v>1001022556837</v>
+        <v>1001025886987</v>
       </c>
       <c r="E71" s="24"/>
       <c r="F71" s="23">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G71" s="23">
-        <f>E71*0.4</f>
+        <f>E71*F71</f>
         <v>0</v>
       </c>
       <c r="H71" s="14"/>
@@ -3669,194 +3713,198 @@
     <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="93" t="str">
         <f>RIGHT(D72:D221,4)</f>
-        <v>7244</v>
+        <v>7066</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>247</v>
+        <v>82</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D72" s="28">
-        <v>1001022557244</v>
+        <v>1001022377066</v>
       </c>
       <c r="E72" s="24"/>
-      <c r="F72" s="23"/>
+      <c r="F72" s="23">
+        <v>0.41</v>
+      </c>
       <c r="G72" s="23">
-        <f>E72</f>
+        <f>E72*0.41</f>
         <v>0</v>
       </c>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
+      <c r="H72" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="I72" s="14">
+        <v>45</v>
+      </c>
       <c r="J72" s="39"/>
     </row>
-    <row r="73" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="93" t="str">
         <f>RIGHT(D73:D222,4)</f>
-        <v>6661</v>
-      </c>
-      <c r="B73" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C73" s="30" t="s">
-        <v>23</v>
+        <v>6837</v>
+      </c>
+      <c r="B73" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D73" s="28">
-        <v>1001022246661</v>
+        <v>1001022556837</v>
       </c>
       <c r="E73" s="24"/>
-      <c r="F73" s="23"/>
+      <c r="F73" s="23">
+        <v>0.4</v>
+      </c>
       <c r="G73" s="23">
-        <f>E73*1</f>
+        <f>E73*0.4</f>
         <v>0</v>
       </c>
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="39"/>
-      <c r="K73" s="82"/>
-    </row>
-    <row r="74" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="93" t="str">
         <f>RIGHT(D74:D223,4)</f>
-        <v>6713</v>
-      </c>
-      <c r="B74" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C74" s="35" t="s">
-        <v>26</v>
+        <v>7244</v>
+      </c>
+      <c r="B74" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="C74" s="33" t="s">
+        <v>23</v>
       </c>
       <c r="D74" s="28">
-        <v>1001022246713</v>
+        <v>1001022557244</v>
       </c>
       <c r="E74" s="24"/>
       <c r="F74" s="23"/>
       <c r="G74" s="23">
-        <f>E74*0.41</f>
+        <f>E74</f>
         <v>0</v>
       </c>
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
       <c r="J74" s="39"/>
-      <c r="K74" s="82"/>
-    </row>
-    <row r="75" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="93" t="str">
-        <f>RIGHT(D75:D219,4)</f>
+        <f>RIGHT(D75:D224,4)</f>
+        <v>6661</v>
+      </c>
+      <c r="B75" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="28">
+        <v>1001022246661</v>
+      </c>
+      <c r="E75" s="24"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23">
+        <f>E75*1</f>
+        <v>0</v>
+      </c>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="82"/>
+    </row>
+    <row r="76" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="93" t="str">
+        <f>RIGHT(D76:D225,4)</f>
+        <v>6713</v>
+      </c>
+      <c r="B76" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" s="28">
+        <v>1001022246713</v>
+      </c>
+      <c r="E76" s="24"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23">
+        <f>E76*0.41</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="82"/>
+    </row>
+    <row r="77" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="93" t="str">
+        <f>RIGHT(D77:D221,4)</f>
         <v/>
       </c>
-      <c r="B75" s="74" t="s">
+      <c r="B77" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="C75" s="74"/>
-      <c r="D75" s="74"/>
-      <c r="E75" s="74"/>
-      <c r="F75" s="73"/>
-      <c r="G75" s="74"/>
-      <c r="H75" s="74"/>
-      <c r="I75" s="74"/>
-      <c r="J75" s="75"/>
-    </row>
-    <row r="76" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="93" t="str">
-        <f>RIGHT(D76:D220,4)</f>
+      <c r="C77" s="74"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="73"/>
+      <c r="G77" s="74"/>
+      <c r="H77" s="74"/>
+      <c r="I77" s="74"/>
+      <c r="J77" s="75"/>
+    </row>
+    <row r="78" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="93" t="str">
+        <f>RIGHT(D78:D222,4)</f>
         <v>5698</v>
       </c>
-      <c r="B76" s="46" t="s">
+      <c r="B78" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="30" t="s">
+      <c r="C78" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="28">
+      <c r="D78" s="28">
         <v>1001034065698</v>
-      </c>
-      <c r="E76" s="24"/>
-      <c r="F76" s="23">
-        <v>1.013333333333333</v>
-      </c>
-      <c r="G76" s="23">
-        <f>E76*1</f>
-        <v>0</v>
-      </c>
-      <c r="H76" s="14">
-        <v>3.04</v>
-      </c>
-      <c r="I76" s="14">
-        <v>30</v>
-      </c>
-      <c r="J76" s="39"/>
-    </row>
-    <row r="77" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="93" t="str">
-        <f>RIGHT(D77:D223,4)</f>
-        <v>6528</v>
-      </c>
-      <c r="B77" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C77" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D77" s="28">
-        <v>1001031076528</v>
-      </c>
-      <c r="E77" s="24"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23">
-        <f>E77*0.4</f>
-        <v>0</v>
-      </c>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="39"/>
-    </row>
-    <row r="78" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="93" t="str">
-        <f>RIGHT(D78:D224,4)</f>
-        <v>7059</v>
-      </c>
-      <c r="B78" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C78" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D78" s="28">
-        <v>1001035277059</v>
       </c>
       <c r="E78" s="24"/>
       <c r="F78" s="23">
-        <v>0.3</v>
+        <v>1.013333333333333</v>
       </c>
       <c r="G78" s="23">
-        <f>F78*E78</f>
+        <f>E78*1</f>
         <v>0</v>
       </c>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
+      <c r="H78" s="14">
+        <v>3.04</v>
+      </c>
+      <c r="I78" s="14">
+        <v>30</v>
+      </c>
       <c r="J78" s="39"/>
     </row>
     <row r="79" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="93" t="str">
-        <f>RIGHT(D79:D224,4)</f>
-        <v>6609</v>
+        <f>RIGHT(D79:D225,4)</f>
+        <v>6528</v>
       </c>
       <c r="B79" s="46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C79" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D79" s="28">
-        <v>1001033856609</v>
+        <v>1001031076528</v>
       </c>
       <c r="E79" s="24"/>
-      <c r="F79" s="23">
-        <v>0.4</v>
-      </c>
+      <c r="F79" s="23"/>
       <c r="G79" s="23">
-        <f>F79*E79</f>
+        <f>E79*0.4</f>
         <v>0</v>
       </c>
       <c r="H79" s="14"/>
@@ -3865,149 +3913,149 @@
     </row>
     <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="93" t="str">
-        <f>RIGHT(D80:D225,4)</f>
-        <v>7001</v>
+        <f>RIGHT(D80:D226,4)</f>
+        <v>7059</v>
       </c>
       <c r="B80" s="46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C80" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D80" s="28">
-        <v>1001035937001</v>
+        <v>1001035277059</v>
       </c>
       <c r="E80" s="24"/>
       <c r="F80" s="23">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="G80" s="23">
-        <f>E80</f>
+        <f>F80*E80</f>
         <v>0</v>
       </c>
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
       <c r="J80" s="39"/>
     </row>
-    <row r="81" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="93" t="str">
-        <f>RIGHT(D81:D225,4)</f>
-        <v>6527</v>
+        <f>RIGHT(D81:D226,4)</f>
+        <v>6609</v>
       </c>
       <c r="B81" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="C81" s="30" t="s">
-        <v>23</v>
+        <v>90</v>
+      </c>
+      <c r="C81" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D81" s="28">
-        <v>1001031076527</v>
+        <v>1001033856609</v>
       </c>
       <c r="E81" s="24"/>
       <c r="F81" s="23">
-        <v>1.0166666666666671</v>
+        <v>0.4</v>
       </c>
       <c r="G81" s="23">
-        <f>E81*1</f>
+        <f>F81*E81</f>
         <v>0</v>
       </c>
-      <c r="H81" s="14">
-        <v>3.05</v>
-      </c>
-      <c r="I81" s="14">
-        <v>30</v>
-      </c>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
       <c r="J81" s="39"/>
     </row>
-    <row r="82" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="93" t="str">
-        <f>RIGHT(D82:D226,4)</f>
-        <v/>
-      </c>
-      <c r="B82" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="C82" s="74"/>
-      <c r="D82" s="74"/>
-      <c r="E82" s="74"/>
-      <c r="F82" s="73"/>
-      <c r="G82" s="74"/>
-      <c r="H82" s="74"/>
-      <c r="I82" s="74"/>
-      <c r="J82" s="75"/>
-    </row>
-    <row r="83" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D82:D227,4)</f>
+        <v>7001</v>
+      </c>
+      <c r="B82" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="28">
+        <v>1001035937001</v>
+      </c>
+      <c r="E82" s="24"/>
+      <c r="F82" s="23">
+        <v>1</v>
+      </c>
+      <c r="G82" s="23">
+        <f>E82</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="39"/>
+    </row>
+    <row r="83" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="93" t="str">
         <f>RIGHT(D83:D227,4)</f>
-        <v>7232</v>
-      </c>
-      <c r="B83" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C83" s="33" t="s">
-        <v>26</v>
+        <v>6527</v>
+      </c>
+      <c r="B83" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D83" s="28">
-        <v>1001302277232</v>
+        <v>1001031076527</v>
       </c>
       <c r="E83" s="24"/>
       <c r="F83" s="23">
-        <v>0.28000000000000003</v>
+        <v>1.0166666666666671</v>
       </c>
       <c r="G83" s="23">
-        <f>E83*F83</f>
+        <f>E83*1</f>
         <v>0</v>
       </c>
-      <c r="H83" s="14"/>
+      <c r="H83" s="14">
+        <v>3.05</v>
+      </c>
       <c r="I83" s="14">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J83" s="39"/>
     </row>
-    <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="93" t="str">
         <f>RIGHT(D84:D228,4)</f>
-        <v>6785</v>
-      </c>
-      <c r="B84" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C84" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D84" s="28">
-        <v>1001300516785</v>
-      </c>
-      <c r="E84" s="24"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23">
-        <f>E84*0.33</f>
-        <v>0</v>
-      </c>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="39"/>
-    </row>
-    <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B84" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84" s="74"/>
+      <c r="D84" s="74"/>
+      <c r="E84" s="74"/>
+      <c r="F84" s="73"/>
+      <c r="G84" s="74"/>
+      <c r="H84" s="74"/>
+      <c r="I84" s="74"/>
+      <c r="J84" s="75"/>
+    </row>
+    <row r="85" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A85" s="93" t="str">
         <f>RIGHT(D85:D229,4)</f>
-        <v>7149</v>
-      </c>
-      <c r="B85" s="96" t="s">
-        <v>96</v>
+        <v>7232</v>
+      </c>
+      <c r="B85" s="27" t="s">
+        <v>94</v>
       </c>
       <c r="C85" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D85" s="28">
-        <v>1001303637149</v>
+        <v>1001302277232</v>
       </c>
       <c r="E85" s="24"/>
       <c r="F85" s="23">
-        <v>0.84</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G85" s="23">
-        <f>F85*E85</f>
+        <f>E85*F85</f>
         <v>0</v>
       </c>
       <c r="H85" s="14"/>
@@ -4018,22 +4066,22 @@
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="93" t="str">
-        <f>RIGHT(D86:D229,4)</f>
-        <v>6786</v>
+        <f>RIGHT(D86:D230,4)</f>
+        <v>6785</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C86" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D86" s="28">
-        <v>1001300516786</v>
+        <v>1001300516785</v>
       </c>
       <c r="E86" s="24"/>
       <c r="F86" s="23"/>
       <c r="G86" s="23">
-        <f>E86</f>
+        <f>E86*0.33</f>
         <v>0</v>
       </c>
       <c r="H86" s="14"/>
@@ -4042,41 +4090,45 @@
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="93" t="str">
-        <f>RIGHT(D87:D230,4)</f>
-        <v>4903</v>
-      </c>
-      <c r="B87" s="27" t="s">
-        <v>98</v>
+        <f>RIGHT(D87:D231,4)</f>
+        <v>7149</v>
+      </c>
+      <c r="B87" s="96" t="s">
+        <v>96</v>
       </c>
       <c r="C87" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D87" s="28">
-        <v>1001040434903</v>
+        <v>1001303637149</v>
       </c>
       <c r="E87" s="24"/>
-      <c r="F87" s="23"/>
+      <c r="F87" s="23">
+        <v>0.84</v>
+      </c>
       <c r="G87" s="23">
-        <f>E87</f>
+        <f>F87*E87</f>
         <v>0</v>
       </c>
       <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
+      <c r="I87" s="14">
+        <v>50</v>
+      </c>
       <c r="J87" s="39"/>
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="93" t="str">
-        <f>RIGHT(D88:D230,4)</f>
-        <v>7131</v>
+        <f>RIGHT(D88:D231,4)</f>
+        <v>6786</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C88" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D88" s="28">
-        <v>1001303637131</v>
+        <v>1001300516786</v>
       </c>
       <c r="E88" s="24"/>
       <c r="F88" s="23"/>
@@ -4085,147 +4137,147 @@
         <v>0</v>
       </c>
       <c r="H88" s="14"/>
-      <c r="I88" s="14">
+      <c r="I88" s="14"/>
+      <c r="J88" s="39"/>
+    </row>
+    <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="93" t="str">
+        <f>RIGHT(D89:D232,4)</f>
+        <v>4903</v>
+      </c>
+      <c r="B89" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" s="28">
+        <v>1001040434903</v>
+      </c>
+      <c r="E89" s="24"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23">
+        <f>E89</f>
+        <v>0</v>
+      </c>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="39"/>
+    </row>
+    <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="93" t="str">
+        <f>RIGHT(D90:D232,4)</f>
+        <v>7131</v>
+      </c>
+      <c r="B90" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="28">
+        <v>1001303637131</v>
+      </c>
+      <c r="E90" s="24"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23">
+        <f>E90</f>
+        <v>0</v>
+      </c>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14">
         <v>45</v>
       </c>
-      <c r="J88" s="39"/>
-    </row>
-    <row r="89" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="93" t="str">
-        <f>RIGHT(D89:D228,4)</f>
+      <c r="J90" s="39"/>
+    </row>
+    <row r="91" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="93" t="str">
+        <f>RIGHT(D91:D230,4)</f>
         <v>7241</v>
       </c>
-      <c r="B89" s="27" t="s">
+      <c r="B91" s="27" t="s">
         <v>100</v>
-      </c>
-      <c r="C89" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D89" s="28">
-        <v>1001303107241</v>
-      </c>
-      <c r="E89" s="24"/>
-      <c r="F89" s="23">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G89" s="23">
-        <f>E89*0.28</f>
-        <v>0</v>
-      </c>
-      <c r="H89" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I89" s="14">
-        <v>45</v>
-      </c>
-      <c r="J89" s="39"/>
-    </row>
-    <row r="90" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="93" t="str">
-        <f>RIGHT(D90:D231,4)</f>
-        <v/>
-      </c>
-      <c r="B90" s="74" t="s">
-        <v>101</v>
-      </c>
-      <c r="C90" s="74"/>
-      <c r="D90" s="74"/>
-      <c r="E90" s="74"/>
-      <c r="F90" s="73"/>
-      <c r="G90" s="74"/>
-      <c r="H90" s="74"/>
-      <c r="I90" s="74"/>
-      <c r="J90" s="75"/>
-    </row>
-    <row r="91" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="93" t="str">
-        <f>RIGHT(D91:D232,4)</f>
-        <v>7154</v>
-      </c>
-      <c r="B91" s="27" t="s">
-        <v>102</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D91" s="28">
-        <v>1001300387154</v>
+        <v>1001303107241</v>
       </c>
       <c r="E91" s="24"/>
       <c r="F91" s="23">
-        <v>0.35</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G91" s="23">
-        <f>E91*0.35</f>
+        <f>E91*0.28</f>
         <v>0</v>
       </c>
-      <c r="H91" s="14"/>
+      <c r="H91" s="14">
+        <v>2.2400000000000002</v>
+      </c>
       <c r="I91" s="14">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J91" s="39"/>
     </row>
-    <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="93" t="str">
-        <f>RIGHT(D92:D234,4)</f>
-        <v>6793</v>
-      </c>
-      <c r="B92" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C92" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D92" s="28">
-        <v>1001303636793</v>
-      </c>
-      <c r="E92" s="24"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23">
-        <f>E92*0.33</f>
-        <v>0</v>
-      </c>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="39"/>
-    </row>
-    <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D92:D233,4)</f>
+        <v/>
+      </c>
+      <c r="B92" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92" s="74"/>
+      <c r="D92" s="74"/>
+      <c r="E92" s="74"/>
+      <c r="F92" s="73"/>
+      <c r="G92" s="74"/>
+      <c r="H92" s="74"/>
+      <c r="I92" s="74"/>
+      <c r="J92" s="75"/>
+    </row>
+    <row r="93" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A93" s="93" t="str">
-        <f>RIGHT(D93:D235,4)</f>
-        <v>6795</v>
+        <f>RIGHT(D93:D234,4)</f>
+        <v>7154</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C93" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D93" s="28">
-        <v>1001302596795</v>
+        <v>1001300387154</v>
       </c>
       <c r="E93" s="24"/>
-      <c r="F93" s="23"/>
+      <c r="F93" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G93" s="23">
-        <f>E93*0.33</f>
+        <f>E93*0.35</f>
         <v>0</v>
       </c>
       <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
+      <c r="I93" s="14">
+        <v>50</v>
+      </c>
       <c r="J93" s="39"/>
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="93" t="str">
-        <f>RIGHT(D94:D235,4)</f>
-        <v>6807</v>
+        <f>RIGHT(D94:D236,4)</f>
+        <v>6793</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C94" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D94" s="28">
-        <v>1001300366807</v>
+        <v>1001303636793</v>
       </c>
       <c r="E94" s="24"/>
       <c r="F94" s="23"/>
@@ -4239,47 +4291,41 @@
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="93" t="str">
-        <f>RIGHT(D95:D235,4)</f>
-        <v>7236</v>
+        <f>RIGHT(D95:D237,4)</f>
+        <v>6795</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C95" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D95" s="28">
-        <v>1001304507236</v>
+        <v>1001302596795</v>
       </c>
       <c r="E95" s="24"/>
-      <c r="F95" s="23">
-        <v>0.28000000000000003</v>
-      </c>
+      <c r="F95" s="23"/>
       <c r="G95" s="23">
-        <f>E95*0.28</f>
+        <f>E95*0.33</f>
         <v>0</v>
       </c>
-      <c r="H95" s="14">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I95" s="14">
-        <v>45</v>
-      </c>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
       <c r="J95" s="39"/>
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="93" t="str">
         <f>RIGHT(D96:D237,4)</f>
-        <v>6787</v>
+        <v>6807</v>
       </c>
       <c r="B96" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C96" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D96" s="28">
-        <v>1001300456787</v>
+        <v>1001300366807</v>
       </c>
       <c r="E96" s="24"/>
       <c r="F96" s="23"/>
@@ -4293,46 +4339,52 @@
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="93" t="str">
-        <f>RIGHT(D97:D238,4)</f>
-        <v>6788</v>
+        <f>RIGHT(D97:D237,4)</f>
+        <v>7236</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C97" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D97" s="28">
-        <v>1001300456788</v>
+        <v>1001304507236</v>
       </c>
       <c r="E97" s="24"/>
-      <c r="F97" s="23"/>
+      <c r="F97" s="23">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="G97" s="23">
-        <f>E97*1</f>
+        <f>E97*0.28</f>
         <v>0</v>
       </c>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
+      <c r="H97" s="14">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I97" s="14">
+        <v>45</v>
+      </c>
       <c r="J97" s="39"/>
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="93" t="str">
         <f>RIGHT(D98:D239,4)</f>
-        <v>6790</v>
+        <v>6787</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C98" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D98" s="28">
-        <v>1001300366790</v>
+        <v>1001300456787</v>
       </c>
       <c r="E98" s="24"/>
       <c r="F98" s="23"/>
       <c r="G98" s="23">
-        <f>E98*1</f>
+        <f>E98*0.33</f>
         <v>0</v>
       </c>
       <c r="H98" s="14"/>
@@ -4341,50 +4393,46 @@
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="93" t="str">
-        <f>RIGHT(D99:D238,4)</f>
-        <v>7169</v>
-      </c>
-      <c r="B99" s="64" t="s">
-        <v>110</v>
+        <f>RIGHT(D99:D240,4)</f>
+        <v>6788</v>
+      </c>
+      <c r="B99" s="27" t="s">
+        <v>108</v>
       </c>
       <c r="C99" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D99" s="28">
-        <v>1001303987169</v>
+        <v>1001300456788</v>
       </c>
       <c r="E99" s="24"/>
-      <c r="F99" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F99" s="23"/>
       <c r="G99" s="23">
-        <f>E99*F99</f>
+        <f>E99*1</f>
         <v>0</v>
       </c>
       <c r="H99" s="14"/>
-      <c r="I99" s="14">
-        <v>50</v>
-      </c>
+      <c r="I99" s="14"/>
       <c r="J99" s="39"/>
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="93" t="str">
-        <f>RIGHT(D100:D239,4)</f>
-        <v>6791</v>
-      </c>
-      <c r="B100" s="64" t="s">
-        <v>111</v>
+        <f>RIGHT(D100:D241,4)</f>
+        <v>6790</v>
+      </c>
+      <c r="B100" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="C100" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D100" s="28">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="E100" s="24"/>
       <c r="F100" s="23"/>
       <c r="G100" s="23">
-        <f>E100*0.33</f>
+        <f>E100*1</f>
         <v>0</v>
       </c>
       <c r="H100" s="14"/>
@@ -4394,21 +4442,23 @@
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="93" t="str">
         <f>RIGHT(D101:D240,4)</f>
-        <v>7166</v>
+        <v>7169</v>
       </c>
       <c r="B101" s="64" t="s">
-        <v>112</v>
-      </c>
-      <c r="C101" s="30" t="s">
-        <v>23</v>
+        <v>110</v>
+      </c>
+      <c r="C101" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D101" s="28">
-        <v>1001303987166</v>
+        <v>1001303987169</v>
       </c>
       <c r="E101" s="24"/>
-      <c r="F101" s="23"/>
+      <c r="F101" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G101" s="23">
-        <f>E101*1</f>
+        <f>E101*F101</f>
         <v>0</v>
       </c>
       <c r="H101" s="14"/>
@@ -4420,23 +4470,21 @@
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="93" t="str">
         <f>RIGHT(D102:D241,4)</f>
-        <v>6459</v>
+        <v>6791</v>
       </c>
       <c r="B102" s="64" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C102" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D102" s="28">
-        <v>1001214196459</v>
+        <v>1001304096791</v>
       </c>
       <c r="E102" s="24"/>
-      <c r="F102" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F102" s="23"/>
       <c r="G102" s="23">
-        <f>E102*F102</f>
+        <f>E102*0.33</f>
         <v>0</v>
       </c>
       <c r="H102" s="14"/>
@@ -4446,45 +4494,49 @@
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="93" t="str">
         <f>RIGHT(D103:D242,4)</f>
-        <v>6586</v>
+        <v>7166</v>
       </c>
       <c r="B103" s="64" t="s">
-        <v>114</v>
-      </c>
-      <c r="C103" s="33" t="s">
-        <v>26</v>
+        <v>112</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D103" s="28">
-        <v>1001215576586</v>
+        <v>1001303987166</v>
       </c>
       <c r="E103" s="24"/>
       <c r="F103" s="23"/>
       <c r="G103" s="23">
-        <f>E103*0.09</f>
+        <f>E103*1</f>
         <v>0</v>
       </c>
       <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
+      <c r="I103" s="14">
+        <v>50</v>
+      </c>
       <c r="J103" s="39"/>
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="93" t="str">
-        <f>RIGHT(D104:D240,4)</f>
-        <v>6228</v>
+        <f>RIGHT(D104:D243,4)</f>
+        <v>6459</v>
       </c>
       <c r="B104" s="64" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C104" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D104" s="28">
-        <v>1001225416228</v>
+        <v>1001214196459</v>
       </c>
       <c r="E104" s="24"/>
-      <c r="F104" s="23"/>
+      <c r="F104" s="23">
+        <v>0.1</v>
+      </c>
       <c r="G104" s="23">
-        <f>E104*0.09</f>
+        <f>E104*F104</f>
         <v>0</v>
       </c>
       <c r="H104" s="14"/>
@@ -4493,24 +4545,22 @@
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="93" t="str">
-        <f>RIGHT(D105:D241,4)</f>
-        <v>7087</v>
+        <f>RIGHT(D105:D244,4)</f>
+        <v>6586</v>
       </c>
       <c r="B105" s="64" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C105" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D105" s="28">
-        <v>1001084227087</v>
+        <v>1001215576586</v>
       </c>
       <c r="E105" s="24"/>
-      <c r="F105" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F105" s="23"/>
       <c r="G105" s="23">
-        <f>F105*E105</f>
+        <f>E105*0.09</f>
         <v>0</v>
       </c>
       <c r="H105" s="14"/>
@@ -4519,293 +4569,293 @@
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="93" t="str">
-        <f>RIGHT(D106:D240,4)</f>
-        <v>5544</v>
-      </c>
-      <c r="B106" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C106" s="30" t="s">
-        <v>23</v>
+        <f>RIGHT(D106:D242,4)</f>
+        <v>6228</v>
+      </c>
+      <c r="B106" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="C106" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D106" s="28">
-        <v>1001051875544</v>
+        <v>1001225416228</v>
       </c>
       <c r="E106" s="24"/>
-      <c r="F106" s="23">
-        <v>0.85</v>
-      </c>
+      <c r="F106" s="23"/>
       <c r="G106" s="23">
-        <f>E106*1</f>
+        <f>E106*0.09</f>
         <v>0</v>
       </c>
-      <c r="H106" s="14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I106" s="14">
-        <v>45</v>
-      </c>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
       <c r="J106" s="39"/>
     </row>
-    <row r="107" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="93" t="str">
-        <f>RIGHT(D107:D242,4)</f>
-        <v>6697</v>
-      </c>
-      <c r="B107" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C107" s="36" t="s">
+        <f>RIGHT(D107:D243,4)</f>
+        <v>7087</v>
+      </c>
+      <c r="B107" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="C107" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D107" s="28">
-        <v>1001301876697</v>
+        <v>1001084227087</v>
       </c>
       <c r="E107" s="24"/>
       <c r="F107" s="23">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="G107" s="23">
-        <f>E107*0.35</f>
+        <f>F107*E107</f>
         <v>0</v>
       </c>
-      <c r="H107" s="14">
-        <v>2.8</v>
-      </c>
-      <c r="I107" s="14">
+      <c r="H107" s="14"/>
+      <c r="I107" s="14"/>
+      <c r="J107" s="39"/>
+    </row>
+    <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="93" t="str">
+        <f>RIGHT(D108:D242,4)</f>
+        <v>5544</v>
+      </c>
+      <c r="B108" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108" s="28">
+        <v>1001051875544</v>
+      </c>
+      <c r="E108" s="24"/>
+      <c r="F108" s="23">
+        <v>0.85</v>
+      </c>
+      <c r="G108" s="23">
+        <f>E108*1</f>
+        <v>0</v>
+      </c>
+      <c r="H108" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I108" s="14">
         <v>45</v>
       </c>
-      <c r="J107" s="39"/>
-    </row>
-    <row r="108" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="93" t="str">
-        <f>RIGHT(D108:D243,4)</f>
-        <v/>
-      </c>
-      <c r="B108" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="C108" s="74"/>
-      <c r="D108" s="74"/>
-      <c r="E108" s="74"/>
-      <c r="F108" s="73"/>
-      <c r="G108" s="74"/>
-      <c r="H108" s="74"/>
-      <c r="I108" s="74"/>
-      <c r="J108" s="75"/>
-    </row>
-    <row r="109" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J108" s="39"/>
+    </row>
+    <row r="109" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="93" t="str">
-        <f>RIGHT(D109:D244,4)</f>
-        <v>5706</v>
+        <f t="shared" ref="A109:A114" si="0">RIGHT(D109:D244,4)</f>
+        <v>6697</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C109" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C109" s="36" t="s">
         <v>26</v>
       </c>
       <c r="D109" s="28">
-        <v>1001061975706</v>
+        <v>1001301876697</v>
       </c>
       <c r="E109" s="24"/>
       <c r="F109" s="23">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="G109" s="23">
-        <f>E109*0.25</f>
+        <f>E109*0.35</f>
         <v>0</v>
       </c>
       <c r="H109" s="14">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="I109" s="14">
+        <v>45</v>
+      </c>
+      <c r="J109" s="39"/>
+    </row>
+    <row r="110" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B110" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="C110" s="74"/>
+      <c r="D110" s="74"/>
+      <c r="E110" s="74"/>
+      <c r="F110" s="73"/>
+      <c r="G110" s="74"/>
+      <c r="H110" s="74"/>
+      <c r="I110" s="74"/>
+      <c r="J110" s="75"/>
+    </row>
+    <row r="111" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="93" t="str">
+        <f t="shared" si="0"/>
+        <v>5706</v>
+      </c>
+      <c r="B111" s="27" t="s">
         <v>120</v>
-      </c>
-      <c r="J109" s="39"/>
-    </row>
-    <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="93" t="str">
-        <f>RIGHT(D110:D245,4)</f>
-        <v>6454</v>
-      </c>
-      <c r="B110" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C110" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D110" s="28">
-        <v>1001201976454</v>
-      </c>
-      <c r="E110" s="24"/>
-      <c r="F110" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="G110" s="23">
-        <f>E110*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="H110" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="I110" s="14">
-        <v>60</v>
-      </c>
-      <c r="J110" s="39"/>
-    </row>
-    <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="93" t="str">
-        <f>RIGHT(D111:D246,4)</f>
-        <v>6222</v>
-      </c>
-      <c r="B111" s="27" t="s">
-        <v>122</v>
       </c>
       <c r="C111" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D111" s="28">
-        <v>1001205386222</v>
+        <v>1001061975706</v>
       </c>
       <c r="E111" s="24"/>
-      <c r="F111" s="23"/>
+      <c r="F111" s="23">
+        <v>0.25</v>
+      </c>
       <c r="G111" s="23">
-        <f>E111*0.09</f>
+        <f>E111*0.25</f>
         <v>0</v>
       </c>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
+      <c r="H111" s="14">
+        <v>2</v>
+      </c>
+      <c r="I111" s="14">
+        <v>120</v>
+      </c>
       <c r="J111" s="39"/>
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="93" t="str">
-        <f>RIGHT(D112:D247,4)</f>
-        <v>5931</v>
+        <f t="shared" si="0"/>
+        <v>6454</v>
       </c>
       <c r="B112" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C112" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D112" s="28">
-        <v>1001060755931</v>
+        <v>1001201976454</v>
       </c>
       <c r="E112" s="24"/>
       <c r="F112" s="23">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
       <c r="G112" s="23">
-        <f>E112*0.22</f>
+        <f>E112*0.1</f>
         <v>0</v>
       </c>
       <c r="H112" s="14">
-        <v>1.76</v>
+        <v>0.8</v>
       </c>
       <c r="I112" s="14">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J112" s="39"/>
     </row>
     <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="93" t="str">
-        <f>RIGHT(D113:D249,4)</f>
-        <v>5708</v>
+        <f t="shared" si="0"/>
+        <v>6222</v>
       </c>
       <c r="B113" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C113" s="30" t="s">
-        <v>23</v>
+        <v>122</v>
+      </c>
+      <c r="C113" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D113" s="28">
-        <v>1001063145708</v>
+        <v>1001205386222</v>
       </c>
       <c r="E113" s="24"/>
-      <c r="F113" s="23">
-        <v>0.51249999999999996</v>
-      </c>
+      <c r="F113" s="23"/>
       <c r="G113" s="23">
-        <f>E113*1</f>
+        <f>E113*0.09</f>
         <v>0</v>
       </c>
-      <c r="H113" s="14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I113" s="14">
-        <v>120</v>
-      </c>
+      <c r="H113" s="14"/>
+      <c r="I113" s="14"/>
       <c r="J113" s="39"/>
     </row>
     <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="93" t="str">
-        <f>RIGHT(D114:D250,4)</f>
-        <v>1146</v>
+        <f t="shared" si="0"/>
+        <v>5931</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C114" s="30" t="s">
-        <v>23</v>
+        <v>123</v>
+      </c>
+      <c r="C114" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D114" s="28">
-        <v>1001061971146</v>
+        <v>1001060755931</v>
       </c>
       <c r="E114" s="24"/>
-      <c r="F114" s="23"/>
+      <c r="F114" s="23">
+        <v>0.22</v>
+      </c>
       <c r="G114" s="23">
-        <f>E114</f>
+        <f>E114*0.22</f>
         <v>0</v>
       </c>
-      <c r="H114" s="14"/>
-      <c r="I114" s="14"/>
+      <c r="H114" s="14">
+        <v>1.76</v>
+      </c>
+      <c r="I114" s="14">
+        <v>120</v>
+      </c>
       <c r="J114" s="39"/>
     </row>
     <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="93" t="str">
-        <f>RIGHT(D115:D250,4)</f>
-        <v>6834</v>
+        <f>RIGHT(D115:D251,4)</f>
+        <v>5708</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C115" s="33" t="s">
-        <v>26</v>
+        <v>124</v>
+      </c>
+      <c r="C115" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D115" s="28">
-        <v>1001203146834</v>
+        <v>1001063145708</v>
       </c>
       <c r="E115" s="24"/>
-      <c r="F115" s="23"/>
+      <c r="F115" s="23">
+        <v>0.51249999999999996</v>
+      </c>
       <c r="G115" s="23">
-        <f>E115*0.1</f>
+        <f>E115*1</f>
         <v>0</v>
       </c>
-      <c r="H115" s="14"/>
-      <c r="I115" s="14"/>
+      <c r="H115" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I115" s="14">
+        <v>120</v>
+      </c>
       <c r="J115" s="39"/>
     </row>
     <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="93" t="str">
-        <f>RIGHT(D116:D251,4)</f>
-        <v>6448</v>
+        <f>RIGHT(D116:D252,4)</f>
+        <v>1146</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="C116" s="33" t="s">
-        <v>26</v>
+        <v>125</v>
+      </c>
+      <c r="C116" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D116" s="28">
-        <v>1001234146448</v>
+        <v>1001061971146</v>
       </c>
       <c r="E116" s="24"/>
-      <c r="F116" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F116" s="23"/>
       <c r="G116" s="23">
-        <f>F116*E116</f>
+        <f>E116</f>
         <v>0</v>
       </c>
       <c r="H116" s="14"/>
@@ -4815,23 +4865,21 @@
     <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="93" t="str">
         <f>RIGHT(D117:D252,4)</f>
-        <v>6221</v>
+        <v>6834</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C117" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D117" s="28">
-        <v>1001205376221</v>
+        <v>1001203146834</v>
       </c>
       <c r="E117" s="24"/>
-      <c r="F117" s="23">
-        <v>0.09</v>
-      </c>
+      <c r="F117" s="23"/>
       <c r="G117" s="23">
-        <f>F117*E117</f>
+        <f>E117*0.1</f>
         <v>0</v>
       </c>
       <c r="H117" s="14"/>
@@ -4840,21 +4888,21 @@
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="93" t="str">
-        <f>RIGHT(D118:D252,4)</f>
-        <v>5679</v>
+        <f>RIGHT(D118:D253,4)</f>
+        <v>6448</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C118" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D118" s="28">
-        <v>1001190765679</v>
+        <v>1001234146448</v>
       </c>
       <c r="E118" s="24"/>
       <c r="F118" s="23">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G118" s="23">
         <f>F118*E118</f>
@@ -4867,53 +4915,49 @@
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="93" t="str">
         <f>RIGHT(D119:D254,4)</f>
-        <v>4993</v>
+        <v>6221</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C119" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D119" s="28">
-        <v>1001060764993</v>
+        <v>1001205376221</v>
       </c>
       <c r="E119" s="24"/>
       <c r="F119" s="23">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="G119" s="23">
-        <f>E119*0.25</f>
+        <f>F119*E119</f>
         <v>0</v>
       </c>
-      <c r="H119" s="14">
-        <v>2</v>
-      </c>
-      <c r="I119" s="14">
-        <v>120</v>
-      </c>
+      <c r="H119" s="14"/>
+      <c r="I119" s="14"/>
       <c r="J119" s="39"/>
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="93" t="str">
-        <f>RIGHT(D120:D255,4)</f>
-        <v>7105</v>
+        <f>RIGHT(D120:D254,4)</f>
+        <v>5679</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C120" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D120" s="28">
-        <v>1001203207105</v>
+        <v>1001190765679</v>
       </c>
       <c r="E120" s="24"/>
       <c r="F120" s="23">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="G120" s="23">
-        <f t="shared" ref="G120:G128" si="0">F120*E120</f>
+        <f>F120*E120</f>
         <v>0</v>
       </c>
       <c r="H120" s="14"/>
@@ -4922,50 +4966,54 @@
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="93" t="str">
-        <f>RIGHT(D121:D256,4)</f>
-        <v>7106</v>
+        <f t="shared" ref="A121:A126" si="1">RIGHT(D121:D256,4)</f>
+        <v>4993</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C121" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D121" s="28">
-        <v>1001205447106</v>
+        <v>1001060764993</v>
       </c>
       <c r="E121" s="24"/>
       <c r="F121" s="23">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="G121" s="23">
-        <f t="shared" si="0"/>
+        <f>E121*0.25</f>
         <v>0</v>
       </c>
-      <c r="H121" s="14"/>
-      <c r="I121" s="14"/>
+      <c r="H121" s="14">
+        <v>2</v>
+      </c>
+      <c r="I121" s="14">
+        <v>120</v>
+      </c>
       <c r="J121" s="39"/>
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="93" t="str">
-        <f>RIGHT(D122:D257,4)</f>
-        <v>7107</v>
+        <f t="shared" si="1"/>
+        <v>7105</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C122" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D122" s="28">
-        <v>1001205467107</v>
+        <v>1001203207105</v>
       </c>
       <c r="E122" s="24"/>
       <c r="F122" s="23">
         <v>0.09</v>
       </c>
       <c r="G122" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G122:G130" si="2">F122*E122</f>
         <v>0</v>
       </c>
       <c r="H122" s="14"/>
@@ -4974,24 +5022,24 @@
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="93" t="str">
-        <f>RIGHT(D123:D258,4)</f>
-        <v>7147</v>
+        <f t="shared" si="1"/>
+        <v>7106</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C123" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D123" s="28">
-        <v>1001063237147</v>
+        <v>1001205447106</v>
       </c>
       <c r="E123" s="24"/>
       <c r="F123" s="23">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="G123" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H123" s="14"/>
@@ -5000,24 +5048,24 @@
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="93" t="str">
-        <f>RIGHT(D124:D259,4)</f>
-        <v>7229</v>
+        <f t="shared" si="1"/>
+        <v>7107</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>248</v>
+        <v>133</v>
       </c>
       <c r="C124" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D124" s="28">
-        <v>1001063237229</v>
+        <v>1001205467107</v>
       </c>
       <c r="E124" s="24"/>
       <c r="F124" s="23">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="G124" s="23">
-        <f>F124*E124</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H124" s="14"/>
@@ -5026,24 +5074,24 @@
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="93" t="str">
-        <f t="shared" ref="A125:A127" si="1">RIGHT(D125:D259,4)</f>
-        <v>7225</v>
+        <f t="shared" si="1"/>
+        <v>7147</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C125" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D125" s="28">
-        <v>1001066537225</v>
+        <v>1001063237147</v>
       </c>
       <c r="E125" s="24"/>
       <c r="F125" s="23">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="G125" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H125" s="14"/>
@@ -5053,23 +5101,23 @@
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>7227</v>
+        <v>7229</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>136</v>
+        <v>248</v>
       </c>
       <c r="C126" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D126" s="28">
-        <v>1001063097227</v>
+        <v>1001063237229</v>
       </c>
       <c r="E126" s="24"/>
       <c r="F126" s="23">
         <v>0.18</v>
       </c>
       <c r="G126" s="23">
-        <f t="shared" si="0"/>
+        <f>F126*E126</f>
         <v>0</v>
       </c>
       <c r="H126" s="14"/>
@@ -5078,24 +5126,24 @@
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>7226</v>
+        <f t="shared" ref="A127:A129" si="3">RIGHT(D127:D261,4)</f>
+        <v>7225</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>246</v>
+        <v>135</v>
       </c>
       <c r="C127" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D127" s="28">
-        <v>1001066527226</v>
+        <v>1001066537225</v>
       </c>
       <c r="E127" s="24"/>
       <c r="F127" s="23">
         <v>0.18</v>
       </c>
       <c r="G127" s="23">
-        <f t="shared" ref="G127" si="2">F127*E127</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H127" s="14"/>
@@ -5104,24 +5152,24 @@
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="93" t="str">
-        <f>RIGHT(D128:D255,4)</f>
-        <v>3684</v>
+        <f t="shared" si="3"/>
+        <v>7227</v>
       </c>
       <c r="B128" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C128" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D128" s="28">
-        <v>1001062353684</v>
+        <v>1001063097227</v>
       </c>
       <c r="E128" s="24"/>
       <c r="F128" s="23">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="G128" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H128" s="14"/>
@@ -5130,235 +5178,235 @@
     </row>
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="93" t="str">
-        <f>RIGHT(D129:D255,4)</f>
-        <v>5682</v>
+        <f t="shared" si="3"/>
+        <v>7226</v>
       </c>
       <c r="B129" s="27" t="s">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="C129" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D129" s="28">
-        <v>1001193115682</v>
+        <v>1001066527226</v>
       </c>
       <c r="E129" s="24"/>
       <c r="F129" s="23">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G129" s="23">
-        <f>E129*0.12</f>
+        <f t="shared" ref="G129" si="4">F129*E129</f>
         <v>0</v>
       </c>
-      <c r="H129" s="14">
-        <v>0.96</v>
-      </c>
-      <c r="I129" s="14">
-        <v>60</v>
-      </c>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
       <c r="J129" s="39"/>
     </row>
     <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="93" t="str">
-        <f>RIGHT(D130:D258,4)</f>
-        <v>4117</v>
+        <f>RIGHT(D130:D257,4)</f>
+        <v>3684</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="C130" s="30" t="s">
-        <v>23</v>
+        <v>137</v>
+      </c>
+      <c r="C130" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D130" s="28">
-        <v>1001062504117</v>
+        <v>1001062353684</v>
       </c>
       <c r="E130" s="24"/>
       <c r="F130" s="23">
-        <v>0.48749999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="G130" s="23">
-        <f>E130*1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H130" s="14">
-        <v>3.9</v>
-      </c>
-      <c r="I130" s="14">
-        <v>120</v>
-      </c>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
       <c r="J130" s="39"/>
     </row>
     <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="93" t="str">
-        <f>RIGHT(D131:D259,4)</f>
-        <v>3680</v>
+        <f>RIGHT(D131:D257,4)</f>
+        <v>5682</v>
       </c>
       <c r="B131" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C131" s="30" t="s">
-        <v>23</v>
+        <v>138</v>
+      </c>
+      <c r="C131" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D131" s="28">
-        <v>1001062353680</v>
+        <v>1001193115682</v>
       </c>
       <c r="E131" s="24"/>
-      <c r="F131" s="23"/>
+      <c r="F131" s="23">
+        <v>0.12</v>
+      </c>
       <c r="G131" s="23">
-        <f>E131</f>
+        <f>E131*0.12</f>
         <v>0</v>
       </c>
-      <c r="H131" s="14"/>
-      <c r="I131" s="14"/>
+      <c r="H131" s="14">
+        <v>0.96</v>
+      </c>
+      <c r="I131" s="14">
+        <v>60</v>
+      </c>
       <c r="J131" s="39"/>
     </row>
     <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="93" t="str">
-        <f>RIGHT(D132:D259,4)</f>
-        <v>5483</v>
+        <f>RIGHT(D132:D260,4)</f>
+        <v>4117</v>
       </c>
       <c r="B132" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="C132" s="33" t="s">
-        <v>26</v>
+        <v>139</v>
+      </c>
+      <c r="C132" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D132" s="28">
-        <v>1001062505483</v>
+        <v>1001062504117</v>
       </c>
       <c r="E132" s="24"/>
       <c r="F132" s="23">
-        <v>0.25</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="G132" s="23">
-        <f>E132*0.25</f>
+        <f>E132*1</f>
         <v>0</v>
       </c>
       <c r="H132" s="14">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="I132" s="14">
         <v>120</v>
       </c>
       <c r="J132" s="39"/>
     </row>
-    <row r="133" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="93" t="str">
-        <f>RIGHT(D133:D260,4)</f>
-        <v>6453</v>
+        <f>RIGHT(D133:D261,4)</f>
+        <v>3680</v>
       </c>
       <c r="B133" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="C133" s="33" t="s">
-        <v>26</v>
+        <v>140</v>
+      </c>
+      <c r="C133" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D133" s="28">
-        <v>1001202506453</v>
+        <v>1001062353680</v>
       </c>
       <c r="E133" s="24"/>
-      <c r="F133" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F133" s="23"/>
       <c r="G133" s="23">
-        <f>E133*0.1</f>
+        <f>E133</f>
         <v>0</v>
       </c>
-      <c r="H133" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="I133" s="14">
-        <v>60</v>
-      </c>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
       <c r="J133" s="39"/>
     </row>
-    <row r="134" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="93" t="str">
         <f>RIGHT(D134:D261,4)</f>
+        <v>5483</v>
+      </c>
+      <c r="B134" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C134" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D134" s="28">
+        <v>1001062505483</v>
+      </c>
+      <c r="E134" s="24"/>
+      <c r="F134" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="G134" s="23">
+        <f>E134*0.25</f>
+        <v>0</v>
+      </c>
+      <c r="H134" s="14">
+        <v>2</v>
+      </c>
+      <c r="I134" s="14">
+        <v>120</v>
+      </c>
+      <c r="J134" s="39"/>
+    </row>
+    <row r="135" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="93" t="str">
+        <f>RIGHT(D135:D262,4)</f>
+        <v>6453</v>
+      </c>
+      <c r="B135" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="C135" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135" s="28">
+        <v>1001202506453</v>
+      </c>
+      <c r="E135" s="24"/>
+      <c r="F135" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G135" s="23">
+        <f>E135*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="H135" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I135" s="14">
+        <v>60</v>
+      </c>
+      <c r="J135" s="39"/>
+    </row>
+    <row r="136" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="93" t="str">
+        <f>RIGHT(D136:D263,4)</f>
         <v/>
       </c>
-      <c r="B134" s="74" t="s">
+      <c r="B136" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="C134" s="74"/>
-      <c r="D134" s="74"/>
-      <c r="E134" s="74"/>
-      <c r="F134" s="73"/>
-      <c r="G134" s="74"/>
-      <c r="H134" s="74"/>
-      <c r="I134" s="74"/>
-      <c r="J134" s="75"/>
-    </row>
-    <row r="135" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="93" t="str">
-        <f>RIGHT(D135:D265,4)</f>
-        <v>6470</v>
-      </c>
-      <c r="B135" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C135" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D135" s="80">
-        <v>1001092436470</v>
-      </c>
-      <c r="E135" s="24"/>
-      <c r="F135" s="23"/>
-      <c r="G135" s="23">
-        <f>E135*1</f>
-        <v>0</v>
-      </c>
-      <c r="H135" s="14"/>
-      <c r="I135" s="14"/>
-      <c r="J135" s="39"/>
-    </row>
-    <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="93" t="str">
-        <f>RIGHT(D136:D266,4)</f>
-        <v>6495</v>
-      </c>
-      <c r="B136" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="C136" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D136" s="80">
-        <v>1001092436495</v>
-      </c>
-      <c r="E136" s="24"/>
-      <c r="F136" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G136" s="23">
-        <f>F136*E136</f>
-        <v>0</v>
-      </c>
-      <c r="H136" s="14"/>
-      <c r="I136" s="14"/>
-      <c r="J136" s="39"/>
-    </row>
-    <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C136" s="74"/>
+      <c r="D136" s="74"/>
+      <c r="E136" s="74"/>
+      <c r="F136" s="73"/>
+      <c r="G136" s="74"/>
+      <c r="H136" s="74"/>
+      <c r="I136" s="74"/>
+      <c r="J136" s="75"/>
+    </row>
+    <row r="137" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A137" s="93" t="str">
         <f>RIGHT(D137:D267,4)</f>
-        <v>7235</v>
+        <v>6470</v>
       </c>
       <c r="B137" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D137" s="80">
-        <v>1001095227235</v>
+        <v>1001092436470</v>
       </c>
       <c r="E137" s="24"/>
-      <c r="F137" s="23">
-        <v>0.35</v>
-      </c>
+      <c r="F137" s="23"/>
       <c r="G137" s="23">
-        <f>F137*E137</f>
+        <f>E137*1</f>
         <v>0</v>
       </c>
       <c r="H137" s="14"/>
@@ -5368,16 +5416,16 @@
     <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="93" t="str">
         <f>RIGHT(D138:D268,4)</f>
-        <v>6411</v>
+        <v>6495</v>
       </c>
       <c r="B138" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C138" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D138" s="80">
-        <v>1001093316411</v>
+        <v>1001092436495</v>
       </c>
       <c r="E138" s="24"/>
       <c r="F138" s="23">
@@ -5393,22 +5441,24 @@
     </row>
     <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="93" t="str">
-        <f>RIGHT(D139:D266,4)</f>
-        <v>6866</v>
+        <f>RIGHT(D139:D269,4)</f>
+        <v>7235</v>
       </c>
       <c r="B139" s="29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D139" s="80">
-        <v>1001095716866</v>
+        <v>1001095227235</v>
       </c>
       <c r="E139" s="24"/>
-      <c r="F139" s="23"/>
+      <c r="F139" s="23">
+        <v>0.35</v>
+      </c>
       <c r="G139" s="23">
-        <f>E139*1</f>
+        <f>F139*E139</f>
         <v>0</v>
       </c>
       <c r="H139" s="14"/>
@@ -5417,177 +5467,175 @@
     </row>
     <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="93" t="str">
-        <f>RIGHT(D140:D263,4)</f>
-        <v>3215</v>
-      </c>
-      <c r="B140" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C140" s="37" t="s">
+        <f>RIGHT(D140:D270,4)</f>
+        <v>6411</v>
+      </c>
+      <c r="B140" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C140" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D140" s="51">
-        <v>1001094053215</v>
+      <c r="D140" s="80">
+        <v>1001093316411</v>
       </c>
       <c r="E140" s="24"/>
       <c r="F140" s="23">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G140" s="23">
-        <f>E140*0.4</f>
+        <f>F140*E140</f>
         <v>0</v>
       </c>
-      <c r="H140" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I140" s="14">
-        <v>60</v>
-      </c>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14"/>
       <c r="J140" s="39"/>
     </row>
-    <row r="141" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="93" t="str">
-        <f>RIGHT(D141:D264,4)</f>
-        <v>7245</v>
-      </c>
-      <c r="B141" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="C141" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D141" s="51">
-        <v>1001092687245</v>
+        <f>RIGHT(D141:D268,4)</f>
+        <v>6866</v>
+      </c>
+      <c r="B141" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C141" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D141" s="80">
+        <v>1001095716866</v>
       </c>
       <c r="E141" s="24"/>
-      <c r="F141" s="23">
-        <v>0.4</v>
-      </c>
+      <c r="F141" s="23"/>
       <c r="G141" s="23">
-        <f>E141*0.4</f>
+        <f>E141*1</f>
         <v>0</v>
       </c>
       <c r="H141" s="14"/>
       <c r="I141" s="14"/>
       <c r="J141" s="39"/>
     </row>
-    <row r="142" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="93" t="str">
-        <f>RIGHT(D142:D266,4)</f>
-        <v/>
-      </c>
-      <c r="B142" s="74" t="s">
-        <v>151</v>
-      </c>
-      <c r="C142" s="74"/>
-      <c r="D142" s="74"/>
-      <c r="E142" s="74"/>
-      <c r="F142" s="73"/>
-      <c r="G142" s="74"/>
-      <c r="H142" s="74"/>
-      <c r="I142" s="74"/>
-      <c r="J142" s="75"/>
-    </row>
-    <row r="143" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D142:D265,4)</f>
+        <v>3215</v>
+      </c>
+      <c r="B142" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C142" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D142" s="51">
+        <v>1001094053215</v>
+      </c>
+      <c r="E142" s="24"/>
+      <c r="F142" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="G142" s="23">
+        <f>E142*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="H142" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I142" s="14">
+        <v>60</v>
+      </c>
+      <c r="J142" s="39"/>
+    </row>
+    <row r="143" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="93" t="str">
-        <f>RIGHT(D143:D269,4)</f>
-        <v>7090</v>
-      </c>
-      <c r="B143" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="C143" s="35" t="s">
+        <f>RIGHT(D143:D266,4)</f>
+        <v>7245</v>
+      </c>
+      <c r="B143" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C143" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D143" s="28">
-        <v>1001084217090</v>
+      <c r="D143" s="51">
+        <v>1001092687245</v>
       </c>
       <c r="E143" s="24"/>
       <c r="F143" s="23">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G143" s="23">
-        <f>E143*F143</f>
+        <f>E143*0.4</f>
         <v>0</v>
       </c>
       <c r="H143" s="14"/>
-      <c r="I143" s="14">
-        <v>50</v>
-      </c>
+      <c r="I143" s="14"/>
       <c r="J143" s="39"/>
     </row>
-    <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="93" t="str">
-        <f>RIGHT(D144:D270,4)</f>
-        <v>4691</v>
-      </c>
-      <c r="B144" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="C144" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D144" s="28">
-        <v>1001083424691</v>
-      </c>
-      <c r="E144" s="24"/>
-      <c r="F144" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G144" s="23">
-        <f t="shared" ref="G144:G150" si="3">F144*E144</f>
-        <v>0</v>
-      </c>
-      <c r="H144" s="14"/>
-      <c r="I144" s="14"/>
-      <c r="J144" s="92"/>
-    </row>
-    <row r="145" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>RIGHT(D144:D268,4)</f>
+        <v/>
+      </c>
+      <c r="B144" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="C144" s="74"/>
+      <c r="D144" s="74"/>
+      <c r="E144" s="74"/>
+      <c r="F144" s="73"/>
+      <c r="G144" s="74"/>
+      <c r="H144" s="74"/>
+      <c r="I144" s="74"/>
+      <c r="J144" s="75"/>
+    </row>
+    <row r="145" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A145" s="93" t="str">
         <f>RIGHT(D145:D271,4)</f>
-        <v>7187</v>
+        <v>7090</v>
       </c>
       <c r="B145" s="47" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C145" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D145" s="28">
-        <v>1001085637187</v>
+        <v>1001084217090</v>
       </c>
       <c r="E145" s="24"/>
       <c r="F145" s="23">
         <v>0.3</v>
       </c>
       <c r="G145" s="23">
-        <f t="shared" si="3"/>
+        <f>E145*F145</f>
         <v>0</v>
       </c>
       <c r="H145" s="14"/>
-      <c r="I145" s="14"/>
-      <c r="J145" s="92"/>
+      <c r="I145" s="14">
+        <v>50</v>
+      </c>
+      <c r="J145" s="39"/>
     </row>
     <row r="146" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="93" t="str">
         <f>RIGHT(D146:D272,4)</f>
-        <v>6201</v>
+        <v>4691</v>
       </c>
       <c r="B146" s="47" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C146" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D146" s="28">
-        <v>1001225636201</v>
+        <v>1001083424691</v>
       </c>
       <c r="E146" s="24"/>
       <c r="F146" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G146" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G146:G152" si="5">F146*E146</f>
         <v>0</v>
       </c>
       <c r="H146" s="14"/>
@@ -5596,24 +5644,24 @@
     </row>
     <row r="147" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="93" t="str">
-        <f>RIGHT(D147:D272,4)</f>
-        <v>6842</v>
+        <f>RIGHT(D147:D273,4)</f>
+        <v>7187</v>
       </c>
       <c r="B147" s="47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C147" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D147" s="28">
-        <v>1001080216842</v>
+        <v>1001085637187</v>
       </c>
       <c r="E147" s="24"/>
       <c r="F147" s="23">
         <v>0.3</v>
       </c>
       <c r="G147" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H147" s="14"/>
@@ -5622,24 +5670,24 @@
     </row>
     <row r="148" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="93" t="str">
-        <f>RIGHT(D148:D272,4)</f>
-        <v>6492</v>
+        <f>RIGHT(D148:D274,4)</f>
+        <v>6201</v>
       </c>
       <c r="B148" s="47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C148" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D148" s="28">
-        <v>1001084226492</v>
+        <v>1001225636201</v>
       </c>
       <c r="E148" s="24"/>
       <c r="F148" s="23">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="G148" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H148" s="14"/>
@@ -5648,24 +5696,24 @@
     </row>
     <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="93" t="str">
-        <f>RIGHT(D149:D270,4)</f>
-        <v>6279</v>
+        <f>RIGHT(D149:D274,4)</f>
+        <v>6842</v>
       </c>
       <c r="B149" s="47" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C149" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D149" s="28">
-        <v>1001220286279</v>
+        <v>1001080216842</v>
       </c>
       <c r="E149" s="24"/>
       <c r="F149" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G149" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H149" s="14"/>
@@ -5674,24 +5722,24 @@
     </row>
     <row r="150" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="93" t="str">
-        <f>RIGHT(D150:D271,4)</f>
-        <v>4786</v>
+        <f>RIGHT(D150:D274,4)</f>
+        <v>6492</v>
       </c>
       <c r="B150" s="47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C150" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D150" s="28">
-        <v>1001053944786</v>
+        <v>1001084226492</v>
       </c>
       <c r="E150" s="24"/>
       <c r="F150" s="23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.3</v>
       </c>
       <c r="G150" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H150" s="14"/>
@@ -5701,23 +5749,23 @@
     <row r="151" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="93" t="str">
         <f>RIGHT(D151:D272,4)</f>
-        <v>7052</v>
+        <v>6279</v>
       </c>
       <c r="B151" s="47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C151" s="35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D151" s="28">
-        <v>1001204447052</v>
+        <v>1001220286279</v>
       </c>
       <c r="E151" s="24"/>
       <c r="F151" s="23">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="G151" s="23">
-        <f>E151</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H151" s="14"/>
@@ -5726,24 +5774,24 @@
     </row>
     <row r="152" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="93" t="str">
-        <f>RIGHT(D152:D272,4)</f>
-        <v>7053</v>
+        <f>RIGHT(D152:D273,4)</f>
+        <v>4786</v>
       </c>
       <c r="B152" s="47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C152" s="35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D152" s="28">
-        <v>1001223297053</v>
+        <v>1001053944786</v>
       </c>
       <c r="E152" s="24"/>
       <c r="F152" s="23">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G152" s="23">
-        <f>E152</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H152" s="14"/>
@@ -5752,263 +5800,268 @@
     </row>
     <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="93" t="str">
-        <f>RIGHT(D153:D272,4)</f>
-        <v>7092</v>
-      </c>
-      <c r="B153" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C153" s="33" t="s">
-        <v>26</v>
+        <f>RIGHT(D153:D274,4)</f>
+        <v>7052</v>
+      </c>
+      <c r="B153" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C153" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D153" s="28">
-        <v>1001223297092</v>
+        <v>1001204447052</v>
       </c>
       <c r="E153" s="24"/>
       <c r="F153" s="23">
-        <v>0.14000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G153" s="23">
-        <f>F153*E153</f>
+        <f>E153</f>
         <v>0</v>
       </c>
       <c r="H153" s="14"/>
       <c r="I153" s="14"/>
-      <c r="J153" s="39"/>
+      <c r="J153" s="92"/>
     </row>
     <row r="154" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="93" t="str">
-        <f>RIGHT(D154:D273,4)</f>
-        <v>7103</v>
-      </c>
-      <c r="B154" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C154" s="33" t="s">
-        <v>26</v>
+        <f>RIGHT(D154:D274,4)</f>
+        <v>7053</v>
+      </c>
+      <c r="B154" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="C154" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D154" s="28">
-        <v>1001223297103</v>
+        <v>1001223297053</v>
       </c>
       <c r="E154" s="24"/>
       <c r="F154" s="23">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="G154" s="23">
-        <f>F154*E154</f>
+        <f>E154</f>
         <v>0</v>
       </c>
       <c r="H154" s="14"/>
       <c r="I154" s="14"/>
       <c r="J154" s="92"/>
     </row>
-    <row r="155" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="93" t="str">
-        <f>RIGHT(D155:D270,4)</f>
-        <v>6919</v>
-      </c>
-      <c r="B155" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="C155" s="35" t="s">
+        <f>RIGHT(D155:D274,4)</f>
+        <v>7092</v>
+      </c>
+      <c r="B155" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C155" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D155" s="28">
-        <v>1001223296919</v>
+        <v>1001223297092</v>
       </c>
       <c r="E155" s="24"/>
-      <c r="F155" s="23"/>
+      <c r="F155" s="23">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="G155" s="23">
-        <f>E155*0.18</f>
+        <f>F155*E155</f>
         <v>0</v>
       </c>
       <c r="H155" s="14"/>
       <c r="I155" s="14"/>
-      <c r="J155" s="92"/>
-    </row>
-    <row r="156" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J155" s="39"/>
+    </row>
+    <row r="156" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="93" t="str">
-        <f>RIGHT(D156:D271,4)</f>
+        <f>RIGHT(D156:D275,4)</f>
+        <v>7103</v>
+      </c>
+      <c r="B156" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C156" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D156" s="28">
+        <v>1001223297103</v>
+      </c>
+      <c r="E156" s="24"/>
+      <c r="F156" s="23">
+        <v>0.18</v>
+      </c>
+      <c r="G156" s="23">
+        <f>F156*E156</f>
+        <v>0</v>
+      </c>
+      <c r="H156" s="14"/>
+      <c r="I156" s="14"/>
+      <c r="J156" s="92"/>
+    </row>
+    <row r="157" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="93" t="str">
+        <f>RIGHT(D157:D272,4)</f>
+        <v>6919</v>
+      </c>
+      <c r="B157" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="C157" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D157" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E157" s="24"/>
+      <c r="F157" s="23"/>
+      <c r="G157" s="23">
+        <f>E157*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H157" s="14"/>
+      <c r="I157" s="14"/>
+      <c r="J157" s="92"/>
+    </row>
+    <row r="158" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="93" t="str">
+        <f>RIGHT(D158:D273,4)</f>
         <v/>
       </c>
-      <c r="B156" s="74" t="s">
+      <c r="B158" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="C156" s="74"/>
-      <c r="D156" s="74"/>
-      <c r="E156" s="74"/>
-      <c r="F156" s="73"/>
-      <c r="G156" s="74"/>
-      <c r="H156" s="74"/>
-      <c r="I156" s="74"/>
-      <c r="J156" s="75"/>
-    </row>
-    <row r="157" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="93" t="str">
-        <f>RIGHT(D157:D274,4)</f>
-        <v/>
-      </c>
-      <c r="B157" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="C157" s="74"/>
-      <c r="D157" s="74"/>
-      <c r="E157" s="74"/>
-      <c r="F157" s="73"/>
-      <c r="G157" s="74"/>
-      <c r="H157" s="74"/>
-      <c r="I157" s="74"/>
-      <c r="J157" s="75"/>
-    </row>
-    <row r="158" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="93" t="str">
-        <f>RIGHT(D158:D275,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B158" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="C158" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D158" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E158" s="24"/>
-      <c r="F158" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G158" s="23">
-        <f>E158*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H158" s="14">
-        <v>8</v>
-      </c>
-      <c r="I158" s="72">
-        <v>120</v>
-      </c>
-      <c r="J158" s="39"/>
-    </row>
-    <row r="159" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C158" s="74"/>
+      <c r="D158" s="74"/>
+      <c r="E158" s="74"/>
+      <c r="F158" s="73"/>
+      <c r="G158" s="74"/>
+      <c r="H158" s="74"/>
+      <c r="I158" s="74"/>
+      <c r="J158" s="75"/>
+    </row>
+    <row r="159" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="93" t="str">
         <f>RIGHT(D159:D276,4)</f>
-        <v>6155</v>
-      </c>
-      <c r="B159" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="C159" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D159" s="28">
-        <v>1002115036155</v>
-      </c>
-      <c r="E159" s="24"/>
-      <c r="F159" s="23"/>
-      <c r="G159" s="23">
-        <f>E159*0.45</f>
-        <v>0</v>
-      </c>
-      <c r="H159" s="14"/>
-      <c r="I159" s="72"/>
-      <c r="J159" s="39"/>
-    </row>
-    <row r="160" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B159" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="C159" s="74"/>
+      <c r="D159" s="74"/>
+      <c r="E159" s="74"/>
+      <c r="F159" s="73"/>
+      <c r="G159" s="74"/>
+      <c r="H159" s="74"/>
+      <c r="I159" s="74"/>
+      <c r="J159" s="75"/>
+    </row>
+    <row r="160" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A160" s="93" t="str">
         <f>RIGHT(D160:D277,4)</f>
-        <v>6157</v>
+        <v>6314</v>
       </c>
       <c r="B160" s="47" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C160" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D160" s="28">
+        <v>1002112606314</v>
+      </c>
+      <c r="E160" s="24"/>
+      <c r="F160" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G160" s="23">
+        <f>E160*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H160" s="14">
+        <v>8</v>
+      </c>
+      <c r="I160" s="72">
+        <v>120</v>
+      </c>
+      <c r="J160" s="39"/>
+    </row>
+    <row r="161" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="93" t="str">
+        <f>RIGHT(D161:D278,4)</f>
+        <v>6155</v>
+      </c>
+      <c r="B161" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="C161" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D161" s="28">
+        <v>1002115036155</v>
+      </c>
+      <c r="E161" s="24"/>
+      <c r="F161" s="23"/>
+      <c r="G161" s="23">
+        <f>E161*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H161" s="14"/>
+      <c r="I161" s="72"/>
+      <c r="J161" s="39"/>
+    </row>
+    <row r="162" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="93" t="str">
+        <f>RIGHT(D162:D279,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B162" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C162" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D162" s="28">
         <v>1002115056157</v>
       </c>
-      <c r="E160" s="24"/>
-      <c r="F160" s="23"/>
-      <c r="G160" s="23">
-        <f>E160*0.45</f>
+      <c r="E162" s="24"/>
+      <c r="F162" s="23"/>
+      <c r="G162" s="23">
+        <f>E162*0.45</f>
         <v>0</v>
       </c>
-      <c r="H160" s="14"/>
-      <c r="I160" s="72"/>
-      <c r="J160" s="39"/>
-    </row>
-    <row r="161" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="93" t="str">
-        <f t="shared" ref="A161:A172" si="4">RIGHT(D161:D276,4)</f>
+      <c r="H162" s="14"/>
+      <c r="I162" s="72"/>
+      <c r="J162" s="39"/>
+    </row>
+    <row r="163" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="93" t="str">
+        <f t="shared" ref="A163:A174" si="6">RIGHT(D163:D278,4)</f>
         <v>6313</v>
       </c>
-      <c r="B161" s="47" t="s">
+      <c r="B163" s="47" t="s">
         <v>170</v>
-      </c>
-      <c r="C161" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D161" s="28">
-        <v>1002112606313</v>
-      </c>
-      <c r="E161" s="24"/>
-      <c r="F161" s="23">
-        <v>0.9</v>
-      </c>
-      <c r="G161" s="23">
-        <f>E161*0.9</f>
-        <v>0</v>
-      </c>
-      <c r="H161" s="14">
-        <v>9</v>
-      </c>
-      <c r="I161" s="72">
-        <v>120</v>
-      </c>
-      <c r="J161" s="39"/>
-    </row>
-    <row r="162" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B162" s="74" t="s">
-        <v>171</v>
-      </c>
-      <c r="C162" s="74"/>
-      <c r="D162" s="74"/>
-      <c r="E162" s="74"/>
-      <c r="F162" s="73"/>
-      <c r="G162" s="74"/>
-      <c r="H162" s="74"/>
-      <c r="I162" s="74"/>
-      <c r="J162" s="75"/>
-    </row>
-    <row r="163" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>4945</v>
-      </c>
-      <c r="B163" s="47" t="s">
-        <v>172</v>
       </c>
       <c r="C163" s="36" t="s">
         <v>26</v>
       </c>
       <c r="D163" s="28">
-        <v>1002151784945</v>
+        <v>1002112606313</v>
       </c>
       <c r="E163" s="24"/>
       <c r="F163" s="23">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="G163" s="23">
-        <f>E163*0.5</f>
+        <f>E163*0.9</f>
         <v>0</v>
       </c>
       <c r="H163" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I163" s="72">
         <v>120</v>
@@ -6017,11 +6070,11 @@
     </row>
     <row r="164" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="93" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="B164" s="74" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C164" s="74"/>
       <c r="D164" s="74"/>
@@ -6032,204 +6085,191 @@
       <c r="I164" s="74"/>
       <c r="J164" s="75"/>
     </row>
-    <row r="165" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="93" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>4945</v>
+      </c>
+      <c r="B165" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="C165" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D165" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E165" s="24"/>
+      <c r="F165" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G165" s="23">
+        <f>E165*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H165" s="14">
+        <v>8</v>
+      </c>
+      <c r="I165" s="72">
+        <v>120</v>
+      </c>
+      <c r="J165" s="39"/>
+    </row>
+    <row r="166" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="93" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B166" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="C166" s="74"/>
+      <c r="D166" s="74"/>
+      <c r="E166" s="74"/>
+      <c r="F166" s="73"/>
+      <c r="G166" s="74"/>
+      <c r="H166" s="74"/>
+      <c r="I166" s="74"/>
+      <c r="J166" s="75"/>
+    </row>
+    <row r="167" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="93" t="str">
+        <f t="shared" si="6"/>
         <v>4956</v>
       </c>
-      <c r="B165" s="89" t="s">
+      <c r="B167" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="C165" s="90" t="s">
+      <c r="C167" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D165" s="83">
+      <c r="D167" s="83">
         <v>1002133974956</v>
       </c>
-      <c r="E165" s="84"/>
-      <c r="F165" s="85">
+      <c r="E167" s="84"/>
+      <c r="F167" s="85">
         <v>0.42</v>
       </c>
-      <c r="G165" s="85">
-        <f>E165*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H165" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="I165" s="91">
-        <v>120</v>
-      </c>
-      <c r="J165" s="86"/>
-      <c r="K165" s="87"/>
-    </row>
-    <row r="166" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>1762</v>
-      </c>
-      <c r="B166" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="C166" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D166" s="28">
-        <v>1002131151762</v>
-      </c>
-      <c r="E166" s="24"/>
-      <c r="F166" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G166" s="23">
-        <f>E166*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H166" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="I166" s="72">
-        <v>120</v>
-      </c>
-      <c r="J166" s="39"/>
-    </row>
-    <row r="167" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>1764</v>
-      </c>
-      <c r="B167" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="C167" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D167" s="28">
-        <v>1002131181764</v>
-      </c>
-      <c r="E167" s="24"/>
-      <c r="F167" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G167" s="23">
+      <c r="G167" s="85">
         <f>E167*0.42</f>
         <v>0</v>
       </c>
-      <c r="H167" s="14">
+      <c r="H167" s="86">
         <v>4.2</v>
       </c>
-      <c r="I167" s="72">
+      <c r="I167" s="91">
         <v>120</v>
       </c>
-      <c r="J167" s="39"/>
-    </row>
-    <row r="168" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J167" s="86"/>
+      <c r="K167" s="87"/>
+    </row>
+    <row r="168" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A168" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B168" s="74" t="s">
-        <v>177</v>
-      </c>
-      <c r="C168" s="74"/>
-      <c r="D168" s="74"/>
-      <c r="E168" s="74"/>
-      <c r="F168" s="73"/>
-      <c r="G168" s="74"/>
-      <c r="H168" s="74"/>
-      <c r="I168" s="74"/>
-      <c r="J168" s="75"/>
-    </row>
-    <row r="169" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>1762</v>
+      </c>
+      <c r="B168" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="C168" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D168" s="28">
+        <v>1002131151762</v>
+      </c>
+      <c r="E168" s="24"/>
+      <c r="F168" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G168" s="23">
+        <f>E168*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H168" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I168" s="72">
+        <v>120</v>
+      </c>
+      <c r="J168" s="39"/>
+    </row>
+    <row r="169" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B169" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="C169" s="74"/>
-      <c r="D169" s="74"/>
-      <c r="E169" s="74"/>
-      <c r="F169" s="73"/>
-      <c r="G169" s="74"/>
-      <c r="H169" s="74"/>
-      <c r="I169" s="74"/>
-      <c r="J169" s="75"/>
+        <f t="shared" si="6"/>
+        <v>1764</v>
+      </c>
+      <c r="B169" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C169" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D169" s="28">
+        <v>1002131181764</v>
+      </c>
+      <c r="E169" s="24"/>
+      <c r="F169" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G169" s="23">
+        <f>E169*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H169" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I169" s="72">
+        <v>120</v>
+      </c>
+      <c r="J169" s="39"/>
     </row>
     <row r="170" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="93" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B170" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="C170" s="74"/>
+      <c r="D170" s="74"/>
+      <c r="E170" s="74"/>
+      <c r="F170" s="73"/>
+      <c r="G170" s="74"/>
+      <c r="H170" s="74"/>
+      <c r="I170" s="74"/>
+      <c r="J170" s="75"/>
+    </row>
+    <row r="171" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="93" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B171" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="C171" s="74"/>
+      <c r="D171" s="74"/>
+      <c r="E171" s="74"/>
+      <c r="F171" s="73"/>
+      <c r="G171" s="74"/>
+      <c r="H171" s="74"/>
+      <c r="I171" s="74"/>
+      <c r="J171" s="75"/>
+    </row>
+    <row r="172" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="93" t="str">
+        <f t="shared" si="6"/>
         <v>6004</v>
       </c>
-      <c r="B170" s="47" t="s">
+      <c r="B172" s="47" t="s">
         <v>179</v>
-      </c>
-      <c r="C170" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D170" s="68" t="s">
-        <v>180</v>
-      </c>
-      <c r="E170" s="24"/>
-      <c r="F170" s="23">
-        <v>1</v>
-      </c>
-      <c r="G170" s="23">
-        <f>E170*1</f>
-        <v>0</v>
-      </c>
-      <c r="H170" s="14">
-        <v>8</v>
-      </c>
-      <c r="I170" s="72">
-        <v>120</v>
-      </c>
-      <c r="J170" s="39"/>
-    </row>
-    <row r="171" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>5417</v>
-      </c>
-      <c r="B171" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="C171" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D171" s="68" t="s">
-        <v>182</v>
-      </c>
-      <c r="E171" s="24"/>
-      <c r="F171" s="23">
-        <v>2</v>
-      </c>
-      <c r="G171" s="23">
-        <f>E171*1</f>
-        <v>0</v>
-      </c>
-      <c r="H171" s="14">
-        <v>6</v>
-      </c>
-      <c r="I171" s="72">
-        <v>90</v>
-      </c>
-      <c r="J171" s="39"/>
-    </row>
-    <row r="172" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v>6019</v>
-      </c>
-      <c r="B172" s="47" t="s">
-        <v>183</v>
       </c>
       <c r="C172" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D172" s="69" t="s">
-        <v>184</v>
+      <c r="D172" s="68" t="s">
+        <v>180</v>
       </c>
       <c r="E172" s="24"/>
       <c r="F172" s="23">
@@ -6240,60 +6280,100 @@
         <v>0</v>
       </c>
       <c r="H172" s="14">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I172" s="72">
         <v>120</v>
       </c>
       <c r="J172" s="39"/>
     </row>
-    <row r="173" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="77"/>
-      <c r="B173" s="77" t="s">
+    <row r="173" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="93" t="str">
+        <f t="shared" si="6"/>
+        <v>5417</v>
+      </c>
+      <c r="B173" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="C173" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D173" s="68" t="s">
+        <v>182</v>
+      </c>
+      <c r="E173" s="24"/>
+      <c r="F173" s="23">
+        <v>2</v>
+      </c>
+      <c r="G173" s="23">
+        <f>E173*1</f>
+        <v>0</v>
+      </c>
+      <c r="H173" s="14">
+        <v>6</v>
+      </c>
+      <c r="I173" s="72">
+        <v>90</v>
+      </c>
+      <c r="J173" s="39"/>
+    </row>
+    <row r="174" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="93" t="str">
+        <f t="shared" si="6"/>
+        <v>6019</v>
+      </c>
+      <c r="B174" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C174" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D174" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="E174" s="24"/>
+      <c r="F174" s="23">
+        <v>1</v>
+      </c>
+      <c r="G174" s="23">
+        <f>E174*1</f>
+        <v>0</v>
+      </c>
+      <c r="H174" s="14">
+        <v>12</v>
+      </c>
+      <c r="I174" s="72">
+        <v>120</v>
+      </c>
+      <c r="J174" s="39"/>
+    </row>
+    <row r="175" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="77"/>
+      <c r="B175" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="C173" s="16"/>
-      <c r="D173" s="48"/>
-      <c r="E173" s="17">
-        <f>SUM(E5:E172)</f>
+      <c r="C175" s="16"/>
+      <c r="D175" s="48"/>
+      <c r="E175" s="17">
+        <f>SUM(E5:E174)</f>
         <v>0</v>
       </c>
-      <c r="F173" s="17">
-        <f>SUM(F10:F172)</f>
-        <v>45.123333333333314</v>
-      </c>
-      <c r="G173" s="17">
-        <f>SUM(G11:G172)</f>
+      <c r="F175" s="17">
+        <f>SUM(F10:F174)</f>
+        <v>45.753333333333309</v>
+      </c>
+      <c r="G175" s="17">
+        <f>SUM(G11:G174)</f>
         <v>0</v>
       </c>
-      <c r="H173" s="17">
-        <f>SUM(H10:H169)</f>
+      <c r="H175" s="17">
+        <f>SUM(H10:H171)</f>
         <v>128.91</v>
       </c>
-      <c r="I173" s="17"/>
-      <c r="J173" s="17"/>
-    </row>
-    <row r="174" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="53"/>
-      <c r="C174" s="18"/>
-      <c r="D174" s="52"/>
-      <c r="F174" s="19"/>
-      <c r="G174" s="19"/>
-      <c r="H174" s="20"/>
-      <c r="I174" s="20"/>
-      <c r="J174" s="21"/>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B175" s="53"/>
-      <c r="C175" s="18"/>
-      <c r="D175" s="52"/>
-      <c r="F175" s="19"/>
-      <c r="G175" s="19"/>
-      <c r="H175" s="20"/>
-      <c r="I175" s="20"/>
-      <c r="J175" s="21"/>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I175" s="17"/>
+      <c r="J175" s="17"/>
+    </row>
+    <row r="176" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B176" s="53"/>
       <c r="C176" s="18"/>
       <c r="D176" s="52"/>
@@ -21513,17 +21593,37 @@
       <c r="I1697" s="20"/>
       <c r="J1697" s="21"/>
     </row>
+    <row r="1698" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1698" s="53"/>
+      <c r="C1698" s="18"/>
+      <c r="D1698" s="52"/>
+      <c r="F1698" s="19"/>
+      <c r="G1698" s="19"/>
+      <c r="H1698" s="20"/>
+      <c r="I1698" s="20"/>
+      <c r="J1698" s="21"/>
+    </row>
+    <row r="1699" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1699" s="53"/>
+      <c r="C1699" s="18"/>
+      <c r="D1699" s="52"/>
+      <c r="F1699" s="19"/>
+      <c r="G1699" s="19"/>
+      <c r="H1699" s="20"/>
+      <c r="I1699" s="20"/>
+      <c r="J1699" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J173" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J175" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B166" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B168" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D170:D172" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D172:D174" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 02,06,25ц-выезд 04,06.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/SIMF/чистый бланк/ЗАКАЗ КРЫМ 02,06,25ц-выезд 04,06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\SIMF\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53B2FFD-552E-404B-B853-CB0F3E041F0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9484CBFF-35A8-4E9D-860F-E6A1BA22B248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="кск формула" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Дист 1'!$A$9:$J$176</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="253">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -788,6 +788,9 @@
   </si>
   <si>
     <t>СЛИВОЧНЫЕ ПМ сос п/о мгс 0.3кг 7шт.</t>
+  </si>
+  <si>
+    <t>САЛЬЧИЧОН Папа может с/к в/у</t>
   </si>
 </sst>
 </file>
@@ -1973,11 +1976,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L1699"/>
+  <dimension ref="A1:L1700"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I182" sqref="I182"/>
+      <pane ySplit="9" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I180" sqref="I180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2122,7 +2125,7 @@
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="93" t="str">
-        <f>RIGHT(D11:D174,4)</f>
+        <f>RIGHT(D11:D175,4)</f>
         <v>5246</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -2153,7 +2156,7 @@
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93" t="str">
-        <f>RIGHT(D12:D175,4)</f>
+        <f>RIGHT(D12:D176,4)</f>
         <v>4555</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -2178,7 +2181,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="93" t="str">
-        <f>RIGHT(D13:D175,4)</f>
+        <f>RIGHT(D13:D176,4)</f>
         <v>5992</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -2202,7 +2205,7 @@
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="93" t="str">
-        <f>RIGHT(D14:D176,4)</f>
+        <f>RIGHT(D14:D177,4)</f>
         <v>6268</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -2226,7 +2229,7 @@
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="93" t="str">
-        <f>RIGHT(D15:D177,4)</f>
+        <f>RIGHT(D15:D178,4)</f>
         <v>7126</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -2252,7 +2255,7 @@
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="93" t="str">
-        <f>RIGHT(D16:D177,4)</f>
+        <f>RIGHT(D16:D178,4)</f>
         <v>6247</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2276,7 +2279,7 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="93" t="str">
-        <f>RIGHT(D17:D177,4)</f>
+        <f>RIGHT(D17:D178,4)</f>
         <v>6325</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2306,7 +2309,7 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="93" t="str">
-        <f>RIGHT(D18:D178,4)</f>
+        <f>RIGHT(D18:D179,4)</f>
         <v>6324</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2332,7 +2335,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="93" t="str">
-        <f>RIGHT(D19:D179,4)</f>
+        <f>RIGHT(D19:D180,4)</f>
         <v>6839</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2358,7 +2361,7 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="93" t="str">
-        <f>RIGHT(D20:D180,4)</f>
+        <f>RIGHT(D20:D181,4)</f>
         <v>7231</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -2382,7 +2385,7 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="93" t="str">
-        <f>RIGHT(D21:D181,4)</f>
+        <f>RIGHT(D21:D182,4)</f>
         <v>4063</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2412,7 +2415,7 @@
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="93" t="str">
-        <f>RIGHT(D22:D182,4)</f>
+        <f>RIGHT(D22:D183,4)</f>
         <v>6333</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -2442,7 +2445,7 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="93" t="str">
-        <f>RIGHT(D23:D183,4)</f>
+        <f>RIGHT(D23:D184,4)</f>
         <v>4574</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2472,7 +2475,7 @@
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="93" t="str">
-        <f>RIGHT(D24:D184,4)</f>
+        <f>RIGHT(D24:D185,4)</f>
         <v>6861</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -2502,7 +2505,7 @@
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="93" t="str">
-        <f>RIGHT(D25:D188,4)</f>
+        <f>RIGHT(D25:D189,4)</f>
         <v>6862</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -2526,7 +2529,7 @@
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="93" t="str">
-        <f>RIGHT(D26:D188,4)</f>
+        <f>RIGHT(D26:D189,4)</f>
         <v>6341</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -2550,7 +2553,7 @@
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="93" t="str">
-        <f>RIGHT(D27:D189,4)</f>
+        <f>RIGHT(D27:D190,4)</f>
         <v>5247</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -2580,7 +2583,7 @@
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="93" t="str">
-        <f>RIGHT(D28:D192,4)</f>
+        <f>RIGHT(D28:D193,4)</f>
         <v>4813</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -2610,7 +2613,7 @@
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="93" t="str">
-        <f>RIGHT(D29:D193,4)</f>
+        <f>RIGHT(D29:D194,4)</f>
         <v>6392</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -2640,7 +2643,7 @@
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="93" t="str">
-        <f>RIGHT(D30:D194,4)</f>
+        <f>RIGHT(D30:D195,4)</f>
         <v>6801</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -2666,7 +2669,7 @@
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="93" t="str">
-        <f>RIGHT(D31:D195,4)</f>
+        <f>RIGHT(D31:D196,4)</f>
         <v>6802</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -2690,7 +2693,7 @@
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="93" t="str">
-        <f>RIGHT(D32:D196,4)</f>
+        <f>RIGHT(D32:D197,4)</f>
         <v>6877</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -2714,7 +2717,7 @@
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="93" t="str">
-        <f>RIGHT(D33:D197,4)</f>
+        <f>RIGHT(D33:D198,4)</f>
         <v>6888</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -2740,7 +2743,7 @@
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="93" t="str">
-        <f>RIGHT(D34:D195,4)</f>
+        <f>RIGHT(D34:D196,4)</f>
         <v>5851</v>
       </c>
       <c r="B34" s="27" t="s">
@@ -2770,7 +2773,7 @@
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="93" t="str">
-        <f>RIGHT(D35:D196,4)</f>
+        <f>RIGHT(D35:D197,4)</f>
         <v>6159</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -2794,7 +2797,7 @@
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="93" t="str">
-        <f>RIGHT(D36:D196,4)</f>
+        <f>RIGHT(D36:D197,4)</f>
         <v>6158</v>
       </c>
       <c r="B36" s="27" t="s">
@@ -2822,7 +2825,7 @@
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="93" t="str">
-        <f>RIGHT(D37:D198,4)</f>
+        <f>RIGHT(D37:D199,4)</f>
         <v>6340</v>
       </c>
       <c r="B37" s="95" t="s">
@@ -2850,7 +2853,7 @@
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="93" t="str">
-        <f>RIGHT(D38:D196,4)</f>
+        <f>RIGHT(D38:D197,4)</f>
         <v>6353</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -2880,7 +2883,7 @@
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="93" t="str">
-        <f>RIGHT(D39:D197,4)</f>
+        <f>RIGHT(D39:D198,4)</f>
         <v/>
       </c>
       <c r="B39" s="74" t="s">
@@ -2897,7 +2900,7 @@
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A40" s="93" t="str">
-        <f>RIGHT(D40:D200,4)</f>
+        <f>RIGHT(D40:D201,4)</f>
         <v>6870</v>
       </c>
       <c r="B40" s="27" t="s">
@@ -2922,7 +2925,7 @@
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="93" t="str">
-        <f>RIGHT(D41:D202,4)</f>
+        <f>RIGHT(D41:D203,4)</f>
         <v>7038</v>
       </c>
       <c r="B41" s="27" t="s">
@@ -2947,7 +2950,7 @@
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="93" t="str">
-        <f>RIGHT(D42:D203,4)</f>
+        <f>RIGHT(D42:D204,4)</f>
         <v>7040</v>
       </c>
       <c r="B42" s="27" t="s">
@@ -2974,7 +2977,7 @@
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="93" t="str">
-        <f>RIGHT(D43:D202,4)</f>
+        <f>RIGHT(D43:D203,4)</f>
         <v>7075</v>
       </c>
       <c r="B43" s="27" t="s">
@@ -2999,7 +3002,7 @@
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="93" t="str">
-        <f>RIGHT(D44:D203,4)</f>
+        <f>RIGHT(D44:D204,4)</f>
         <v>7070</v>
       </c>
       <c r="B44" s="27" t="s">
@@ -3024,7 +3027,7 @@
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="93" t="str">
-        <f>RIGHT(D45:D201,4)</f>
+        <f>RIGHT(D45:D202,4)</f>
         <v>6253</v>
       </c>
       <c r="B45" s="27" t="s">
@@ -3049,7 +3052,7 @@
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="93" t="str">
-        <f>RIGHT(D46:D200,4)</f>
+        <f>RIGHT(D46:D201,4)</f>
         <v>6602</v>
       </c>
       <c r="B46" s="27" t="s">
@@ -3074,7 +3077,7 @@
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="93" t="str">
-        <f>RIGHT(D47:D203,4)</f>
+        <f>RIGHT(D47:D204,4)</f>
         <v>6768</v>
       </c>
       <c r="B47" s="27" t="s">
@@ -3099,7 +3102,7 @@
     </row>
     <row r="48" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="93" t="str">
-        <f>RIGHT(D48:D204,4)</f>
+        <f>RIGHT(D48:D205,4)</f>
         <v>6770</v>
       </c>
       <c r="B48" s="27" t="s">
@@ -3124,7 +3127,7 @@
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="93" t="str">
-        <f>RIGHT(D49:D207,4)</f>
+        <f>RIGHT(D49:D208,4)</f>
         <v>6829</v>
       </c>
       <c r="B49" s="27" t="s">
@@ -3148,7 +3151,7 @@
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="93" t="str">
-        <f>RIGHT(D50:D212,4)</f>
+        <f>RIGHT(D50:D213,4)</f>
         <v>7074</v>
       </c>
       <c r="B50" s="27" t="s">
@@ -3172,7 +3175,7 @@
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="93" t="str">
-        <f>RIGHT(D51:D213,4)</f>
+        <f>RIGHT(D51:D214,4)</f>
         <v>7073</v>
       </c>
       <c r="B51" s="27" t="s">
@@ -3196,7 +3199,7 @@
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="93" t="str">
-        <f>RIGHT(D52:D214,4)</f>
+        <f>RIGHT(D52:D215,4)</f>
         <v>6759</v>
       </c>
       <c r="B52" s="27" t="s">
@@ -3220,7 +3223,7 @@
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="93" t="str">
-        <f>RIGHT(D53:D215,4)</f>
+        <f>RIGHT(D53:D216,4)</f>
         <v>6724</v>
       </c>
       <c r="B53" s="27" t="s">
@@ -3246,7 +3249,7 @@
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="93" t="str">
-        <f>RIGHT(D54:D216,4)</f>
+        <f>RIGHT(D54:D217,4)</f>
         <v>6616</v>
       </c>
       <c r="B54" s="27" t="s">
@@ -3272,7 +3275,7 @@
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="93" t="str">
-        <f>RIGHT(D55:D217,4)</f>
+        <f>RIGHT(D55:D218,4)</f>
         <v>7276</v>
       </c>
       <c r="B55" s="27" t="s">
@@ -3298,7 +3301,7 @@
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="93" t="str">
-        <f>RIGHT(D56:D215,4)</f>
+        <f>RIGHT(D56:D216,4)</f>
         <v>6901</v>
       </c>
       <c r="B56" s="27" t="s">
@@ -3324,7 +3327,7 @@
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="93" t="str">
-        <f>RIGHT(D57:D216,4)</f>
+        <f>RIGHT(D57:D217,4)</f>
         <v>6962</v>
       </c>
       <c r="B57" s="27" t="s">
@@ -3350,7 +3353,7 @@
     </row>
     <row r="58" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="93" t="str">
-        <f>RIGHT(D58:D214,4)</f>
+        <f>RIGHT(D58:D215,4)</f>
         <v>6303</v>
       </c>
       <c r="B58" s="70" t="s">
@@ -3381,7 +3384,7 @@
     </row>
     <row r="59" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="93" t="str">
-        <f>RIGHT(D59:D215,4)</f>
+        <f>RIGHT(D59:D216,4)</f>
         <v>7077</v>
       </c>
       <c r="B59" s="70" t="s">
@@ -3406,7 +3409,7 @@
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="93" t="str">
-        <f>RIGHT(D60:D215,4)</f>
+        <f>RIGHT(D60:D216,4)</f>
         <v>7080</v>
       </c>
       <c r="B60" s="45" t="s">
@@ -3436,7 +3439,7 @@
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="93" t="str">
-        <f>RIGHT(D61:D216,4)</f>
+        <f>RIGHT(D61:D217,4)</f>
         <v>6762</v>
       </c>
       <c r="B61" s="45" t="s">
@@ -3462,7 +3465,7 @@
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="93" t="str">
-        <f>RIGHT(D62:D216,4)</f>
+        <f>RIGHT(D62:D217,4)</f>
         <v>5820</v>
       </c>
       <c r="B62" s="45" t="s">
@@ -3488,7 +3491,7 @@
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="93" t="str">
-        <f>RIGHT(D63:D217,4)</f>
+        <f>RIGHT(D63:D218,4)</f>
         <v>7082</v>
       </c>
       <c r="B63" s="45" t="s">
@@ -3512,7 +3515,7 @@
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="93" t="str">
-        <f>RIGHT(D64:D218,4)</f>
+        <f>RIGHT(D64:D219,4)</f>
         <v>6764</v>
       </c>
       <c r="B64" s="45" t="s">
@@ -3536,7 +3539,7 @@
     </row>
     <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="93" t="str">
-        <f>RIGHT(D65:D220,4)</f>
+        <f>RIGHT(D65:D221,4)</f>
         <v>6761</v>
       </c>
       <c r="B65" s="45" t="s">
@@ -3560,7 +3563,7 @@
     </row>
     <row r="66" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="93" t="str">
-        <f>RIGHT(D66:D221,4)</f>
+        <f>RIGHT(D66:D222,4)</f>
         <v>6767</v>
       </c>
       <c r="B66" s="45" t="s">
@@ -3584,7 +3587,7 @@
     </row>
     <row r="67" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="93" t="str">
-        <f>RIGHT(D67:D221,4)</f>
+        <f>RIGHT(D67:D222,4)</f>
         <v>6765</v>
       </c>
       <c r="B67" s="45" t="s">
@@ -3608,7 +3611,7 @@
     </row>
     <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="93" t="str">
-        <f>RIGHT(D68:D222,4)</f>
+        <f>RIGHT(D68:D223,4)</f>
         <v>6909</v>
       </c>
       <c r="B68" s="45" t="s">
@@ -3634,7 +3637,7 @@
     </row>
     <row r="69" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="93" t="str">
-        <f>RIGHT(D69:D223,4)</f>
+        <f>RIGHT(D69:D224,4)</f>
         <v>7284</v>
       </c>
       <c r="B69" s="45" t="s">
@@ -3660,7 +3663,7 @@
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="93" t="str">
-        <f>RIGHT(D70:D223,4)</f>
+        <f>RIGHT(D70:D224,4)</f>
         <v>7250</v>
       </c>
       <c r="B70" s="45" t="s">
@@ -3686,7 +3689,7 @@
     </row>
     <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="93" t="str">
-        <f>RIGHT(D71:D223,4)</f>
+        <f>RIGHT(D71:D224,4)</f>
         <v>6987</v>
       </c>
       <c r="B71" s="45" t="s">
@@ -3712,7 +3715,7 @@
     </row>
     <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="93" t="str">
-        <f>RIGHT(D72:D221,4)</f>
+        <f>RIGHT(D72:D222,4)</f>
         <v>7066</v>
       </c>
       <c r="B72" s="45" t="s">
@@ -3742,7 +3745,7 @@
     </row>
     <row r="73" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="93" t="str">
-        <f>RIGHT(D73:D222,4)</f>
+        <f>RIGHT(D73:D223,4)</f>
         <v>6837</v>
       </c>
       <c r="B73" s="45" t="s">
@@ -3768,7 +3771,7 @@
     </row>
     <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="93" t="str">
-        <f>RIGHT(D74:D223,4)</f>
+        <f>RIGHT(D74:D224,4)</f>
         <v>7244</v>
       </c>
       <c r="B74" s="45" t="s">
@@ -3792,7 +3795,7 @@
     </row>
     <row r="75" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="93" t="str">
-        <f>RIGHT(D75:D224,4)</f>
+        <f>RIGHT(D75:D225,4)</f>
         <v>6661</v>
       </c>
       <c r="B75" s="27" t="s">
@@ -3817,7 +3820,7 @@
     </row>
     <row r="76" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="93" t="str">
-        <f>RIGHT(D76:D225,4)</f>
+        <f>RIGHT(D76:D226,4)</f>
         <v>6713</v>
       </c>
       <c r="B76" s="27" t="s">
@@ -3842,7 +3845,7 @@
     </row>
     <row r="77" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="93" t="str">
-        <f>RIGHT(D77:D221,4)</f>
+        <f>RIGHT(D77:D222,4)</f>
         <v/>
       </c>
       <c r="B77" s="74" t="s">
@@ -3859,7 +3862,7 @@
     </row>
     <row r="78" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A78" s="93" t="str">
-        <f>RIGHT(D78:D222,4)</f>
+        <f>RIGHT(D78:D223,4)</f>
         <v>5698</v>
       </c>
       <c r="B78" s="46" t="s">
@@ -3889,7 +3892,7 @@
     </row>
     <row r="79" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="93" t="str">
-        <f>RIGHT(D79:D225,4)</f>
+        <f>RIGHT(D79:D226,4)</f>
         <v>6528</v>
       </c>
       <c r="B79" s="46" t="s">
@@ -3913,7 +3916,7 @@
     </row>
     <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="93" t="str">
-        <f>RIGHT(D80:D226,4)</f>
+        <f>RIGHT(D80:D227,4)</f>
         <v>7059</v>
       </c>
       <c r="B80" s="46" t="s">
@@ -3939,7 +3942,7 @@
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="93" t="str">
-        <f>RIGHT(D81:D226,4)</f>
+        <f>RIGHT(D81:D227,4)</f>
         <v>6609</v>
       </c>
       <c r="B81" s="46" t="s">
@@ -3965,7 +3968,7 @@
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="93" t="str">
-        <f>RIGHT(D82:D227,4)</f>
+        <f>RIGHT(D82:D228,4)</f>
         <v>7001</v>
       </c>
       <c r="B82" s="46" t="s">
@@ -3991,7 +3994,7 @@
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="93" t="str">
-        <f>RIGHT(D83:D227,4)</f>
+        <f>RIGHT(D83:D228,4)</f>
         <v>6527</v>
       </c>
       <c r="B83" s="46" t="s">
@@ -4021,7 +4024,7 @@
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="93" t="str">
-        <f>RIGHT(D84:D228,4)</f>
+        <f>RIGHT(D84:D229,4)</f>
         <v/>
       </c>
       <c r="B84" s="74" t="s">
@@ -4038,7 +4041,7 @@
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A85" s="93" t="str">
-        <f>RIGHT(D85:D229,4)</f>
+        <f>RIGHT(D85:D230,4)</f>
         <v>7232</v>
       </c>
       <c r="B85" s="27" t="s">
@@ -4066,7 +4069,7 @@
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="93" t="str">
-        <f>RIGHT(D86:D230,4)</f>
+        <f>RIGHT(D86:D231,4)</f>
         <v>6785</v>
       </c>
       <c r="B86" s="27" t="s">
@@ -4090,7 +4093,7 @@
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="93" t="str">
-        <f>RIGHT(D87:D231,4)</f>
+        <f>RIGHT(D87:D232,4)</f>
         <v>7149</v>
       </c>
       <c r="B87" s="96" t="s">
@@ -4118,7 +4121,7 @@
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="93" t="str">
-        <f>RIGHT(D88:D231,4)</f>
+        <f>RIGHT(D88:D232,4)</f>
         <v>6786</v>
       </c>
       <c r="B88" s="27" t="s">
@@ -4142,7 +4145,7 @@
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="93" t="str">
-        <f>RIGHT(D89:D232,4)</f>
+        <f>RIGHT(D89:D233,4)</f>
         <v>4903</v>
       </c>
       <c r="B89" s="27" t="s">
@@ -4166,7 +4169,7 @@
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="93" t="str">
-        <f>RIGHT(D90:D232,4)</f>
+        <f>RIGHT(D90:D233,4)</f>
         <v>7131</v>
       </c>
       <c r="B90" s="27" t="s">
@@ -4192,7 +4195,7 @@
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="93" t="str">
-        <f>RIGHT(D91:D230,4)</f>
+        <f>RIGHT(D91:D231,4)</f>
         <v>7241</v>
       </c>
       <c r="B91" s="27" t="s">
@@ -4222,7 +4225,7 @@
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="93" t="str">
-        <f>RIGHT(D92:D233,4)</f>
+        <f>RIGHT(D92:D234,4)</f>
         <v/>
       </c>
       <c r="B92" s="74" t="s">
@@ -4239,7 +4242,7 @@
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A93" s="93" t="str">
-        <f>RIGHT(D93:D234,4)</f>
+        <f>RIGHT(D93:D235,4)</f>
         <v>7154</v>
       </c>
       <c r="B93" s="27" t="s">
@@ -4267,7 +4270,7 @@
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="93" t="str">
-        <f>RIGHT(D94:D236,4)</f>
+        <f>RIGHT(D94:D237,4)</f>
         <v>6793</v>
       </c>
       <c r="B94" s="27" t="s">
@@ -4291,7 +4294,7 @@
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="93" t="str">
-        <f>RIGHT(D95:D237,4)</f>
+        <f>RIGHT(D95:D238,4)</f>
         <v>6795</v>
       </c>
       <c r="B95" s="27" t="s">
@@ -4315,7 +4318,7 @@
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="93" t="str">
-        <f>RIGHT(D96:D237,4)</f>
+        <f>RIGHT(D96:D238,4)</f>
         <v>6807</v>
       </c>
       <c r="B96" s="27" t="s">
@@ -4339,7 +4342,7 @@
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="93" t="str">
-        <f>RIGHT(D97:D237,4)</f>
+        <f>RIGHT(D97:D238,4)</f>
         <v>7236</v>
       </c>
       <c r="B97" s="27" t="s">
@@ -4369,7 +4372,7 @@
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="93" t="str">
-        <f>RIGHT(D98:D239,4)</f>
+        <f>RIGHT(D98:D240,4)</f>
         <v>6787</v>
       </c>
       <c r="B98" s="27" t="s">
@@ -4393,7 +4396,7 @@
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="93" t="str">
-        <f>RIGHT(D99:D240,4)</f>
+        <f>RIGHT(D99:D241,4)</f>
         <v>6788</v>
       </c>
       <c r="B99" s="27" t="s">
@@ -4417,7 +4420,7 @@
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="93" t="str">
-        <f>RIGHT(D100:D241,4)</f>
+        <f>RIGHT(D100:D242,4)</f>
         <v>6790</v>
       </c>
       <c r="B100" s="27" t="s">
@@ -4441,7 +4444,7 @@
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="93" t="str">
-        <f>RIGHT(D101:D240,4)</f>
+        <f>RIGHT(D101:D241,4)</f>
         <v>7169</v>
       </c>
       <c r="B101" s="64" t="s">
@@ -4469,7 +4472,7 @@
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="93" t="str">
-        <f>RIGHT(D102:D241,4)</f>
+        <f>RIGHT(D102:D242,4)</f>
         <v>6791</v>
       </c>
       <c r="B102" s="64" t="s">
@@ -4493,7 +4496,7 @@
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="93" t="str">
-        <f>RIGHT(D103:D242,4)</f>
+        <f>RIGHT(D103:D243,4)</f>
         <v>7166</v>
       </c>
       <c r="B103" s="64" t="s">
@@ -4519,7 +4522,7 @@
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="93" t="str">
-        <f>RIGHT(D104:D243,4)</f>
+        <f>RIGHT(D104:D244,4)</f>
         <v>6459</v>
       </c>
       <c r="B104" s="64" t="s">
@@ -4545,7 +4548,7 @@
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="93" t="str">
-        <f>RIGHT(D105:D244,4)</f>
+        <f>RIGHT(D105:D245,4)</f>
         <v>6586</v>
       </c>
       <c r="B105" s="64" t="s">
@@ -4569,7 +4572,7 @@
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="93" t="str">
-        <f>RIGHT(D106:D242,4)</f>
+        <f>RIGHT(D106:D243,4)</f>
         <v>6228</v>
       </c>
       <c r="B106" s="64" t="s">
@@ -4593,7 +4596,7 @@
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="93" t="str">
-        <f>RIGHT(D107:D243,4)</f>
+        <f>RIGHT(D107:D244,4)</f>
         <v>7087</v>
       </c>
       <c r="B107" s="64" t="s">
@@ -4619,7 +4622,7 @@
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="93" t="str">
-        <f>RIGHT(D108:D242,4)</f>
+        <f>RIGHT(D108:D243,4)</f>
         <v>5544</v>
       </c>
       <c r="B108" s="27" t="s">
@@ -4649,7 +4652,7 @@
     </row>
     <row r="109" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="93" t="str">
-        <f t="shared" ref="A109:A114" si="0">RIGHT(D109:D244,4)</f>
+        <f>RIGHT(D109:D245,4)</f>
         <v>6697</v>
       </c>
       <c r="B109" s="27" t="s">
@@ -4679,7 +4682,7 @@
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D110:D246,4)</f>
         <v/>
       </c>
       <c r="B110" s="74" t="s">
@@ -4696,7 +4699,7 @@
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A111" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D111:D247,4)</f>
         <v>5706</v>
       </c>
       <c r="B111" s="27" t="s">
@@ -4726,7 +4729,7 @@
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D112:D248,4)</f>
         <v>6454</v>
       </c>
       <c r="B112" s="27" t="s">
@@ -4756,7 +4759,7 @@
     </row>
     <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D113:D249,4)</f>
         <v>6222</v>
       </c>
       <c r="B113" s="27" t="s">
@@ -4780,7 +4783,7 @@
     </row>
     <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="93" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(D114:D250,4)</f>
         <v>5931</v>
       </c>
       <c r="B114" s="27" t="s">
@@ -4810,7 +4813,7 @@
     </row>
     <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="93" t="str">
-        <f>RIGHT(D115:D251,4)</f>
+        <f>RIGHT(D115:D252,4)</f>
         <v>5708</v>
       </c>
       <c r="B115" s="27" t="s">
@@ -4840,7 +4843,7 @@
     </row>
     <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="93" t="str">
-        <f>RIGHT(D116:D252,4)</f>
+        <f>RIGHT(D116:D253,4)</f>
         <v>1146</v>
       </c>
       <c r="B116" s="27" t="s">
@@ -4864,22 +4867,22 @@
     </row>
     <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="93" t="str">
-        <f>RIGHT(D117:D252,4)</f>
-        <v>6834</v>
+        <f>RIGHT(D117:D254,4)</f>
+        <v>7150</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C117" s="33" t="s">
-        <v>26</v>
+        <v>252</v>
+      </c>
+      <c r="C117" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D117" s="28">
-        <v>1001203146834</v>
+        <v>1001063237150</v>
       </c>
       <c r="E117" s="24"/>
       <c r="F117" s="23"/>
       <c r="G117" s="23">
-        <f>E117*0.1</f>
+        <f>E117</f>
         <v>0</v>
       </c>
       <c r="H117" s="14"/>
@@ -4889,23 +4892,21 @@
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="93" t="str">
         <f>RIGHT(D118:D253,4)</f>
-        <v>6448</v>
+        <v>6834</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C118" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D118" s="28">
-        <v>1001234146448</v>
+        <v>1001203146834</v>
       </c>
       <c r="E118" s="24"/>
-      <c r="F118" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F118" s="23"/>
       <c r="G118" s="23">
-        <f>F118*E118</f>
+        <f>E118*0.1</f>
         <v>0</v>
       </c>
       <c r="H118" s="14"/>
@@ -4915,20 +4916,20 @@
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="93" t="str">
         <f>RIGHT(D119:D254,4)</f>
-        <v>6221</v>
+        <v>6448</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C119" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D119" s="28">
-        <v>1001205376221</v>
+        <v>1001234146448</v>
       </c>
       <c r="E119" s="24"/>
       <c r="F119" s="23">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G119" s="23">
         <f>F119*E119</f>
@@ -4940,21 +4941,21 @@
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="93" t="str">
-        <f>RIGHT(D120:D254,4)</f>
-        <v>5679</v>
+        <f>RIGHT(D120:D255,4)</f>
+        <v>6221</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C120" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D120" s="28">
-        <v>1001190765679</v>
+        <v>1001205376221</v>
       </c>
       <c r="E120" s="24"/>
       <c r="F120" s="23">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="G120" s="23">
         <f>F120*E120</f>
@@ -4966,80 +4967,80 @@
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="93" t="str">
-        <f t="shared" ref="A121:A126" si="1">RIGHT(D121:D256,4)</f>
-        <v>4993</v>
+        <f>RIGHT(D121:D255,4)</f>
+        <v>5679</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C121" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D121" s="28">
-        <v>1001060764993</v>
+        <v>1001190765679</v>
       </c>
       <c r="E121" s="24"/>
       <c r="F121" s="23">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G121" s="23">
-        <f>E121*0.25</f>
+        <f>F121*E121</f>
         <v>0</v>
       </c>
-      <c r="H121" s="14">
-        <v>2</v>
-      </c>
-      <c r="I121" s="14">
-        <v>120</v>
-      </c>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
       <c r="J121" s="39"/>
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>7105</v>
+        <f t="shared" ref="A122:A127" si="0">RIGHT(D122:D257,4)</f>
+        <v>4993</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C122" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D122" s="28">
-        <v>1001203207105</v>
+        <v>1001060764993</v>
       </c>
       <c r="E122" s="24"/>
       <c r="F122" s="23">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="G122" s="23">
-        <f t="shared" ref="G122:G130" si="2">F122*E122</f>
+        <f>E122*0.25</f>
         <v>0</v>
       </c>
-      <c r="H122" s="14"/>
-      <c r="I122" s="14"/>
+      <c r="H122" s="14">
+        <v>2</v>
+      </c>
+      <c r="I122" s="14">
+        <v>120</v>
+      </c>
       <c r="J122" s="39"/>
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>7106</v>
+        <f t="shared" si="0"/>
+        <v>7105</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C123" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D123" s="28">
-        <v>1001205447106</v>
+        <v>1001203207105</v>
       </c>
       <c r="E123" s="24"/>
       <c r="F123" s="23">
         <v>0.09</v>
       </c>
       <c r="G123" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G123:G131" si="1">F123*E123</f>
         <v>0</v>
       </c>
       <c r="H123" s="14"/>
@@ -5048,24 +5049,24 @@
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>7107</v>
+        <f t="shared" si="0"/>
+        <v>7106</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C124" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D124" s="28">
-        <v>1001205467107</v>
+        <v>1001205447106</v>
       </c>
       <c r="E124" s="24"/>
       <c r="F124" s="23">
         <v>0.09</v>
       </c>
       <c r="G124" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H124" s="14"/>
@@ -5074,24 +5075,24 @@
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>7147</v>
+        <f t="shared" si="0"/>
+        <v>7107</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C125" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D125" s="28">
-        <v>1001063237147</v>
+        <v>1001205467107</v>
       </c>
       <c r="E125" s="24"/>
       <c r="F125" s="23">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="G125" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H125" s="14"/>
@@ -5100,24 +5101,24 @@
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>7229</v>
+        <f t="shared" si="0"/>
+        <v>7147</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>248</v>
+        <v>134</v>
       </c>
       <c r="C126" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D126" s="28">
-        <v>1001063237229</v>
+        <v>1001063237147</v>
       </c>
       <c r="E126" s="24"/>
       <c r="F126" s="23">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="G126" s="23">
-        <f>F126*E126</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H126" s="14"/>
@@ -5126,24 +5127,24 @@
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="93" t="str">
-        <f t="shared" ref="A127:A129" si="3">RIGHT(D127:D261,4)</f>
-        <v>7225</v>
+        <f t="shared" si="0"/>
+        <v>7229</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>135</v>
+        <v>248</v>
       </c>
       <c r="C127" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D127" s="28">
-        <v>1001066537225</v>
+        <v>1001063237229</v>
       </c>
       <c r="E127" s="24"/>
       <c r="F127" s="23">
         <v>0.18</v>
       </c>
       <c r="G127" s="23">
-        <f t="shared" si="2"/>
+        <f>F127*E127</f>
         <v>0</v>
       </c>
       <c r="H127" s="14"/>
@@ -5152,24 +5153,24 @@
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>7227</v>
+        <f t="shared" ref="A128:A130" si="2">RIGHT(D128:D262,4)</f>
+        <v>7225</v>
       </c>
       <c r="B128" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C128" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D128" s="28">
-        <v>1001063097227</v>
+        <v>1001066537225</v>
       </c>
       <c r="E128" s="24"/>
       <c r="F128" s="23">
         <v>0.18</v>
       </c>
       <c r="G128" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H128" s="14"/>
@@ -5178,24 +5179,24 @@
     </row>
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="93" t="str">
-        <f t="shared" si="3"/>
-        <v>7226</v>
+        <f t="shared" si="2"/>
+        <v>7227</v>
       </c>
       <c r="B129" s="27" t="s">
-        <v>246</v>
+        <v>136</v>
       </c>
       <c r="C129" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D129" s="28">
-        <v>1001066527226</v>
+        <v>1001063097227</v>
       </c>
       <c r="E129" s="24"/>
       <c r="F129" s="23">
         <v>0.18</v>
       </c>
       <c r="G129" s="23">
-        <f t="shared" ref="G129" si="4">F129*E129</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H129" s="14"/>
@@ -5204,24 +5205,24 @@
     </row>
     <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="93" t="str">
-        <f>RIGHT(D130:D257,4)</f>
-        <v>3684</v>
+        <f t="shared" si="2"/>
+        <v>7226</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="C130" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D130" s="28">
-        <v>1001062353684</v>
+        <v>1001066527226</v>
       </c>
       <c r="E130" s="24"/>
       <c r="F130" s="23">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="G130" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G130" si="3">F130*E130</f>
         <v>0</v>
       </c>
       <c r="H130" s="14"/>
@@ -5230,209 +5231,209 @@
     </row>
     <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="93" t="str">
-        <f>RIGHT(D131:D257,4)</f>
-        <v>5682</v>
+        <f>RIGHT(D131:D258,4)</f>
+        <v>3684</v>
       </c>
       <c r="B131" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C131" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D131" s="28">
-        <v>1001193115682</v>
+        <v>1001062353684</v>
       </c>
       <c r="E131" s="24"/>
       <c r="F131" s="23">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G131" s="23">
-        <f>E131*0.12</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H131" s="14">
-        <v>0.96</v>
-      </c>
-      <c r="I131" s="14">
-        <v>60</v>
-      </c>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
       <c r="J131" s="39"/>
     </row>
     <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="93" t="str">
-        <f>RIGHT(D132:D260,4)</f>
-        <v>4117</v>
+        <f>RIGHT(D132:D258,4)</f>
+        <v>5682</v>
       </c>
       <c r="B132" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="C132" s="30" t="s">
-        <v>23</v>
+        <v>138</v>
+      </c>
+      <c r="C132" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D132" s="28">
-        <v>1001062504117</v>
+        <v>1001193115682</v>
       </c>
       <c r="E132" s="24"/>
       <c r="F132" s="23">
-        <v>0.48749999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="G132" s="23">
-        <f>E132*1</f>
+        <f>E132*0.12</f>
         <v>0</v>
       </c>
       <c r="H132" s="14">
-        <v>3.9</v>
+        <v>0.96</v>
       </c>
       <c r="I132" s="14">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J132" s="39"/>
     </row>
     <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="93" t="str">
         <f>RIGHT(D133:D261,4)</f>
-        <v>3680</v>
+        <v>4117</v>
       </c>
       <c r="B133" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C133" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D133" s="28">
-        <v>1001062353680</v>
+        <v>1001062504117</v>
       </c>
       <c r="E133" s="24"/>
-      <c r="F133" s="23"/>
+      <c r="F133" s="23">
+        <v>0.48749999999999999</v>
+      </c>
       <c r="G133" s="23">
-        <f>E133</f>
+        <f>E133*1</f>
         <v>0</v>
       </c>
-      <c r="H133" s="14"/>
-      <c r="I133" s="14"/>
+      <c r="H133" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="I133" s="14">
+        <v>120</v>
+      </c>
       <c r="J133" s="39"/>
     </row>
     <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="93" t="str">
-        <f>RIGHT(D134:D261,4)</f>
-        <v>5483</v>
+        <f>RIGHT(D134:D262,4)</f>
+        <v>3680</v>
       </c>
       <c r="B134" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="C134" s="33" t="s">
-        <v>26</v>
+        <v>140</v>
+      </c>
+      <c r="C134" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D134" s="28">
-        <v>1001062505483</v>
+        <v>1001062353680</v>
       </c>
       <c r="E134" s="24"/>
-      <c r="F134" s="23">
-        <v>0.25</v>
-      </c>
+      <c r="F134" s="23"/>
       <c r="G134" s="23">
-        <f>E134*0.25</f>
+        <f>E134</f>
         <v>0</v>
       </c>
-      <c r="H134" s="14">
-        <v>2</v>
-      </c>
-      <c r="I134" s="14">
-        <v>120</v>
-      </c>
+      <c r="H134" s="14"/>
+      <c r="I134" s="14"/>
       <c r="J134" s="39"/>
     </row>
-    <row r="135" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="93" t="str">
         <f>RIGHT(D135:D262,4)</f>
-        <v>6453</v>
+        <v>5483</v>
       </c>
       <c r="B135" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C135" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D135" s="28">
-        <v>1001202506453</v>
+        <v>1001062505483</v>
       </c>
       <c r="E135" s="24"/>
       <c r="F135" s="23">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G135" s="23">
-        <f>E135*0.1</f>
+        <f>E135*0.25</f>
         <v>0</v>
       </c>
       <c r="H135" s="14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I135" s="14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J135" s="39"/>
     </row>
-    <row r="136" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="93" t="str">
         <f>RIGHT(D136:D263,4)</f>
+        <v>6453</v>
+      </c>
+      <c r="B136" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="C136" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D136" s="28">
+        <v>1001202506453</v>
+      </c>
+      <c r="E136" s="24"/>
+      <c r="F136" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G136" s="23">
+        <f>E136*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="H136" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I136" s="14">
+        <v>60</v>
+      </c>
+      <c r="J136" s="39"/>
+    </row>
+    <row r="137" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="93" t="str">
+        <f>RIGHT(D137:D264,4)</f>
         <v/>
       </c>
-      <c r="B136" s="74" t="s">
+      <c r="B137" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="C136" s="74"/>
-      <c r="D136" s="74"/>
-      <c r="E136" s="74"/>
-      <c r="F136" s="73"/>
-      <c r="G136" s="74"/>
-      <c r="H136" s="74"/>
-      <c r="I136" s="74"/>
-      <c r="J136" s="75"/>
-    </row>
-    <row r="137" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="93" t="str">
-        <f>RIGHT(D137:D267,4)</f>
-        <v>6470</v>
-      </c>
-      <c r="B137" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C137" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D137" s="80">
-        <v>1001092436470</v>
-      </c>
-      <c r="E137" s="24"/>
-      <c r="F137" s="23"/>
-      <c r="G137" s="23">
-        <f>E137*1</f>
-        <v>0</v>
-      </c>
-      <c r="H137" s="14"/>
-      <c r="I137" s="14"/>
-      <c r="J137" s="39"/>
-    </row>
-    <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C137" s="74"/>
+      <c r="D137" s="74"/>
+      <c r="E137" s="74"/>
+      <c r="F137" s="73"/>
+      <c r="G137" s="74"/>
+      <c r="H137" s="74"/>
+      <c r="I137" s="74"/>
+      <c r="J137" s="75"/>
+    </row>
+    <row r="138" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A138" s="93" t="str">
         <f>RIGHT(D138:D268,4)</f>
-        <v>6495</v>
+        <v>6470</v>
       </c>
       <c r="B138" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D138" s="80">
-        <v>1001092436495</v>
+        <v>1001092436470</v>
       </c>
       <c r="E138" s="24"/>
-      <c r="F138" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="F138" s="23"/>
       <c r="G138" s="23">
-        <f>F138*E138</f>
+        <f>E138*1</f>
         <v>0</v>
       </c>
       <c r="H138" s="14"/>
@@ -5442,20 +5443,20 @@
     <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="93" t="str">
         <f>RIGHT(D139:D269,4)</f>
-        <v>7235</v>
+        <v>6495</v>
       </c>
       <c r="B139" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C139" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D139" s="80">
-        <v>1001095227235</v>
+        <v>1001092436495</v>
       </c>
       <c r="E139" s="24"/>
       <c r="F139" s="23">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="G139" s="23">
         <f>F139*E139</f>
@@ -5468,20 +5469,20 @@
     <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="93" t="str">
         <f>RIGHT(D140:D270,4)</f>
-        <v>6411</v>
+        <v>7235</v>
       </c>
       <c r="B140" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C140" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D140" s="80">
-        <v>1001093316411</v>
+        <v>1001095227235</v>
       </c>
       <c r="E140" s="24"/>
       <c r="F140" s="23">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="G140" s="23">
         <f>F140*E140</f>
@@ -5493,22 +5494,24 @@
     </row>
     <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="93" t="str">
-        <f>RIGHT(D141:D268,4)</f>
-        <v>6866</v>
+        <f>RIGHT(D141:D271,4)</f>
+        <v>6411</v>
       </c>
       <c r="B141" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C141" s="32" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D141" s="80">
-        <v>1001095716866</v>
+        <v>1001093316411</v>
       </c>
       <c r="E141" s="24"/>
-      <c r="F141" s="23"/>
+      <c r="F141" s="23">
+        <v>0.3</v>
+      </c>
       <c r="G141" s="23">
-        <f>E141*1</f>
+        <f>F141*E141</f>
         <v>0</v>
       </c>
       <c r="H141" s="14"/>
@@ -5517,47 +5520,41 @@
     </row>
     <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="93" t="str">
-        <f>RIGHT(D142:D265,4)</f>
-        <v>3215</v>
-      </c>
-      <c r="B142" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C142" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D142" s="51">
-        <v>1001094053215</v>
+        <f>RIGHT(D142:D269,4)</f>
+        <v>6866</v>
+      </c>
+      <c r="B142" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C142" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D142" s="80">
+        <v>1001095716866</v>
       </c>
       <c r="E142" s="24"/>
-      <c r="F142" s="23">
-        <v>0.4</v>
-      </c>
+      <c r="F142" s="23"/>
       <c r="G142" s="23">
-        <f>E142*0.4</f>
+        <f>E142*1</f>
         <v>0</v>
       </c>
-      <c r="H142" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="I142" s="14">
-        <v>60</v>
-      </c>
+      <c r="H142" s="14"/>
+      <c r="I142" s="14"/>
       <c r="J142" s="39"/>
     </row>
-    <row r="143" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="93" t="str">
         <f>RIGHT(D143:D266,4)</f>
-        <v>7245</v>
+        <v>3215</v>
       </c>
       <c r="B143" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C143" s="37" t="s">
         <v>26</v>
       </c>
       <c r="D143" s="51">
-        <v>1001092687245</v>
+        <v>1001094053215</v>
       </c>
       <c r="E143" s="24"/>
       <c r="F143" s="23">
@@ -5567,101 +5564,105 @@
         <f>E143*0.4</f>
         <v>0</v>
       </c>
-      <c r="H143" s="14"/>
-      <c r="I143" s="14"/>
+      <c r="H143" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="I143" s="14">
+        <v>60</v>
+      </c>
       <c r="J143" s="39"/>
     </row>
-    <row r="144" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="93" t="str">
-        <f>RIGHT(D144:D268,4)</f>
+        <f>RIGHT(D144:D267,4)</f>
+        <v>7245</v>
+      </c>
+      <c r="B144" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C144" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D144" s="51">
+        <v>1001092687245</v>
+      </c>
+      <c r="E144" s="24"/>
+      <c r="F144" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="G144" s="23">
+        <f>E144*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="H144" s="14"/>
+      <c r="I144" s="14"/>
+      <c r="J144" s="39"/>
+    </row>
+    <row r="145" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="93" t="str">
+        <f>RIGHT(D145:D269,4)</f>
         <v/>
       </c>
-      <c r="B144" s="74" t="s">
+      <c r="B145" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="C144" s="74"/>
-      <c r="D144" s="74"/>
-      <c r="E144" s="74"/>
-      <c r="F144" s="73"/>
-      <c r="G144" s="74"/>
-      <c r="H144" s="74"/>
-      <c r="I144" s="74"/>
-      <c r="J144" s="75"/>
-    </row>
-    <row r="145" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="93" t="str">
-        <f>RIGHT(D145:D271,4)</f>
-        <v>7090</v>
-      </c>
-      <c r="B145" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="C145" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D145" s="28">
-        <v>1001084217090</v>
-      </c>
-      <c r="E145" s="24"/>
-      <c r="F145" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="G145" s="23">
-        <f>E145*F145</f>
-        <v>0</v>
-      </c>
-      <c r="H145" s="14"/>
-      <c r="I145" s="14">
-        <v>50</v>
-      </c>
-      <c r="J145" s="39"/>
-    </row>
-    <row r="146" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C145" s="74"/>
+      <c r="D145" s="74"/>
+      <c r="E145" s="74"/>
+      <c r="F145" s="73"/>
+      <c r="G145" s="74"/>
+      <c r="H145" s="74"/>
+      <c r="I145" s="74"/>
+      <c r="J145" s="75"/>
+    </row>
+    <row r="146" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A146" s="93" t="str">
         <f>RIGHT(D146:D272,4)</f>
-        <v>4691</v>
+        <v>7090</v>
       </c>
       <c r="B146" s="47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C146" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D146" s="28">
-        <v>1001083424691</v>
+        <v>1001084217090</v>
       </c>
       <c r="E146" s="24"/>
       <c r="F146" s="23">
         <v>0.3</v>
       </c>
       <c r="G146" s="23">
-        <f t="shared" ref="G146:G152" si="5">F146*E146</f>
+        <f>E146*F146</f>
         <v>0</v>
       </c>
       <c r="H146" s="14"/>
-      <c r="I146" s="14"/>
-      <c r="J146" s="92"/>
+      <c r="I146" s="14">
+        <v>50</v>
+      </c>
+      <c r="J146" s="39"/>
     </row>
     <row r="147" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="93" t="str">
         <f>RIGHT(D147:D273,4)</f>
-        <v>7187</v>
+        <v>4691</v>
       </c>
       <c r="B147" s="47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C147" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D147" s="28">
-        <v>1001085637187</v>
+        <v>1001083424691</v>
       </c>
       <c r="E147" s="24"/>
       <c r="F147" s="23">
         <v>0.3</v>
       </c>
       <c r="G147" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G147:G153" si="4">F147*E147</f>
         <v>0</v>
       </c>
       <c r="H147" s="14"/>
@@ -5671,23 +5672,23 @@
     <row r="148" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="93" t="str">
         <f>RIGHT(D148:D274,4)</f>
-        <v>6201</v>
+        <v>7187</v>
       </c>
       <c r="B148" s="47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C148" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D148" s="28">
-        <v>1001225636201</v>
+        <v>1001085637187</v>
       </c>
       <c r="E148" s="24"/>
       <c r="F148" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G148" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H148" s="14"/>
@@ -5696,24 +5697,24 @@
     </row>
     <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="93" t="str">
-        <f>RIGHT(D149:D274,4)</f>
-        <v>6842</v>
+        <f>RIGHT(D149:D275,4)</f>
+        <v>6201</v>
       </c>
       <c r="B149" s="47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C149" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D149" s="28">
-        <v>1001080216842</v>
+        <v>1001225636201</v>
       </c>
       <c r="E149" s="24"/>
       <c r="F149" s="23">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="G149" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H149" s="14"/>
@@ -5722,24 +5723,24 @@
     </row>
     <row r="150" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="93" t="str">
-        <f>RIGHT(D150:D274,4)</f>
-        <v>6492</v>
+        <f>RIGHT(D150:D275,4)</f>
+        <v>6842</v>
       </c>
       <c r="B150" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C150" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D150" s="28">
-        <v>1001084226492</v>
+        <v>1001080216842</v>
       </c>
       <c r="E150" s="24"/>
       <c r="F150" s="23">
         <v>0.3</v>
       </c>
       <c r="G150" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H150" s="14"/>
@@ -5748,24 +5749,24 @@
     </row>
     <row r="151" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="93" t="str">
-        <f>RIGHT(D151:D272,4)</f>
-        <v>6279</v>
+        <f>RIGHT(D151:D275,4)</f>
+        <v>6492</v>
       </c>
       <c r="B151" s="47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C151" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D151" s="28">
-        <v>1001220286279</v>
+        <v>1001084226492</v>
       </c>
       <c r="E151" s="24"/>
       <c r="F151" s="23">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G151" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H151" s="14"/>
@@ -5775,23 +5776,23 @@
     <row r="152" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="93" t="str">
         <f>RIGHT(D152:D273,4)</f>
-        <v>4786</v>
+        <v>6279</v>
       </c>
       <c r="B152" s="47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C152" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D152" s="28">
-        <v>1001053944786</v>
+        <v>1001220286279</v>
       </c>
       <c r="E152" s="24"/>
       <c r="F152" s="23">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="G152" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H152" s="14"/>
@@ -5801,23 +5802,23 @@
     <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="93" t="str">
         <f>RIGHT(D153:D274,4)</f>
-        <v>7052</v>
+        <v>4786</v>
       </c>
       <c r="B153" s="47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C153" s="35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D153" s="28">
-        <v>1001204447052</v>
+        <v>1001053944786</v>
       </c>
       <c r="E153" s="24"/>
       <c r="F153" s="23">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G153" s="23">
-        <f>E153</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H153" s="14"/>
@@ -5826,17 +5827,17 @@
     </row>
     <row r="154" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="93" t="str">
-        <f>RIGHT(D154:D274,4)</f>
-        <v>7053</v>
+        <f>RIGHT(D154:D275,4)</f>
+        <v>7052</v>
       </c>
       <c r="B154" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C154" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D154" s="28">
-        <v>1001223297053</v>
+        <v>1001204447052</v>
       </c>
       <c r="E154" s="24"/>
       <c r="F154" s="23">
@@ -5852,47 +5853,47 @@
     </row>
     <row r="155" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="93" t="str">
-        <f>RIGHT(D155:D274,4)</f>
-        <v>7092</v>
-      </c>
-      <c r="B155" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C155" s="33" t="s">
-        <v>26</v>
+        <f>RIGHT(D155:D275,4)</f>
+        <v>7053</v>
+      </c>
+      <c r="B155" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="C155" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="D155" s="28">
-        <v>1001223297092</v>
+        <v>1001223297053</v>
       </c>
       <c r="E155" s="24"/>
       <c r="F155" s="23">
-        <v>0.14000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G155" s="23">
-        <f>F155*E155</f>
+        <f>E155</f>
         <v>0</v>
       </c>
       <c r="H155" s="14"/>
       <c r="I155" s="14"/>
-      <c r="J155" s="39"/>
+      <c r="J155" s="92"/>
     </row>
     <row r="156" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="93" t="str">
         <f>RIGHT(D156:D275,4)</f>
-        <v>7103</v>
+        <v>7092</v>
       </c>
       <c r="B156" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C156" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D156" s="28">
-        <v>1001223297103</v>
+        <v>1001223297092</v>
       </c>
       <c r="E156" s="24"/>
       <c r="F156" s="23">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G156" s="23">
         <f>F156*E156</f>
@@ -5900,56 +5901,65 @@
       </c>
       <c r="H156" s="14"/>
       <c r="I156" s="14"/>
-      <c r="J156" s="92"/>
-    </row>
-    <row r="157" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J156" s="39"/>
+    </row>
+    <row r="157" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="93" t="str">
-        <f>RIGHT(D157:D272,4)</f>
-        <v>6919</v>
-      </c>
-      <c r="B157" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="C157" s="35" t="s">
+        <f>RIGHT(D157:D276,4)</f>
+        <v>7103</v>
+      </c>
+      <c r="B157" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C157" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D157" s="28">
-        <v>1001223296919</v>
+        <v>1001223297103</v>
       </c>
       <c r="E157" s="24"/>
-      <c r="F157" s="23"/>
+      <c r="F157" s="23">
+        <v>0.18</v>
+      </c>
       <c r="G157" s="23">
-        <f>E157*0.18</f>
+        <f>F157*E157</f>
         <v>0</v>
       </c>
       <c r="H157" s="14"/>
       <c r="I157" s="14"/>
       <c r="J157" s="92"/>
     </row>
-    <row r="158" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="93" t="str">
         <f>RIGHT(D158:D273,4)</f>
-        <v/>
-      </c>
-      <c r="B158" s="74" t="s">
-        <v>165</v>
-      </c>
-      <c r="C158" s="74"/>
-      <c r="D158" s="74"/>
-      <c r="E158" s="74"/>
-      <c r="F158" s="73"/>
-      <c r="G158" s="74"/>
-      <c r="H158" s="74"/>
-      <c r="I158" s="74"/>
-      <c r="J158" s="75"/>
+        <v>6919</v>
+      </c>
+      <c r="B158" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="C158" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D158" s="28">
+        <v>1001223296919</v>
+      </c>
+      <c r="E158" s="24"/>
+      <c r="F158" s="23"/>
+      <c r="G158" s="23">
+        <f>E158*0.18</f>
+        <v>0</v>
+      </c>
+      <c r="H158" s="14"/>
+      <c r="I158" s="14"/>
+      <c r="J158" s="92"/>
     </row>
     <row r="159" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="93" t="str">
-        <f>RIGHT(D159:D276,4)</f>
+        <f>RIGHT(D159:D274,4)</f>
         <v/>
       </c>
       <c r="B159" s="74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C159" s="74"/>
       <c r="D159" s="74"/>
@@ -5960,73 +5970,66 @@
       <c r="I159" s="74"/>
       <c r="J159" s="75"/>
     </row>
-    <row r="160" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="93" t="str">
         <f>RIGHT(D160:D277,4)</f>
-        <v>6314</v>
-      </c>
-      <c r="B160" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="C160" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D160" s="28">
-        <v>1002112606314</v>
-      </c>
-      <c r="E160" s="24"/>
-      <c r="F160" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G160" s="23">
-        <f>E160*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H160" s="14">
-        <v>8</v>
-      </c>
-      <c r="I160" s="72">
-        <v>120</v>
-      </c>
-      <c r="J160" s="39"/>
-    </row>
-    <row r="161" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="B160" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="C160" s="74"/>
+      <c r="D160" s="74"/>
+      <c r="E160" s="74"/>
+      <c r="F160" s="73"/>
+      <c r="G160" s="74"/>
+      <c r="H160" s="74"/>
+      <c r="I160" s="74"/>
+      <c r="J160" s="75"/>
+    </row>
+    <row r="161" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A161" s="93" t="str">
         <f>RIGHT(D161:D278,4)</f>
-        <v>6155</v>
+        <v>6314</v>
       </c>
       <c r="B161" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C161" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D161" s="28">
-        <v>1002115036155</v>
+        <v>1002112606314</v>
       </c>
       <c r="E161" s="24"/>
-      <c r="F161" s="23"/>
+      <c r="F161" s="23">
+        <v>0.5</v>
+      </c>
       <c r="G161" s="23">
-        <f>E161*0.45</f>
+        <f>E161*0.5</f>
         <v>0</v>
       </c>
-      <c r="H161" s="14"/>
-      <c r="I161" s="72"/>
+      <c r="H161" s="14">
+        <v>8</v>
+      </c>
+      <c r="I161" s="72">
+        <v>120</v>
+      </c>
       <c r="J161" s="39"/>
     </row>
     <row r="162" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="93" t="str">
         <f>RIGHT(D162:D279,4)</f>
-        <v>6157</v>
+        <v>6155</v>
       </c>
       <c r="B162" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C162" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D162" s="28">
-        <v>1002115056157</v>
+        <v>1002115036155</v>
       </c>
       <c r="E162" s="24"/>
       <c r="F162" s="23"/>
@@ -6038,174 +6041,168 @@
       <c r="I162" s="72"/>
       <c r="J162" s="39"/>
     </row>
-    <row r="163" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="93" t="str">
-        <f t="shared" ref="A163:A174" si="6">RIGHT(D163:D278,4)</f>
+        <f>RIGHT(D163:D280,4)</f>
+        <v>6157</v>
+      </c>
+      <c r="B163" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C163" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D163" s="28">
+        <v>1002115056157</v>
+      </c>
+      <c r="E163" s="24"/>
+      <c r="F163" s="23"/>
+      <c r="G163" s="23">
+        <f>E163*0.45</f>
+        <v>0</v>
+      </c>
+      <c r="H163" s="14"/>
+      <c r="I163" s="72"/>
+      <c r="J163" s="39"/>
+    </row>
+    <row r="164" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="93" t="str">
+        <f t="shared" ref="A164:A175" si="5">RIGHT(D164:D279,4)</f>
         <v>6313</v>
       </c>
-      <c r="B163" s="47" t="s">
+      <c r="B164" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="C163" s="36" t="s">
+      <c r="C164" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D163" s="28">
+      <c r="D164" s="28">
         <v>1002112606313</v>
       </c>
-      <c r="E163" s="24"/>
-      <c r="F163" s="23">
+      <c r="E164" s="24"/>
+      <c r="F164" s="23">
         <v>0.9</v>
       </c>
-      <c r="G163" s="23">
-        <f>E163*0.9</f>
+      <c r="G164" s="23">
+        <f>E164*0.9</f>
         <v>0</v>
       </c>
-      <c r="H163" s="14">
+      <c r="H164" s="14">
         <v>9</v>
       </c>
-      <c r="I163" s="72">
+      <c r="I164" s="72">
         <v>120</v>
       </c>
-      <c r="J163" s="39"/>
-    </row>
-    <row r="164" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="93" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B164" s="74" t="s">
-        <v>171</v>
-      </c>
-      <c r="C164" s="74"/>
-      <c r="D164" s="74"/>
-      <c r="E164" s="74"/>
-      <c r="F164" s="73"/>
-      <c r="G164" s="74"/>
-      <c r="H164" s="74"/>
-      <c r="I164" s="74"/>
-      <c r="J164" s="75"/>
+      <c r="J164" s="39"/>
     </row>
     <row r="165" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="93" t="str">
-        <f t="shared" si="6"/>
-        <v>4945</v>
-      </c>
-      <c r="B165" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="C165" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D165" s="28">
-        <v>1002151784945</v>
-      </c>
-      <c r="E165" s="24"/>
-      <c r="F165" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G165" s="23">
-        <f>E165*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H165" s="14">
-        <v>8</v>
-      </c>
-      <c r="I165" s="72">
-        <v>120</v>
-      </c>
-      <c r="J165" s="39"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="B165" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="C165" s="74"/>
+      <c r="D165" s="74"/>
+      <c r="E165" s="74"/>
+      <c r="F165" s="73"/>
+      <c r="G165" s="74"/>
+      <c r="H165" s="74"/>
+      <c r="I165" s="74"/>
+      <c r="J165" s="75"/>
     </row>
     <row r="166" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
+        <v>4945</v>
+      </c>
+      <c r="B166" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="C166" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D166" s="28">
+        <v>1002151784945</v>
+      </c>
+      <c r="E166" s="24"/>
+      <c r="F166" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G166" s="23">
+        <f>E166*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="H166" s="14">
+        <v>8</v>
+      </c>
+      <c r="I166" s="72">
+        <v>120</v>
+      </c>
+      <c r="J166" s="39"/>
+    </row>
+    <row r="167" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="93" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="B166" s="74" t="s">
+      <c r="B167" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="C166" s="74"/>
-      <c r="D166" s="74"/>
-      <c r="E166" s="74"/>
-      <c r="F166" s="73"/>
-      <c r="G166" s="74"/>
-      <c r="H166" s="74"/>
-      <c r="I166" s="74"/>
-      <c r="J166" s="75"/>
-    </row>
-    <row r="167" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="93" t="str">
-        <f t="shared" si="6"/>
+      <c r="C167" s="74"/>
+      <c r="D167" s="74"/>
+      <c r="E167" s="74"/>
+      <c r="F167" s="73"/>
+      <c r="G167" s="74"/>
+      <c r="H167" s="74"/>
+      <c r="I167" s="74"/>
+      <c r="J167" s="75"/>
+    </row>
+    <row r="168" spans="1:11" s="88" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="93" t="str">
+        <f t="shared" si="5"/>
         <v>4956</v>
       </c>
-      <c r="B167" s="89" t="s">
+      <c r="B168" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="C167" s="90" t="s">
+      <c r="C168" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D167" s="83">
+      <c r="D168" s="83">
         <v>1002133974956</v>
       </c>
-      <c r="E167" s="84"/>
-      <c r="F167" s="85">
+      <c r="E168" s="84"/>
+      <c r="F168" s="85">
         <v>0.42</v>
       </c>
-      <c r="G167" s="85">
-        <f>E167*0.42</f>
-        <v>0</v>
-      </c>
-      <c r="H167" s="86">
-        <v>4.2</v>
-      </c>
-      <c r="I167" s="91">
-        <v>120</v>
-      </c>
-      <c r="J167" s="86"/>
-      <c r="K167" s="87"/>
-    </row>
-    <row r="168" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="93" t="str">
-        <f t="shared" si="6"/>
-        <v>1762</v>
-      </c>
-      <c r="B168" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="C168" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D168" s="28">
-        <v>1002131151762</v>
-      </c>
-      <c r="E168" s="24"/>
-      <c r="F168" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G168" s="23">
+      <c r="G168" s="85">
         <f>E168*0.42</f>
         <v>0</v>
       </c>
-      <c r="H168" s="14">
+      <c r="H168" s="86">
         <v>4.2</v>
       </c>
-      <c r="I168" s="72">
+      <c r="I168" s="91">
         <v>120</v>
       </c>
-      <c r="J168" s="39"/>
-    </row>
-    <row r="169" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J168" s="86"/>
+      <c r="K168" s="87"/>
+    </row>
+    <row r="169" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A169" s="93" t="str">
-        <f t="shared" si="6"/>
-        <v>1764</v>
+        <f t="shared" si="5"/>
+        <v>1762</v>
       </c>
       <c r="B169" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="C169" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C169" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D169" s="28">
-        <v>1002131181764</v>
+        <v>1002131151762</v>
       </c>
       <c r="E169" s="24"/>
       <c r="F169" s="23">
@@ -6223,30 +6220,43 @@
       </c>
       <c r="J169" s="39"/>
     </row>
-    <row r="170" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="93" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B170" s="74" t="s">
-        <v>177</v>
-      </c>
-      <c r="C170" s="74"/>
-      <c r="D170" s="74"/>
-      <c r="E170" s="74"/>
-      <c r="F170" s="73"/>
-      <c r="G170" s="74"/>
-      <c r="H170" s="74"/>
-      <c r="I170" s="74"/>
-      <c r="J170" s="75"/>
+        <f t="shared" si="5"/>
+        <v>1764</v>
+      </c>
+      <c r="B170" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C170" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D170" s="28">
+        <v>1002131181764</v>
+      </c>
+      <c r="E170" s="24"/>
+      <c r="F170" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G170" s="23">
+        <f>E170*0.42</f>
+        <v>0</v>
+      </c>
+      <c r="H170" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="I170" s="72">
+        <v>120</v>
+      </c>
+      <c r="J170" s="39"/>
     </row>
     <row r="171" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B171" s="74" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C171" s="74"/>
       <c r="D171" s="74"/>
@@ -6259,131 +6269,138 @@
     </row>
     <row r="172" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="B172" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="C172" s="74"/>
+      <c r="D172" s="74"/>
+      <c r="E172" s="74"/>
+      <c r="F172" s="73"/>
+      <c r="G172" s="74"/>
+      <c r="H172" s="74"/>
+      <c r="I172" s="74"/>
+      <c r="J172" s="75"/>
+    </row>
+    <row r="173" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="93" t="str">
+        <f t="shared" si="5"/>
         <v>6004</v>
       </c>
-      <c r="B172" s="47" t="s">
+      <c r="B173" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="C172" s="36" t="s">
+      <c r="C173" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D172" s="68" t="s">
+      <c r="D173" s="68" t="s">
         <v>180</v>
-      </c>
-      <c r="E172" s="24"/>
-      <c r="F172" s="23">
-        <v>1</v>
-      </c>
-      <c r="G172" s="23">
-        <f>E172*1</f>
-        <v>0</v>
-      </c>
-      <c r="H172" s="14">
-        <v>8</v>
-      </c>
-      <c r="I172" s="72">
-        <v>120</v>
-      </c>
-      <c r="J172" s="39"/>
-    </row>
-    <row r="173" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="93" t="str">
-        <f t="shared" si="6"/>
-        <v>5417</v>
-      </c>
-      <c r="B173" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="C173" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D173" s="68" t="s">
-        <v>182</v>
       </c>
       <c r="E173" s="24"/>
       <c r="F173" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G173" s="23">
         <f>E173*1</f>
         <v>0</v>
       </c>
       <c r="H173" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I173" s="72">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="J173" s="39"/>
     </row>
-    <row r="174" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A174" s="93" t="str">
-        <f t="shared" si="6"/>
-        <v>6019</v>
+        <f t="shared" si="5"/>
+        <v>5417</v>
       </c>
       <c r="B174" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="C174" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D174" s="69" t="s">
-        <v>184</v>
+        <v>181</v>
+      </c>
+      <c r="C174" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D174" s="68" t="s">
+        <v>182</v>
       </c>
       <c r="E174" s="24"/>
       <c r="F174" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G174" s="23">
         <f>E174*1</f>
         <v>0</v>
       </c>
       <c r="H174" s="14">
+        <v>6</v>
+      </c>
+      <c r="I174" s="72">
+        <v>90</v>
+      </c>
+      <c r="J174" s="39"/>
+    </row>
+    <row r="175" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="93" t="str">
+        <f t="shared" si="5"/>
+        <v>6019</v>
+      </c>
+      <c r="B175" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C175" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D175" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="E175" s="24"/>
+      <c r="F175" s="23">
+        <v>1</v>
+      </c>
+      <c r="G175" s="23">
+        <f>E175*1</f>
+        <v>0</v>
+      </c>
+      <c r="H175" s="14">
         <v>12</v>
       </c>
-      <c r="I174" s="72">
+      <c r="I175" s="72">
         <v>120</v>
       </c>
-      <c r="J174" s="39"/>
-    </row>
-    <row r="175" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="77"/>
-      <c r="B175" s="77" t="s">
+      <c r="J175" s="39"/>
+    </row>
+    <row r="176" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="77"/>
+      <c r="B176" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="C175" s="16"/>
-      <c r="D175" s="48"/>
-      <c r="E175" s="17">
-        <f>SUM(E5:E174)</f>
+      <c r="C176" s="16"/>
+      <c r="D176" s="48"/>
+      <c r="E176" s="17">
+        <f>SUM(E5:E175)</f>
         <v>0</v>
       </c>
-      <c r="F175" s="17">
-        <f>SUM(F10:F174)</f>
+      <c r="F176" s="17">
+        <f>SUM(F10:F175)</f>
         <v>45.753333333333309</v>
       </c>
-      <c r="G175" s="17">
-        <f>SUM(G11:G174)</f>
+      <c r="G176" s="17">
+        <f>SUM(G11:G175)</f>
         <v>0</v>
       </c>
-      <c r="H175" s="17">
-        <f>SUM(H10:H171)</f>
+      <c r="H176" s="17">
+        <f>SUM(H10:H172)</f>
         <v>128.91</v>
       </c>
-      <c r="I175" s="17"/>
-      <c r="J175" s="17"/>
-    </row>
-    <row r="176" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="53"/>
-      <c r="C176" s="18"/>
-      <c r="D176" s="52"/>
-      <c r="F176" s="19"/>
-      <c r="G176" s="19"/>
-      <c r="H176" s="20"/>
-      <c r="I176" s="20"/>
-      <c r="J176" s="21"/>
-    </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I176" s="17"/>
+      <c r="J176" s="17"/>
+    </row>
+    <row r="177" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B177" s="53"/>
       <c r="C177" s="18"/>
       <c r="D177" s="52"/>
@@ -21613,17 +21630,27 @@
       <c r="I1699" s="20"/>
       <c r="J1699" s="21"/>
     </row>
+    <row r="1700" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1700" s="53"/>
+      <c r="C1700" s="18"/>
+      <c r="D1700" s="52"/>
+      <c r="F1700" s="19"/>
+      <c r="G1700" s="19"/>
+      <c r="H1700" s="20"/>
+      <c r="I1700" s="20"/>
+      <c r="J1700" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A9:J175" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J176" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B168" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B169" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D172:D174" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D173:D175" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>
